--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Lanslot\OneDrive\课程相关\17Fall\CS 555\Project\555\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie\Documents\GitHub\555\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="D1F89168FB057B755066A2A655A317B81BD9ED13" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{747ED1DC-9AC9-4D83-BC9F-CC130E4DAB43}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="463" windowWidth="28800" windowHeight="16423" tabRatio="500" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="500" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -22,11 +21,8 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -570,7 +566,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -811,71 +807,71 @@
     </xf>
   </cellXfs>
   <cellStyles count="65">
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -891,9 +887,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -962,7 +958,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC8B-423E-BCE0-97BCA44D3CBF}"/>
             </c:ext>
@@ -978,11 +974,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1485937376"/>
-        <c:axId val="1449810800"/>
+        <c:axId val="360403976"/>
+        <c:axId val="360404360"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1485937376"/>
+        <c:axId val="360403976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -992,14 +988,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1449810800"/>
+        <c:crossAx val="360404360"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1449810800"/>
+        <c:axId val="360404360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1010,7 +1006,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1485937376"/>
+        <c:crossAx val="360403976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1028,9 +1024,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1059,6 +1055,9 @@
                 <c:pt idx="0">
                   <c:v>41535</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>41547</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1071,11 +1070,14 @@
                 <c:pt idx="0">
                   <c:v>36</c:v>
                 </c:pt>
+                <c:pt idx="1">
+                  <c:v>30</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DC9-401C-B8F7-DDA8A66F6D29}"/>
             </c:ext>
@@ -1091,11 +1093,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1485971136"/>
-        <c:axId val="1485973888"/>
+        <c:axId val="360667904"/>
+        <c:axId val="360668288"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="1485971136"/>
+        <c:axId val="360667904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1105,14 +1107,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1485973888"/>
+        <c:crossAx val="360668288"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="1485973888"/>
+        <c:axId val="360668288"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1123,7 +1125,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1485971136"/>
+        <c:crossAx val="360667904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1160,7 +1162,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1198,7 +1200,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1273,7 +1275,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1338,7 +1340,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1409,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1477,7 +1479,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1546,7 +1548,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1616,7 +1618,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1956,21 +1958,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.86328125" style="24" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.86328125" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.46484375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" style="24" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.84375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="25" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.46484375" style="25" customWidth="1"/>
-    <col min="6" max="16384" width="11.06640625" style="25"/>
+    <col min="5" max="5" width="20.4609375" style="25" customWidth="1"/>
+    <col min="6" max="16384" width="11.07421875" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.3">
@@ -2058,7 +2060,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="D9" s="23" t="s">
         <v>30</v>
       </c>
@@ -2067,15 +2069,15 @@
       </c>
       <c r="G9" s="26"/>
     </row>
-    <row r="10" spans="1:8" ht="16.3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="G10" s="27"/>
       <c r="H10" s="28"/>
     </row>
-    <row r="11" spans="1:8" ht="16.3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="16.3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:8" ht="16.5" x14ac:dyDescent="0.35">
       <c r="G12" s="27"/>
       <c r="H12" s="28"/>
     </row>
@@ -2085,10 +2087,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2096,21 +2098,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="K38" sqref="K38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" style="5"/>
-    <col min="2" max="2" width="9.46484375" customWidth="1"/>
-    <col min="3" max="3" width="15.86328125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="5"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
@@ -2290,21 +2292,21 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" style="1"/>
-    <col min="2" max="2" width="16.6640625" customWidth="1"/>
-    <col min="3" max="3" width="12.46484375" customWidth="1"/>
-    <col min="4" max="4" width="7.1328125" customWidth="1"/>
-    <col min="5" max="5" width="6.86328125" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="10.84375" style="1"/>
+    <col min="2" max="2" width="16.69140625" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="7" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="3" customFormat="1" x14ac:dyDescent="0.3">
@@ -2336,6 +2338,14 @@
       </c>
       <c r="D2">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>41547</v>
+      </c>
+      <c r="B3">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -2347,24 +2357,24 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="H10" sqref="E10:H10"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1328125" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.15234375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1328125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.46484375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.86328125" style="4"/>
+    <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.84375" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2415,9 +2425,15 @@
       <c r="F2" s="14">
         <v>60</v>
       </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="17"/>
+      <c r="G2" s="14">
+        <v>13</v>
+      </c>
+      <c r="H2" s="14">
+        <v>90</v>
+      </c>
+      <c r="I2" s="17">
+        <v>41542</v>
+      </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
@@ -2530,9 +2546,15 @@
       <c r="F7" s="14">
         <v>60</v>
       </c>
-      <c r="G7" s="14"/>
-      <c r="H7" s="14"/>
-      <c r="I7" s="17"/>
+      <c r="G7" s="14">
+        <v>20</v>
+      </c>
+      <c r="H7" s="14">
+        <v>60</v>
+      </c>
+      <c r="I7" s="17">
+        <v>41547</v>
+      </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="14" t="s">
@@ -2591,11 +2613,11 @@
       </c>
       <c r="G10" s="21">
         <f>SUM(G2:G9)</f>
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="H10" s="21">
         <f>SUM(H2:H9)</f>
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.3">
@@ -2640,16 +2662,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="25.46484375" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4609375" style="20" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -2859,18 +2881,18 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" style="14"/>
-    <col min="2" max="2" width="26.46484375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.86328125" style="14"/>
+    <col min="1" max="1" width="10.84375" style="14"/>
+    <col min="2" max="2" width="26.4609375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3039,18 +3061,18 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.86328125" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.86328125" style="14"/>
+    <col min="1" max="1" width="10.84375" style="14"/>
     <col min="2" max="2" width="26" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.86328125" style="14"/>
+    <col min="3" max="16384" width="10.84375" style="14"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.3">
@@ -3219,19 +3241,19 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.06640625" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.06640625" style="31"/>
-    <col min="2" max="2" width="28.1328125" style="31" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.46484375" style="33" customWidth="1"/>
-    <col min="4" max="16384" width="11.06640625" style="31"/>
+    <col min="1" max="1" width="11.07421875" style="31"/>
+    <col min="2" max="2" width="28.15234375" style="31" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="33" customWidth="1"/>
+    <col min="4" max="16384" width="11.07421875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" s="29" customFormat="1" x14ac:dyDescent="0.3">
@@ -3401,7 +3423,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="60" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.3">
       <c r="A14" s="31" t="s">
         <v>105</v>
       </c>
@@ -3478,7 +3500,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="15" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>112</v>
       </c>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="163">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -155,15 +155,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Bring pizza to our meetings</t>
-  </si>
-  <si>
-    <t>Leaving leftover pizza on the counter</t>
-  </si>
-  <si>
-    <t>Bring silverware for everyone</t>
-  </si>
-  <si>
     <t>Marriage should not occur during marriage to another spouse</t>
   </si>
   <si>
@@ -536,16 +527,28 @@
     <t>Yet to Start</t>
   </si>
   <si>
-    <t>continious integration</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Anyone of us can update the burndown chart, whenever they commit changes, and update the actual time spent coding the userstories.                                          2. More decsiplin will be enforced, so each member finish, and integrate it by Sat, so if any issue occure, it allows us time to fix it.                                                                3. As the project grows bigger, and gets more complex, the team members were confused about the structure of the project, but after the sprint review, we decided to adopt encapsulation,because it will make the project more orgnized,less effort and help in future development. Files will be orgnized as unittest.py, userstories.py, and gedcomefile.py which includes the basis for the gedcom file. </t>
-  </si>
-  <si>
     <t>not integrating your code</t>
   </si>
   <si>
     <t>not writing comments</t>
+  </si>
+  <si>
+    <t>Update Excel file once done with coding with the new values</t>
+  </si>
+  <si>
+    <t>continious integration : one intergation review to be done every Saturday during the group meeting</t>
+  </si>
+  <si>
+    <t>Frequently talking to the partners and one weekly meeting (every Saturday) to check hoe everything is going.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cheking on how everyone is doing with their user story and helping each other </t>
+  </si>
+  <si>
+    <t>unstructured code: we're working on making a better structure to the code (introducing encansulation)</t>
+  </si>
+  <si>
+    <t>maintaining better documentation and minutes during our meetings</t>
   </si>
 </sst>
 </file>
@@ -740,7 +743,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -806,9 +809,6 @@
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -818,10 +818,16 @@
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1978,7 +1984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
       <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
@@ -2011,70 +2017,70 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B3" s="24" t="s">
         <v>138</v>
       </c>
-      <c r="B3" s="24" t="s">
-        <v>141</v>
-      </c>
       <c r="C3" s="24" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D3" s="24" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="E3" s="24" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="23" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C4" s="24" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="D4" s="24" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="E4" s="24" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="23" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C5" s="24" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D5" s="24" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E5" s="24" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="23" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D6" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="24" t="s">
         <v>152</v>
-      </c>
-      <c r="E6" s="24" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
@@ -2134,37 +2140,37 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -2187,7 +2193,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B15" s="7">
         <v>41065</v>
@@ -2203,7 +2209,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B16" s="7">
         <v>41078</v>
@@ -2228,7 +2234,7 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B17" s="7">
         <v>41092</v>
@@ -2253,7 +2259,7 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B18" s="7">
         <v>41106</v>
@@ -2278,7 +2284,7 @@
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B19" s="7">
         <v>41120</v>
@@ -2313,69 +2319,69 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="38"/>
-    <col min="2" max="2" width="16.6640625" style="39" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="39" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="39" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="39" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="40" customWidth="1"/>
-    <col min="7" max="16384" width="11.1640625" style="39"/>
+    <col min="1" max="1" width="11.1640625" style="37"/>
+    <col min="2" max="2" width="16.6640625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="38" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="38" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="38" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="11.1640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="36" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="37" t="s">
+      <c r="F1" s="36" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="38">
+      <c r="A2" s="37">
         <v>41535</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="38">
         <v>36</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="38">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="38">
+      <c r="A3" s="37">
         <v>41549</v>
       </c>
-      <c r="B3" s="39">
+      <c r="B3" s="38">
         <v>30</v>
       </c>
-      <c r="C3" s="39">
+      <c r="C3" s="38">
         <v>8</v>
       </c>
-      <c r="D3" s="39">
+      <c r="D3" s="38">
         <v>134</v>
       </c>
-      <c r="E3" s="42">
+      <c r="E3" s="40">
         <v>850</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="39">
         <f>(D3-D2)/E3*60</f>
         <v>9.4588235294117649</v>
       </c>
@@ -2390,10 +2396,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2440,13 +2446,13 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D2" s="13" t="s">
         <v>25</v>
@@ -2469,27 +2475,27 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="34">
+      <c r="E3" s="33">
         <v>75</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <v>60</v>
       </c>
       <c r="G3" s="13">
         <v>20</v>
       </c>
-      <c r="H3" s="34">
+      <c r="H3" s="33">
         <v>30</v>
       </c>
       <c r="I3" s="16">
@@ -2498,27 +2504,27 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="34">
+      <c r="E4" s="33">
         <v>75</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>60</v>
       </c>
       <c r="G4" s="13">
         <v>21</v>
       </c>
-      <c r="H4" s="34">
+      <c r="H4" s="33">
         <v>500</v>
       </c>
       <c r="I4" s="16">
@@ -2527,13 +2533,13 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D5" s="13" t="s">
         <v>25</v>
@@ -2556,13 +2562,13 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="13" t="s">
         <v>25</v>
@@ -2585,13 +2591,13 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D7" s="13" t="s">
         <v>25</v>
@@ -2614,13 +2620,13 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" s="13" t="s">
         <v>25</v>
@@ -2643,13 +2649,13 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D9" s="13" t="s">
         <v>25</v>
@@ -2693,50 +2699,55 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="273" x14ac:dyDescent="0.15">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="41" t="s">
+        <v>160</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="41" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="42" t="s">
         <v>159</v>
       </c>
-      <c r="I15" s="4"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="17" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="18" t="s">
-        <v>33</v>
-      </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="41" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="43" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="33" t="s">
-        <v>32</v>
+      <c r="B21" s="41" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="41" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
-        <v>161</v>
+        <v>156</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="B24" s="18" t="s">
+        <v>162</v>
       </c>
     </row>
   </sheetData>
@@ -2790,16 +2801,16 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>140</v>
+        <v>55</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E2" s="13">
         <v>60</v>
@@ -2813,16 +2824,16 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E3" s="13">
         <v>50</v>
@@ -2836,16 +2847,16 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>137</v>
+        <v>58</v>
+      </c>
+      <c r="C4" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E4" s="13">
         <v>90</v>
@@ -2859,16 +2870,16 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C5" s="34" t="s">
-        <v>140</v>
+        <v>59</v>
+      </c>
+      <c r="C5" s="33" t="s">
+        <v>137</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E5" s="13">
         <v>88</v>
@@ -2882,16 +2893,16 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E6" s="13">
         <v>50</v>
@@ -2905,16 +2916,16 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C7" s="34" t="s">
-        <v>139</v>
+        <v>62</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" s="13">
         <v>50</v>
@@ -2928,16 +2939,16 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="34" t="s">
-        <v>138</v>
+        <v>63</v>
+      </c>
+      <c r="C8" s="33" t="s">
+        <v>135</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E8" s="13">
         <v>50</v>
@@ -2950,17 +2961,17 @@
       <c r="I8" s="13"/>
     </row>
     <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="34" t="s">
-        <v>107</v>
+      <c r="A9" s="33" t="s">
+        <v>104</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E9" s="13">
         <v>50</v>
@@ -3022,86 +3033,86 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
@@ -3111,30 +3122,30 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -3207,114 +3218,114 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.15">
@@ -3359,277 +3370,277 @@
   <sheetData>
     <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="28" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A2" s="30" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B2" s="30" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A3" s="30" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C3" s="31" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C4" s="31" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A5" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B5" s="30" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C5" s="31" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.15">
       <c r="A6" s="30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A7" s="30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C7" s="31" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="30" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C8" s="31" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A9" s="30" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C9" s="31" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A10" s="30" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C10" s="31" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A11" s="30" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A12" s="30" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B12" s="30" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="31" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A13" s="30" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B13" s="30" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A14" s="30" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B14" s="30" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C14" s="31" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A15" s="30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C15" s="31" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A16" s="30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B16" s="30" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C16" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.15">
       <c r="A17" s="30" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B17" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A18" s="30" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B18" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A19" s="30" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B19" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C19" s="31" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A20" s="30" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B20" s="30" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C20" s="31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A21" s="30" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="B21" s="30" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C21" s="31" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A22" s="30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B22" s="30" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C22" s="31" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A23" s="30" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B23" s="30" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C23" s="31" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A24" s="30" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B24" s="30" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C24" s="31" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A25" s="30" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B25" s="30" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C25" s="31" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.15">

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28702"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celestesakhile/Desktop/555/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie\Documents\GitHub\555\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,11 +21,8 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -34,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -549,6 +546,9 @@
   </si>
   <si>
     <t>maintaining better documentation and minutes during our meetings</t>
+  </si>
+  <si>
+    <t>Completed</t>
   </si>
 </sst>
 </file>
@@ -559,7 +559,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -743,7 +743,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -827,6 +827,9 @@
     </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
@@ -936,22 +939,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065.0</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078.0</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092.0</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106.0</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120.0</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -963,19 +966,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -997,28 +1000,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-465592464"/>
-        <c:axId val="-465590144"/>
+        <c:axId val="407744360"/>
+        <c:axId val="407741616"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-465592464"/>
+        <c:axId val="407744360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-465590144"/>
+        <c:crossAx val="407741616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-465590144"/>
+        <c:axId val="407741616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1029,7 +1032,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-465592464"/>
+        <c:crossAx val="407744360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1040,7 +1043,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1076,10 +1079,10 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41535.0</c:v>
+                  <c:v>41535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41549.0</c:v>
+                  <c:v>41549</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1091,10 +1094,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36.0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30.0</c:v>
+                  <c:v>30</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1116,11 +1119,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-465744704"/>
-        <c:axId val="-465742384"/>
+        <c:axId val="407744752"/>
+        <c:axId val="407746320"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="-465744704"/>
+        <c:axId val="407744752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1130,14 +1133,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-465742384"/>
+        <c:crossAx val="407746320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="-465742384"/>
+        <c:axId val="407746320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1148,7 +1151,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="-465744704"/>
+        <c:crossAx val="407744752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1159,7 +1162,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1185,7 +1188,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1223,7 +1226,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1298,7 +1301,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1363,7 +1366,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1432,7 +1435,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1502,7 +1505,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1571,7 +1574,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1641,7 +1644,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1984,21 +1987,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.84375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="24" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="24"/>
+    <col min="5" max="5" width="20.4609375" style="24" customWidth="1"/>
+    <col min="6" max="16384" width="11.15234375" style="24"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="22" customFormat="1">
       <c r="A1" s="21" t="s">
         <v>18</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8">
       <c r="A3" s="23" t="s">
         <v>135</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8">
       <c r="A4" s="23" t="s">
         <v>134</v>
       </c>
@@ -2049,7 +2052,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8">
       <c r="A5" s="23" t="s">
         <v>136</v>
       </c>
@@ -2066,7 +2069,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8">
       <c r="A6" s="23" t="s">
         <v>137</v>
       </c>
@@ -2083,7 +2086,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16.5">
       <c r="D9" s="22" t="s">
         <v>30</v>
       </c>
@@ -2092,15 +2095,15 @@
       </c>
       <c r="G9" s="25"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="G10" s="26"/>
       <c r="H10" s="27"/>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="G11" s="26"/>
       <c r="H11" s="27"/>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="G12" s="26"/>
       <c r="H12" s="27"/>
     </row>
@@ -2128,47 +2131,47 @@
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="4"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.15234375" style="4"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.3046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -2207,7 +2210,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
         <v>123</v>
       </c>
@@ -2257,7 +2260,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
         <v>124</v>
       </c>
@@ -2282,7 +2285,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
         <v>125</v>
       </c>
@@ -2323,18 +2326,18 @@
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="37"/>
-    <col min="2" max="2" width="16.6640625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="38" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="38" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="11.1640625" style="38"/>
+    <col min="1" max="1" width="11.15234375" style="37"/>
+    <col min="2" max="2" width="16.69140625" style="38" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" style="38" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" style="38" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" style="38" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="39" customWidth="1"/>
+    <col min="7" max="16384" width="11.15234375" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="35" customFormat="1">
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
@@ -2354,7 +2357,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6">
       <c r="A2" s="37">
         <v>41535</v>
       </c>
@@ -2365,7 +2368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6">
       <c r="A3" s="37">
         <v>41549</v>
       </c>
@@ -2402,20 +2405,20 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="2" max="2" width="32.15234375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="3"/>
+    <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15234375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2444,7 +2447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
         <v>83</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>84</v>
       </c>
@@ -2502,7 +2505,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>85</v>
       </c>
@@ -2531,7 +2534,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>86</v>
       </c>
@@ -2560,7 +2563,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>87</v>
       </c>
@@ -2589,7 +2592,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>88</v>
       </c>
@@ -2618,7 +2621,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>89</v>
       </c>
@@ -2647,7 +2650,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
         <v>90</v>
       </c>
@@ -2676,7 +2679,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="E10" s="20">
         <f>SUM(E2:E9)</f>
         <v>600</v>
@@ -2694,58 +2697,58 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9">
       <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9">
       <c r="B15" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9">
       <c r="B16" s="41" t="s">
         <v>160</v>
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2">
       <c r="B17" s="41" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" s="42" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2">
       <c r="B19" s="41" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="43" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2">
       <c r="B21" s="41" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2">
       <c r="B22" s="41" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2">
       <c r="B23" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" ht="27">
       <c r="B24" s="18" t="s">
         <v>162</v>
       </c>
@@ -2761,16 +2764,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="2" max="2" width="25.5" style="19" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.4609375" style="19" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
         <v>91</v>
       </c>
@@ -2822,7 +2825,7 @@
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>92</v>
       </c>
@@ -2833,7 +2836,7 @@
         <v>134</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E3" s="13">
         <v>50</v>
@@ -2841,11 +2844,17 @@
       <c r="F3" s="13">
         <v>60</v>
       </c>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="13"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="G3" s="13">
+        <v>10</v>
+      </c>
+      <c r="H3" s="13">
+        <v>60</v>
+      </c>
+      <c r="I3" s="44">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>93</v>
       </c>
@@ -2868,7 +2877,7 @@
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>94</v>
       </c>
@@ -2891,7 +2900,7 @@
       <c r="H5" s="13"/>
       <c r="I5" s="13"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>96</v>
       </c>
@@ -2914,7 +2923,7 @@
       <c r="H6" s="13"/>
       <c r="I6" s="13"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>97</v>
       </c>
@@ -2937,7 +2946,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>98</v>
       </c>
@@ -2960,7 +2969,7 @@
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
     </row>
-    <row r="9" spans="1:9" s="13" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="13" customFormat="1">
       <c r="A9" s="33" t="s">
         <v>104</v>
       </c>
@@ -2995,14 +3004,14 @@
       <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="26.5" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.84375" style="13"/>
+    <col min="2" max="2" width="26.4609375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -3031,7 +3040,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
         <v>99</v>
       </c>
@@ -3045,7 +3054,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>100</v>
       </c>
@@ -3059,7 +3068,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>101</v>
       </c>
@@ -3073,7 +3082,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>102</v>
       </c>
@@ -3087,7 +3096,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>103</v>
       </c>
@@ -3101,7 +3110,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" customFormat="1">
       <c r="A7" s="13" t="s">
         <v>95</v>
       </c>
@@ -3120,7 +3129,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>105</v>
       </c>
@@ -3134,7 +3143,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
         <v>106</v>
       </c>
@@ -3148,7 +3157,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="E10" s="20">
         <f>SUM(E2:E9)</f>
         <v>0</v>
@@ -3180,14 +3189,14 @@
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.84375" style="13"/>
     <col min="2" max="2" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="13"/>
+    <col min="3" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -3216,7 +3225,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
         <v>107</v>
       </c>
@@ -3230,7 +3239,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
         <v>108</v>
       </c>
@@ -3244,7 +3253,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
         <v>109</v>
       </c>
@@ -3258,7 +3267,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
         <v>110</v>
       </c>
@@ -3272,7 +3281,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
         <v>111</v>
       </c>
@@ -3286,7 +3295,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
         <v>112</v>
       </c>
@@ -3300,7 +3309,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -3314,7 +3323,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
         <v>114</v>
       </c>
@@ -3328,7 +3337,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9">
       <c r="E10" s="20">
         <f>SUM(E2:E9)</f>
         <v>0</v>
@@ -3360,15 +3369,15 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="30"/>
-    <col min="2" max="2" width="28.1640625" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="11.1640625" style="30"/>
+    <col min="1" max="1" width="11.15234375" style="30"/>
+    <col min="2" max="2" width="28.15234375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="32" customWidth="1"/>
+    <col min="4" max="16384" width="11.15234375" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="28" customFormat="1">
       <c r="A1" s="28" t="s">
         <v>82</v>
       </c>
@@ -3379,7 +3388,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="30">
       <c r="A2" s="30" t="s">
         <v>91</v>
       </c>
@@ -3390,7 +3399,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="30">
       <c r="A3" s="30" t="s">
         <v>92</v>
       </c>
@@ -3401,7 +3410,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="30" t="s">
         <v>93</v>
       </c>
@@ -3412,7 +3421,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="45">
       <c r="A5" s="30" t="s">
         <v>94</v>
       </c>
@@ -3423,7 +3432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="64" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="45">
       <c r="A6" s="30" t="s">
         <v>95</v>
       </c>
@@ -3434,7 +3443,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="30" t="s">
         <v>96</v>
       </c>
@@ -3445,7 +3454,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="15">
       <c r="A8" s="30" t="s">
         <v>97</v>
       </c>
@@ -3456,7 +3465,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="30">
       <c r="A9" s="30" t="s">
         <v>98</v>
       </c>
@@ -3467,7 +3476,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="15">
       <c r="A10" s="30" t="s">
         <v>99</v>
       </c>
@@ -3478,7 +3487,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="15">
       <c r="A11" s="30" t="s">
         <v>100</v>
       </c>
@@ -3489,7 +3498,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="30" t="s">
         <v>101</v>
       </c>
@@ -3500,7 +3509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="30" t="s">
         <v>102</v>
       </c>
@@ -3511,7 +3520,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="30">
       <c r="A14" s="30" t="s">
         <v>103</v>
       </c>
@@ -3522,7 +3531,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="30">
       <c r="A15" s="30" t="s">
         <v>104</v>
       </c>
@@ -3533,7 +3542,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="30" t="s">
         <v>105</v>
       </c>
@@ -3544,7 +3553,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="45">
       <c r="A17" s="30" t="s">
         <v>106</v>
       </c>
@@ -3555,7 +3564,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="30">
       <c r="A18" s="30" t="s">
         <v>107</v>
       </c>
@@ -3566,7 +3575,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="128" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="105">
       <c r="A19" s="30" t="s">
         <v>108</v>
       </c>
@@ -3577,7 +3586,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:3" ht="15">
       <c r="A20" s="30" t="s">
         <v>109</v>
       </c>
@@ -3588,7 +3597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:3" ht="30">
       <c r="A21" s="30" t="s">
         <v>110</v>
       </c>
@@ -3599,7 +3608,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:3" ht="15">
       <c r="A22" s="30" t="s">
         <v>111</v>
       </c>
@@ -3610,7 +3619,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:3" ht="15">
       <c r="A23" s="30" t="s">
         <v>112</v>
       </c>
@@ -3621,7 +3630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:3" ht="30">
       <c r="A24" s="30" t="s">
         <v>113</v>
       </c>
@@ -3632,7 +3641,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:3" ht="15">
       <c r="A25" s="30" t="s">
         <v>114</v>
       </c>
@@ -3643,34 +3652,34 @@
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:3" ht="15">
       <c r="C26" s="31"/>
     </row>
-    <row r="27" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:3" ht="15">
       <c r="C27" s="31"/>
     </row>
-    <row r="28" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:3" ht="15">
       <c r="C28" s="31"/>
     </row>
-    <row r="29" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:3" ht="15">
       <c r="C29" s="31"/>
     </row>
-    <row r="30" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:3" ht="15">
       <c r="C30" s="31"/>
     </row>
-    <row r="31" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:3" ht="15">
       <c r="C31" s="31"/>
     </row>
-    <row r="32" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:3" ht="15">
       <c r="C32" s="31"/>
     </row>
-    <row r="33" spans="3:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="33" spans="3:3" ht="15">
       <c r="C33" s="31"/>
     </row>
-    <row r="34" spans="3:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="34" spans="3:3" ht="15">
       <c r="C34" s="31"/>
     </row>
-    <row r="35" spans="3:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="35" spans="3:3" ht="15">
       <c r="C35" s="31"/>
     </row>
   </sheetData>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -743,7 +743,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -829,6 +829,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1000,11 +1003,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407744360"/>
-        <c:axId val="407741616"/>
+        <c:axId val="430483256"/>
+        <c:axId val="430483648"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407744360"/>
+        <c:axId val="430483256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1014,14 +1017,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="407741616"/>
+        <c:crossAx val="430483648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407741616"/>
+        <c:axId val="430483648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1032,7 +1035,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="407744360"/>
+        <c:crossAx val="430483256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1119,11 +1122,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="407744752"/>
-        <c:axId val="407746320"/>
+        <c:axId val="430477376"/>
+        <c:axId val="430476592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="407744752"/>
+        <c:axId val="430477376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,14 +1136,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="407746320"/>
+        <c:crossAx val="430476592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="407746320"/>
+        <c:axId val="430476592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1151,7 +1154,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="407744752"/>
+        <c:crossAx val="430477376"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1188,7 +1191,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1226,7 +1229,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1301,7 +1304,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1366,7 +1369,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1435,7 +1438,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1505,7 +1508,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1574,7 +1577,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1644,7 +1647,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2865,7 +2868,7 @@
         <v>134</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="E4" s="13">
         <v>90</v>
@@ -2873,9 +2876,15 @@
       <c r="F4" s="13">
         <v>60</v>
       </c>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
+      <c r="G4" s="13">
+        <v>34</v>
+      </c>
+      <c r="H4" s="13">
+        <v>240</v>
+      </c>
+      <c r="I4" s="45">
+        <v>41563</v>
+      </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Julie\Documents\GitHub\555\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文档\OneDrive\课程相关\17Fall\CS 555\Project\555\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="14" documentId="336B58AE5F9C803DDC81F95743D877899484DB8D" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{172FCE81-D2FC-49EF-AB9C-C2FDE7BD8337}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="19200" windowHeight="6936" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -554,12 +555,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -652,6 +653,17 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -743,7 +755,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -780,9 +792,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -828,79 +837,92 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -916,9 +938,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -987,7 +1009,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC8B-423E-BCE0-97BCA44D3CBF}"/>
             </c:ext>
@@ -1053,9 +1075,9 @@
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1106,7 +1128,7 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DC9-401C-B8F7-DDA8A66F6D29}"/>
             </c:ext>
@@ -1191,7 +1213,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1229,7 +1251,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1304,7 +1326,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1369,7 +1391,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1438,7 +1460,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1508,7 +1530,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1577,7 +1599,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1647,7 +1669,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1987,128 +2009,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.84375" style="23" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4609375" style="24" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="24" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.4609375" style="24" customWidth="1"/>
-    <col min="6" max="16384" width="11.15234375" style="24"/>
+    <col min="1" max="1" width="7.81640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="23" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.453125" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="11.1796875" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="22" customFormat="1">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="21" t="s">
+      <c r="B1" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="23" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="22" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D3" s="24" t="s">
+      <c r="D3" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="E3" s="24" t="s">
+      <c r="E3" s="23" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="23" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="22" t="s">
         <v>134</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="E4" s="23" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="23" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="22" t="s">
         <v>136</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D5" s="24" t="s">
+      <c r="D5" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="23" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="23" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="22" t="s">
         <v>137</v>
       </c>
-      <c r="B6" s="24" t="s">
+      <c r="B6" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D6" s="24" t="s">
+      <c r="D6" s="23" t="s">
         <v>149</v>
       </c>
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="23" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
-      <c r="D9" s="22" t="s">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="D9" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="24">
+      <c r="E9" s="23">
         <v>555</v>
       </c>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="1:8" ht="16.5">
-      <c r="G10" s="26"/>
-      <c r="H10" s="27"/>
-    </row>
-    <row r="11" spans="1:8" ht="16.5">
-      <c r="G11" s="26"/>
-      <c r="H11" s="27"/>
-    </row>
-    <row r="12" spans="1:8" ht="16.5">
-      <c r="G12" s="26"/>
-      <c r="H12" s="27"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="G10" s="25"/>
+      <c r="H10" s="26"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="G11" s="25"/>
+      <c r="H11" s="26"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+      <c r="G12" s="25"/>
+      <c r="H12" s="26"/>
     </row>
   </sheetData>
   <sortState ref="A3:D5">
@@ -2116,10 +2138,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2127,54 +2149,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="4"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.3046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="4"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.26953125" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="4" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>120</v>
       </c>
@@ -2197,7 +2219,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>121</v>
       </c>
@@ -2213,7 +2235,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>122</v>
       </c>
@@ -2238,7 +2260,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="4" t="s">
         <v>123</v>
       </c>
@@ -2263,7 +2285,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="4" t="s">
         <v>124</v>
       </c>
@@ -2288,7 +2310,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="4" t="s">
         <v>125</v>
       </c>
@@ -2322,72 +2344,72 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="37"/>
-    <col min="2" max="2" width="16.69140625" style="38" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" style="38" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" style="38" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" style="38" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="39" customWidth="1"/>
-    <col min="7" max="16384" width="11.15234375" style="38"/>
+    <col min="1" max="1" width="11.1796875" style="36"/>
+    <col min="2" max="2" width="16.7265625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="37" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" style="37" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="11.1796875" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1">
-      <c r="A1" s="34" t="s">
+    <row r="1" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="35" t="s">
+      <c r="B1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="35" t="s">
+      <c r="D1" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="35" t="s">
+      <c r="E1" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="37">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="36">
         <v>41535</v>
       </c>
-      <c r="B2" s="38">
+      <c r="B2" s="37">
         <v>36</v>
       </c>
-      <c r="D2" s="38">
+      <c r="D2" s="37">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="37">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="36">
         <v>41549</v>
       </c>
-      <c r="B3" s="38">
+      <c r="B3" s="37">
         <v>30</v>
       </c>
-      <c r="C3" s="38">
+      <c r="C3" s="37">
         <v>8</v>
       </c>
-      <c r="D3" s="38">
+      <c r="D3" s="37">
         <v>134</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="39">
         <v>850</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="38">
         <f>(D3-D2)/E3*60</f>
         <v>9.4588235294117649</v>
       </c>
@@ -2401,27 +2423,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.15234375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69140625" customWidth="1"/>
+    <col min="2" max="2" width="32.1796875" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.7265625" customWidth="1"/>
     <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.3046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.15234375" style="3"/>
+    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2450,7 +2472,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>83</v>
       </c>
@@ -2479,7 +2501,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>84</v>
       </c>
@@ -2492,23 +2514,23 @@
       <c r="D3" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="33">
+      <c r="E3" s="32">
         <v>75</v>
       </c>
-      <c r="F3" s="33">
+      <c r="F3" s="32">
         <v>60</v>
       </c>
       <c r="G3" s="13">
         <v>20</v>
       </c>
-      <c r="H3" s="33">
+      <c r="H3" s="32">
         <v>30</v>
       </c>
       <c r="I3" s="16">
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>85</v>
       </c>
@@ -2521,23 +2543,23 @@
       <c r="D4" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="33">
+      <c r="E4" s="32">
         <v>75</v>
       </c>
-      <c r="F4" s="33">
+      <c r="F4" s="32">
         <v>60</v>
       </c>
       <c r="G4" s="13">
         <v>21</v>
       </c>
-      <c r="H4" s="33">
+      <c r="H4" s="32">
         <v>500</v>
       </c>
       <c r="I4" s="16">
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>86</v>
       </c>
@@ -2566,7 +2588,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>87</v>
       </c>
@@ -2595,7 +2617,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>88</v>
       </c>
@@ -2624,7 +2646,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>89</v>
       </c>
@@ -2653,7 +2675,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>90</v>
       </c>
@@ -2682,76 +2704,76 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="20">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="19">
         <f>SUM(E2:E9)</f>
         <v>600</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f>SUM(F2:F9)</f>
         <v>480</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f>SUM(G2:G9)</f>
         <v>134</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f>SUM(H2:H9)</f>
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="41" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B16" s="40" t="s">
         <v>160</v>
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="41" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" s="40" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="42" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B18" s="41" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="41" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B19" s="40" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="43" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B20" s="42" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="41" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" s="40" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="41" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B22" s="40" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="18" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="27">
+    <row r="24" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
       <c r="B24" s="18" t="s">
         <v>162</v>
       </c>
@@ -2764,238 +2786,261 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="25.4609375" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="45"/>
+    <col min="2" max="2" width="25.453125" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.1796875" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="44" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="43" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="46" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="47" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="46">
         <v>60</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="46">
         <v>60</v>
       </c>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="G2" s="46"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="46"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="46" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="47" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="46">
         <v>50</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F3" s="46">
         <v>60</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="46">
         <v>10</v>
       </c>
-      <c r="H3" s="13">
+      <c r="H3" s="46">
         <v>60</v>
       </c>
-      <c r="I3" s="44">
+      <c r="I3" s="48">
         <v>41563</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A4" s="46" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="47" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="33" t="s">
+      <c r="C4" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="46" t="s">
         <v>163</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E4" s="46">
         <v>90</v>
       </c>
-      <c r="F4" s="13">
+      <c r="F4" s="46">
         <v>60</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="46">
         <v>34</v>
       </c>
-      <c r="H4" s="13">
+      <c r="H4" s="46">
         <v>240</v>
       </c>
-      <c r="I4" s="45">
+      <c r="I4" s="48">
         <v>41563</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="46" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="D5" s="13" t="s">
+      <c r="D5" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="46">
         <v>88</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="46">
         <v>90</v>
       </c>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13" t="s">
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="46" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="47" t="s">
         <v>129</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6" s="46">
+        <v>50</v>
+      </c>
+      <c r="F6" s="46">
+        <v>120</v>
+      </c>
+      <c r="G6" s="46">
+        <v>40</v>
+      </c>
+      <c r="H6" s="46">
+        <v>60</v>
+      </c>
+      <c r="I6" s="48">
+        <v>41561</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="46" t="s">
+        <v>97</v>
+      </c>
+      <c r="B7" s="47" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="46" t="s">
+        <v>136</v>
+      </c>
+      <c r="D7" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7" s="46">
+        <v>50</v>
+      </c>
+      <c r="F7" s="46">
+        <v>60</v>
+      </c>
+      <c r="G7" s="46">
+        <v>50</v>
+      </c>
+      <c r="H7" s="46">
+        <v>80</v>
+      </c>
+      <c r="I7" s="48">
+        <v>41561</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" s="47" t="s">
+        <v>63</v>
+      </c>
+      <c r="C8" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D8" s="46" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E8" s="46">
         <v>50</v>
       </c>
-      <c r="F6" s="13">
-        <v>120</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="33" t="s">
-        <v>136</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="F8" s="46">
+        <v>90</v>
+      </c>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+    </row>
+    <row r="9" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="46" t="s">
+        <v>104</v>
+      </c>
+      <c r="B9" s="47" t="s">
+        <v>71</v>
+      </c>
+      <c r="C9" s="46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="46" t="s">
+        <v>163</v>
+      </c>
+      <c r="E9" s="46">
         <v>50</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F9" s="46">
         <v>60</v>
       </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="33" t="s">
-        <v>135</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E8" s="13">
+      <c r="G9" s="46">
+        <v>35</v>
+      </c>
+      <c r="H9" s="46">
         <v>50</v>
       </c>
-      <c r="F8" s="13">
-        <v>90</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:9" s="13" customFormat="1">
-      <c r="A9" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E9" s="13">
-        <v>50</v>
-      </c>
-      <c r="F9" s="13">
-        <v>60</v>
+      <c r="I9" s="48">
+        <v>41563</v>
       </c>
     </row>
   </sheetData>
@@ -3006,21 +3051,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="13"/>
-    <col min="2" max="2" width="26.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="13"/>
+    <col min="1" max="1" width="10.81640625" style="13"/>
+    <col min="2" max="2" width="26.453125" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -3049,7 +3094,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>99</v>
       </c>
@@ -3063,7 +3108,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>100</v>
       </c>
@@ -3077,7 +3122,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>101</v>
       </c>
@@ -3091,7 +3136,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>102</v>
       </c>
@@ -3105,7 +3150,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>103</v>
       </c>
@@ -3119,7 +3164,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:9" customFormat="1">
+    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>95</v>
       </c>
@@ -3138,7 +3183,7 @@
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>105</v>
       </c>
@@ -3152,7 +3197,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>106</v>
       </c>
@@ -3166,20 +3211,20 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="20">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="19">
         <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
@@ -3191,21 +3236,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="13"/>
+    <col min="1" max="1" width="10.81640625" style="13"/>
     <col min="2" max="2" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="13"/>
+    <col min="3" max="16384" width="10.81640625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -3234,7 +3279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="13" t="s">
         <v>107</v>
       </c>
@@ -3248,7 +3293,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="13" t="s">
         <v>108</v>
       </c>
@@ -3262,7 +3307,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="13" t="s">
         <v>109</v>
       </c>
@@ -3276,7 +3321,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>110</v>
       </c>
@@ -3290,7 +3335,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="13" t="s">
         <v>111</v>
       </c>
@@ -3304,7 +3349,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="13" t="s">
         <v>112</v>
       </c>
@@ -3318,7 +3363,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="13" t="s">
         <v>113</v>
       </c>
@@ -3332,7 +3377,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="13" t="s">
         <v>114</v>
       </c>
@@ -3346,20 +3391,20 @@
         <v>154</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="20">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="E10" s="19">
         <f>SUM(E2:E9)</f>
         <v>0</v>
       </c>
-      <c r="F10" s="20">
+      <c r="F10" s="19">
         <f>SUM(F2:F9)</f>
         <v>0</v>
       </c>
-      <c r="G10" s="20">
+      <c r="G10" s="19">
         <f>SUM(G2:G9)</f>
         <v>0</v>
       </c>
-      <c r="H10" s="20">
+      <c r="H10" s="19">
         <f>SUM(H2:H9)</f>
         <v>0</v>
       </c>
@@ -3371,325 +3416,325 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="30"/>
-    <col min="2" max="2" width="28.15234375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="32" customWidth="1"/>
-    <col min="4" max="16384" width="11.15234375" style="30"/>
+    <col min="1" max="1" width="11.1796875" style="29"/>
+    <col min="2" max="2" width="28.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="11.1796875" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="28" customFormat="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="29" t="s">
+      <c r="C1" s="28" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30">
-      <c r="A2" s="30" t="s">
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A2" s="29" t="s">
         <v>91</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="30" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30">
-      <c r="A3" s="30" t="s">
+    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A3" s="29" t="s">
         <v>92</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
-      <c r="A4" s="30" t="s">
+    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="C4" s="31" t="s">
+      <c r="C4" s="30" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A5" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="30" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="45">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="31" t="s">
+      <c r="C6" s="30" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
-      <c r="A7" s="30" t="s">
+    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A7" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>129</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="30" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="15">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A8" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="30" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="30">
-      <c r="A9" s="30" t="s">
+    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A9" s="29" t="s">
         <v>98</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="31" t="s">
+      <c r="C9" s="30" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
-      <c r="A10" s="30" t="s">
+    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A10" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="C10" s="31" t="s">
+      <c r="C10" s="30" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="15">
-      <c r="A11" s="30" t="s">
+    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A11" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="C11" s="31" t="s">
+      <c r="C11" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="30" t="s">
+    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A12" s="29" t="s">
         <v>101</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C12" s="31" t="s">
+      <c r="C12" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
-      <c r="A13" s="30" t="s">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A13" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="31" t="s">
+      <c r="C13" s="30" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="30">
-      <c r="A14" s="30" t="s">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A14" s="29" t="s">
         <v>103</v>
       </c>
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="31" t="s">
+      <c r="C14" s="30" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="30">
-      <c r="A15" s="30" t="s">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A15" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="C15" s="31" t="s">
+      <c r="C15" s="30" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="30">
-      <c r="A16" s="30" t="s">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A16" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="31" t="s">
+      <c r="C16" s="30" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="45">
-      <c r="A17" s="30" t="s">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A17" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="C17" s="31" t="s">
+      <c r="C17" s="30" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="30">
-      <c r="A18" s="30" t="s">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A18" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="105">
-      <c r="A19" s="30" t="s">
+    <row r="19" spans="1:3" ht="105" x14ac:dyDescent="0.2">
+      <c r="A19" s="29" t="s">
         <v>108</v>
       </c>
-      <c r="B19" s="30" t="s">
+      <c r="B19" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="C19" s="31" t="s">
+      <c r="C19" s="30" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="A20" s="30" t="s">
+    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A20" s="29" t="s">
         <v>109</v>
       </c>
-      <c r="B20" s="30" t="s">
+      <c r="B20" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="C20" s="31" t="s">
+      <c r="C20" s="30" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="30">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A21" s="29" t="s">
         <v>110</v>
       </c>
-      <c r="B21" s="30" t="s">
+      <c r="B21" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="31" t="s">
+      <c r="C21" s="30" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="A22" s="30" t="s">
+    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A22" s="29" t="s">
         <v>111</v>
       </c>
-      <c r="B22" s="30" t="s">
+      <c r="B22" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="31" t="s">
+      <c r="C22" s="30" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="A23" s="30" t="s">
+    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A23" s="29" t="s">
         <v>112</v>
       </c>
-      <c r="B23" s="30" t="s">
+      <c r="B23" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="C23" s="31" t="s">
+      <c r="C23" s="30" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="30">
-      <c r="A24" s="30" t="s">
+    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+      <c r="A24" s="29" t="s">
         <v>113</v>
       </c>
-      <c r="B24" s="30" t="s">
+      <c r="B24" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="C24" s="31" t="s">
+      <c r="C24" s="30" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="A25" s="30" t="s">
+    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="A25" s="29" t="s">
         <v>114</v>
       </c>
-      <c r="B25" s="30" t="s">
+      <c r="B25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="31" t="s">
+      <c r="C25" s="30" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="C26" s="31"/>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="C27" s="31"/>
-    </row>
-    <row r="28" spans="1:3" ht="15">
-      <c r="C28" s="31"/>
-    </row>
-    <row r="29" spans="1:3" ht="15">
-      <c r="C29" s="31"/>
-    </row>
-    <row r="30" spans="1:3" ht="15">
-      <c r="C30" s="31"/>
-    </row>
-    <row r="31" spans="1:3" ht="15">
-      <c r="C31" s="31"/>
-    </row>
-    <row r="32" spans="1:3" ht="15">
-      <c r="C32" s="31"/>
-    </row>
-    <row r="33" spans="3:3" ht="15">
-      <c r="C33" s="31"/>
-    </row>
-    <row r="34" spans="3:3" ht="15">
-      <c r="C34" s="31"/>
-    </row>
-    <row r="35" spans="3:3" ht="15">
-      <c r="C35" s="31"/>
+    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C26" s="30"/>
+    </row>
+    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C27" s="30"/>
+    </row>
+    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C28" s="30"/>
+    </row>
+    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C29" s="30"/>
+    </row>
+    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C30" s="30"/>
+    </row>
+    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C31" s="30"/>
+    </row>
+    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C32" s="30"/>
+    </row>
+    <row r="33" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C33" s="30"/>
+    </row>
+    <row r="34" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C34" s="30"/>
+    </row>
+    <row r="35" spans="3:3" ht="15" x14ac:dyDescent="0.2">
+      <c r="C35" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18431"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文档\OneDrive\课程相关\17Fall\CS 555\Project\555\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Documents\GitHub\555\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="336B58AE5F9C803DDC81F95743D877899484DB8D" xr6:coauthVersionLast="23" xr6:coauthVersionMax="23" xr10:uidLastSave="{172FCE81-D2FC-49EF-AB9C-C2FDE7BD8337}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="19200" windowHeight="6936" tabRatio="500" firstSheet="2" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="165">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -134,10 +133,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>Coding</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>Review Results</t>
   </si>
   <si>
@@ -153,18 +148,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Marriage should not occur during marriage to another spouse</t>
-  </si>
-  <si>
-    <t>No more than five siblings should be born at the same time</t>
-  </si>
-  <si>
-    <t>There should be fewer than 15 siblings in a family</t>
-  </si>
-  <si>
-    <t>All male members of a family should have the same last name</t>
-  </si>
-  <si>
     <t>Parents should not marry any of their descendants</t>
   </si>
   <si>
@@ -228,9 +211,6 @@
     <t>Birth before death of parents</t>
   </si>
   <si>
-    <t>Child should be born before death of mother and before 9 months after death of father</t>
-  </si>
-  <si>
     <t>Marriage after 14</t>
   </si>
   <si>
@@ -240,9 +220,6 @@
     <t>Parents not too old</t>
   </si>
   <si>
-    <t>Mother should be less than 60 years older than her children and father should be less than 80 years older than his children</t>
-  </si>
-  <si>
     <t>Siblings spacing</t>
   </si>
   <si>
@@ -270,9 +247,6 @@
     <t>Husband in family should be male and wife in family should be female</t>
   </si>
   <si>
-    <t>All individual IDs should be unique and all family IDs should be unique</t>
-  </si>
-  <si>
     <t>Unique IDs</t>
   </si>
   <si>
@@ -450,9 +424,6 @@
     <t>Multiple births &lt;= 5</t>
   </si>
   <si>
-    <t>Marriage should be at least 14 years after birth of both spouses (parents must be at least 14 years old)</t>
-  </si>
-  <si>
     <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
   </si>
   <si>
@@ -550,6 +521,36 @@
   </si>
   <si>
     <t>Completed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keep Doing: </t>
+  </si>
+  <si>
+    <t>Updating the Burndown Chart</t>
+  </si>
+  <si>
+    <t>Check on how everyone is doing with their user stories, and offer help if needed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow TDD Test before Developing </t>
+  </si>
+  <si>
+    <t>Meet every Saturday for sprint review and sprint planning</t>
+  </si>
+  <si>
+    <t>Not defining default time for submission</t>
+  </si>
+  <si>
+    <t>Start Structuring the coding earlier (Thursday)</t>
+  </si>
+  <si>
+    <t>Underestimating implementation time for new user stories: Dividing big ones to manageable small user stories</t>
+  </si>
+  <si>
+    <t>Continuous Integration at each commit</t>
+  </si>
+  <si>
+    <t>Start implementation early</t>
   </si>
 </sst>
 </file>
@@ -560,7 +561,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -755,7 +756,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -856,73 +857,79 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -940,7 +947,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1077,7 +1084,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2016,17 +2023,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.84375" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="11.1796875" style="23"/>
+    <col min="5" max="5" width="20.4609375" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="11.15234375" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="21" customFormat="1">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
@@ -2040,95 +2047,95 @@
         <v>21</v>
       </c>
       <c r="E1" s="20" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="22" t="s">
+        <v>126</v>
+      </c>
+      <c r="B3" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="22" t="s">
+        <v>125</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="22" t="s">
+        <v>127</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="22" t="s">
+        <v>128</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5">
+      <c r="D9" s="21" t="s">
         <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="C3" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D3" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="E3" s="23" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B4" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="C4" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A5" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="C5" s="23" t="s">
-        <v>145</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="E5" s="23" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
-        <v>137</v>
-      </c>
-      <c r="B6" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="C6" s="23" t="s">
-        <v>148</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>149</v>
-      </c>
-      <c r="E6" s="23" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="D9" s="21" t="s">
-        <v>30</v>
       </c>
       <c r="E9" s="23">
         <v>555</v>
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
     </row>
@@ -2152,53 +2159,53 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="4"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.26953125" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.15234375" style="4"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.23046875" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="4" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="4" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" s="4" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -2219,9 +2226,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B15" s="7">
         <v>41065</v>
@@ -2235,9 +2242,9 @@
       <c r="F15" s="8"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B16" s="7">
         <v>41078</v>
@@ -2260,9 +2267,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B17" s="7">
         <v>41092</v>
@@ -2285,9 +2292,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B18" s="7">
         <v>41106</v>
@@ -2310,9 +2317,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B19" s="7">
         <v>41120</v>
@@ -2347,22 +2354,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="36"/>
-    <col min="2" max="2" width="16.7265625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="37" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="37" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="38" customWidth="1"/>
-    <col min="7" max="16384" width="11.1796875" style="37"/>
+    <col min="1" max="1" width="11.15234375" style="36"/>
+    <col min="2" max="2" width="16.69140625" style="37" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" style="37" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" style="37" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" style="37" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="11.15234375" style="37"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="34" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="34" customFormat="1">
       <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
@@ -2382,7 +2389,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6">
       <c r="A2" s="36">
         <v>41535</v>
       </c>
@@ -2393,7 +2400,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6">
       <c r="A3" s="36">
         <v>41549</v>
       </c>
@@ -2427,23 +2434,23 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.7265625" customWidth="1"/>
-    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.26953125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="3"/>
+    <col min="2" max="2" width="32.15234375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" customWidth="1"/>
+    <col min="4" max="4" width="8.69140625" customWidth="1"/>
+    <col min="5" max="5" width="8.23046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.23046875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15234375" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2472,18 +2479,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>25</v>
+        <v>125</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E2" s="13">
         <v>75</v>
@@ -2501,18 +2508,18 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>25</v>
+        <v>126</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E3" s="32">
         <v>75</v>
@@ -2530,18 +2537,18 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>25</v>
+        <v>126</v>
+      </c>
+      <c r="D4" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E4" s="32">
         <v>75</v>
@@ -2559,18 +2566,18 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>25</v>
+        <v>127</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E5" s="13">
         <v>75</v>
@@ -2588,18 +2595,18 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>25</v>
+        <v>127</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E6" s="13">
         <v>75</v>
@@ -2617,18 +2624,18 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>25</v>
+        <v>125</v>
+      </c>
+      <c r="D7" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E7" s="13">
         <v>75</v>
@@ -2646,18 +2653,18 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>25</v>
+        <v>128</v>
+      </c>
+      <c r="D8" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E8" s="13">
         <v>75</v>
@@ -2675,18 +2682,18 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>25</v>
+        <v>128</v>
+      </c>
+      <c r="D9" s="32" t="s">
+        <v>154</v>
       </c>
       <c r="E9" s="13">
         <v>75</v>
@@ -2704,7 +2711,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9">
       <c r="E10" s="19">
         <f>SUM(E2:E9)</f>
         <v>600</v>
@@ -2722,60 +2729,60 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9">
       <c r="B14" s="17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B15" s="17" t="s">
+    <row r="16" spans="1:9">
+      <c r="B16" s="40" t="s">
+        <v>151</v>
+      </c>
+      <c r="I16" s="4"/>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="40" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="41" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="42" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B16" s="40" t="s">
-        <v>160</v>
-      </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B17" s="40" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B18" s="41" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B19" s="40" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B20" s="42" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="40" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" s="40" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="18" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="25.2" x14ac:dyDescent="0.2">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="27">
       <c r="B24" s="18" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>
@@ -2787,20 +2794,20 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="45"/>
-    <col min="2" max="2" width="25.453125" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.1796875" style="45"/>
+    <col min="1" max="1" width="11.15234375" style="45"/>
+    <col min="2" max="2" width="25.4609375" style="49" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.15234375" style="45"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="43" t="s">
         <v>9</v>
       </c>
@@ -2829,18 +2836,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="46" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B2" s="47" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C2" s="46" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D2" s="46" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E2" s="46">
         <v>60</v>
@@ -2849,21 +2856,25 @@
         <v>60</v>
       </c>
       <c r="G2" s="46"/>
-      <c r="H2" s="46"/>
-      <c r="I2" s="46"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H2" s="46">
+        <v>60</v>
+      </c>
+      <c r="I2" s="48">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="46" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C3" s="46" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D3" s="46" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E3" s="46">
         <v>50</v>
@@ -2881,18 +2892,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9">
       <c r="A4" s="46" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="C4" s="46" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D4" s="46" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E4" s="46">
         <v>90</v>
@@ -2910,18 +2921,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9">
       <c r="A5" s="46" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C5" s="46" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D5" s="46" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E5" s="46">
         <v>88</v>
@@ -2930,21 +2941,25 @@
         <v>90</v>
       </c>
       <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="H5" s="46">
+        <v>60</v>
+      </c>
+      <c r="I5" s="48">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="46" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C6" s="46" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D6" s="46" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E6" s="46">
         <v>50</v>
@@ -2959,21 +2974,21 @@
         <v>60</v>
       </c>
       <c r="I6" s="48">
-        <v>41561</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="46" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>62</v>
+        <v>55</v>
       </c>
       <c r="C7" s="46" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D7" s="46" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E7" s="46">
         <v>50</v>
@@ -2988,21 +3003,21 @@
         <v>80</v>
       </c>
       <c r="I7" s="48">
-        <v>41561</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="46" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B8" s="47" t="s">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="C8" s="46" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D8" s="46" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E8" s="46">
         <v>50</v>
@@ -3011,21 +3026,25 @@
         <v>90</v>
       </c>
       <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
-    </row>
-    <row r="9" spans="1:9" s="46" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="H8" s="46">
+        <v>60</v>
+      </c>
+      <c r="I8" s="48">
+        <v>41563</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="46" customFormat="1">
       <c r="A9" s="46" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B9" s="47" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="C9" s="46" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D9" s="46" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="E9" s="46">
         <v>50</v>
@@ -3041,12 +3060,96 @@
       </c>
       <c r="I9" s="48">
         <v>41563</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="E10" s="45">
+        <f>SUM(E2:E9)</f>
+        <v>488</v>
+      </c>
+      <c r="F10" s="45">
+        <f>SUM(F2:F9)</f>
+        <v>600</v>
+      </c>
+      <c r="G10" s="45">
+        <f>SUM(G1:G9)</f>
+        <v>169</v>
+      </c>
+      <c r="H10" s="45">
+        <f>SUM(H2:H9)</f>
+        <v>670</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="B13" s="50" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="B14" s="50" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" s="49" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="B16" s="49" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="49" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="49" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="49" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="51" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="50" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
+      <c r="B22" s="49" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
+      <c r="B23" s="49" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
+      <c r="B24" s="49" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="1048576" spans="6:6">
+      <c r="F1048576" s="45">
+        <f>SUM(F2:F1048575)</f>
+        <v>1200</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3055,17 +3158,17 @@
   <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="13"/>
-    <col min="2" max="2" width="26.453125" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="13"/>
+    <col min="1" max="1" width="10.84375" style="13"/>
+    <col min="2" max="2" width="26.4609375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -3094,131 +3197,177 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="E2" s="13">
+        <v>120</v>
+      </c>
+      <c r="F2" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="E3" s="13">
+        <v>30</v>
+      </c>
+      <c r="F3" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="E4" s="13">
+        <v>60</v>
+      </c>
+      <c r="F4" s="13">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="E5" s="13">
+        <v>80</v>
+      </c>
+      <c r="F5" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>68</v>
+        <v>61</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" customFormat="1" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="E6" s="13">
+        <v>90</v>
+      </c>
+      <c r="F6" s="13">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" customFormat="1">
       <c r="A7" s="13" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>61</v>
+        <v>54</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>154</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
+        <v>145</v>
+      </c>
+      <c r="E7" s="13">
+        <v>44</v>
+      </c>
+      <c r="F7" s="13">
+        <v>60</v>
+      </c>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
       <c r="I7" s="13"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="E8" s="13">
+        <v>30</v>
+      </c>
+      <c r="F8" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+      <c r="E9" s="13">
+        <v>30</v>
+      </c>
+      <c r="F9" s="13">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="E10" s="19">
         <f>SUM(E2:E9)</f>
-        <v>0</v>
+        <v>484</v>
       </c>
       <c r="F10" s="19">
         <f>SUM(F2:F9)</f>
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G10" s="19">
         <f>SUM(G2:G9)</f>
@@ -3243,14 +3392,14 @@
       <selection activeCell="E10" sqref="E10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="13"/>
+    <col min="1" max="1" width="10.84375" style="13"/>
     <col min="2" max="2" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="13"/>
+    <col min="3" max="16384" width="10.84375" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -3279,119 +3428,119 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D3" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D4" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="D5" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B9" s="10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="E10" s="19">
         <f>SUM(E2:E9)</f>
         <v>0</v>
@@ -3417,56 +3566,56 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C35"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A3" sqref="A3:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="29"/>
-    <col min="2" max="2" width="28.1796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="11.1796875" style="29"/>
+    <col min="1" max="1" width="11.15234375" style="29"/>
+    <col min="2" max="2" width="28.15234375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="11.15234375" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="27" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="45">
       <c r="A2" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C2" s="30" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15">
+      <c r="A3" s="29" t="s">
         <v>91</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C2" s="30" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A3" s="29" t="s">
-        <v>92</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>57</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15">
       <c r="A4" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>58</v>
@@ -3475,117 +3624,117 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="45" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" ht="15">
       <c r="A5" s="29" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>59</v>
       </c>
       <c r="C5" s="30" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="30">
+      <c r="A6" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="29" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" ht="45" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="C6" s="30" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="30">
+      <c r="A7" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B7" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="30" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A7" s="29" t="s">
-        <v>96</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>129</v>
-      </c>
       <c r="C7" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30">
       <c r="A8" s="29" t="s">
         <v>97</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="45">
       <c r="A9" s="29" t="s">
         <v>98</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="30">
       <c r="A10" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B10" s="29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C10" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="105">
       <c r="A11" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B11" s="29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C11" s="30" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15">
       <c r="A12" s="29" t="s">
         <v>101</v>
       </c>
       <c r="B12" s="29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C12" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" ht="30">
       <c r="A13" s="29" t="s">
         <v>102</v>
       </c>
       <c r="B13" s="29" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C13" s="30" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15">
       <c r="A14" s="29" t="s">
         <v>103</v>
       </c>
       <c r="B14" s="29" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C14" s="30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15">
       <c r="A15" s="29" t="s">
         <v>104</v>
       </c>
@@ -3593,10 +3742,10 @@
         <v>71</v>
       </c>
       <c r="C15" s="30" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="30">
       <c r="A16" s="29" t="s">
         <v>105</v>
       </c>
@@ -3604,10 +3753,10 @@
         <v>72</v>
       </c>
       <c r="C16" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15">
       <c r="A17" s="29" t="s">
         <v>106</v>
       </c>
@@ -3615,126 +3764,38 @@
         <v>73</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A18" s="29" t="s">
-        <v>107</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="C18" s="30" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="105" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A20" s="29" t="s">
-        <v>109</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>76</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A21" s="29" t="s">
-        <v>110</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A22" s="29" t="s">
-        <v>111</v>
-      </c>
-      <c r="B22" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
-        <v>112</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="30" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="29" t="s">
-        <v>80</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="A25" s="29" t="s">
-        <v>114</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>81</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" ht="15">
+      <c r="C18" s="30"/>
+    </row>
+    <row r="19" spans="1:3" ht="15">
+      <c r="C19" s="30"/>
+    </row>
+    <row r="20" spans="1:3" ht="15">
+      <c r="C20" s="30"/>
+    </row>
+    <row r="21" spans="1:3" ht="15">
+      <c r="C21" s="30"/>
+    </row>
+    <row r="22" spans="1:3" ht="15">
+      <c r="C22" s="30"/>
+    </row>
+    <row r="23" spans="1:3" ht="15">
+      <c r="C23" s="30"/>
+    </row>
+    <row r="24" spans="1:3" ht="15">
+      <c r="C24" s="30"/>
+    </row>
+    <row r="25" spans="1:3" ht="15">
+      <c r="C25" s="30"/>
+    </row>
+    <row r="26" spans="1:3" ht="15">
       <c r="C26" s="30"/>
     </row>
-    <row r="27" spans="1:3" ht="15" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" ht="15">
       <c r="C27" s="30"/>
-    </row>
-    <row r="28" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C28" s="30"/>
-    </row>
-    <row r="29" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C29" s="30"/>
-    </row>
-    <row r="30" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C30" s="30"/>
-    </row>
-    <row r="31" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C31" s="30"/>
-    </row>
-    <row r="32" spans="1:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C32" s="30"/>
-    </row>
-    <row r="33" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C33" s="30"/>
-    </row>
-    <row r="34" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C34" s="30"/>
-    </row>
-    <row r="35" spans="3:3" ht="15" x14ac:dyDescent="0.2">
-      <c r="C35" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="15" type="noConversion"/>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -561,7 +561,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -638,17 +638,6 @@
       <family val="1"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -664,6 +653,21 @@
       <sz val="10"/>
       <name val="Verdana"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
     </font>
   </fonts>
   <fills count="3">
@@ -822,13 +826,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -838,23 +835,23 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -863,6 +860,13 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1116,6 +1120,9 @@
                 <c:pt idx="1">
                   <c:v>41549</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>41563</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1130,6 +1137,9 @@
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2159,7 +2169,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
       <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
@@ -2343,7 +2353,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -2352,73 +2362,94 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="36"/>
-    <col min="2" max="2" width="16.69140625" style="37" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" style="37" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" style="37" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="38" customWidth="1"/>
-    <col min="7" max="16384" width="11.15234375" style="37"/>
+    <col min="1" max="1" width="11.15234375" style="48"/>
+    <col min="2" max="2" width="16.69140625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" style="49" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" style="49" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="50" customWidth="1"/>
+    <col min="7" max="16384" width="11.15234375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="34" customFormat="1">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:6" s="46" customFormat="1">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="34" t="s">
+      <c r="B1" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="34" t="s">
+      <c r="C1" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="D1" s="46" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="34" t="s">
+      <c r="E1" s="46" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="F1" s="47" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="36">
+      <c r="A2" s="48">
         <v>41535</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="49">
         <v>36</v>
       </c>
-      <c r="D2" s="37">
+      <c r="D2" s="49">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:6">
-      <c r="A3" s="36">
+      <c r="A3" s="48">
         <v>41549</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="49">
         <v>30</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="49">
         <v>8</v>
       </c>
-      <c r="D3" s="37">
+      <c r="D3" s="49">
         <v>134</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="51">
         <v>850</v>
       </c>
-      <c r="F3" s="38">
+      <c r="F3" s="50">
         <f>(D3-D2)/E3*60</f>
         <v>9.4588235294117649</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="48">
+        <v>41563</v>
+      </c>
+      <c r="B4" s="49">
+        <v>17</v>
+      </c>
+      <c r="C4" s="49">
+        <v>8</v>
+      </c>
+      <c r="D4" s="49">
+        <v>271</v>
+      </c>
+      <c r="E4" s="51">
+        <v>850</v>
+      </c>
+      <c r="F4" s="50">
+        <f>(D4-D3)/E4*60</f>
+        <v>9.670588235294117</v>
       </c>
     </row>
   </sheetData>
@@ -2740,38 +2771,38 @@
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="33" t="s">
         <v>151</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="40" t="s">
+      <c r="B17" s="33" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="34" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="40" t="s">
+      <c r="B19" s="33" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="42" t="s">
+      <c r="B20" s="35" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="33" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="40" t="s">
+      <c r="B22" s="33" t="s">
         <v>146</v>
       </c>
     </row>
@@ -2797,351 +2828,357 @@
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="45"/>
-    <col min="2" max="2" width="25.4609375" style="49" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.15234375" style="45"/>
+    <col min="1" max="1" width="11.15234375" style="38"/>
+    <col min="2" max="2" width="25.4609375" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.15234375" style="38"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="43" t="s">
+      <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="36" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="D1" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="E1" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="36" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="43" t="s">
+      <c r="G1" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="43" t="s">
+      <c r="I1" s="36" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D2" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E2" s="46">
+      <c r="D2" s="32" t="s">
+        <v>154</v>
+      </c>
+      <c r="E2" s="39">
         <v>60</v>
       </c>
-      <c r="F2" s="46">
+      <c r="F2" s="39">
         <v>60</v>
       </c>
-      <c r="G2" s="46"/>
-      <c r="H2" s="46">
+      <c r="G2" s="39">
+        <v>59</v>
+      </c>
+      <c r="H2" s="39">
         <v>60</v>
       </c>
-      <c r="I2" s="48">
+      <c r="I2" s="41">
         <v>41563</v>
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" s="46" t="s">
+      <c r="A3" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="B3" s="47" t="s">
+      <c r="B3" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="46" t="s">
+      <c r="C3" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="46" t="s">
+      <c r="D3" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="39">
         <v>50</v>
       </c>
-      <c r="F3" s="46">
+      <c r="F3" s="39">
         <v>60</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="39">
         <v>10</v>
       </c>
-      <c r="H3" s="46">
+      <c r="H3" s="39">
         <v>60</v>
       </c>
-      <c r="I3" s="48">
+      <c r="I3" s="41">
         <v>41563</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="39" t="s">
         <v>85</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="39" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="46" t="s">
+      <c r="D4" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="39">
         <v>90</v>
       </c>
-      <c r="F4" s="46">
+      <c r="F4" s="39">
         <v>60</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="39">
         <v>34</v>
       </c>
-      <c r="H4" s="46">
+      <c r="H4" s="39">
         <v>240</v>
       </c>
-      <c r="I4" s="48">
+      <c r="I4" s="41">
         <v>41563</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="46" t="s">
+      <c r="A5" s="39" t="s">
         <v>86</v>
       </c>
-      <c r="B5" s="47" t="s">
+      <c r="B5" s="40" t="s">
         <v>53</v>
       </c>
-      <c r="C5" s="46" t="s">
+      <c r="C5" s="39" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="46">
+      <c r="D5" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E5" s="39">
         <v>88</v>
       </c>
-      <c r="F5" s="46">
+      <c r="F5" s="39">
         <v>90</v>
       </c>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46">
+      <c r="G5" s="39">
+        <v>30</v>
+      </c>
+      <c r="H5" s="39">
         <v>60</v>
       </c>
-      <c r="I5" s="48">
+      <c r="I5" s="41">
         <v>41563</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="46" t="s">
+      <c r="A6" s="39" t="s">
         <v>88</v>
       </c>
-      <c r="B6" s="47" t="s">
+      <c r="B6" s="40" t="s">
         <v>121</v>
       </c>
-      <c r="C6" s="46" t="s">
+      <c r="C6" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D6" s="46" t="s">
+      <c r="D6" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="46">
+      <c r="E6" s="39">
         <v>50</v>
       </c>
-      <c r="F6" s="46">
+      <c r="F6" s="39">
         <v>120</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="39">
         <v>40</v>
       </c>
-      <c r="H6" s="46">
+      <c r="H6" s="39">
         <v>60</v>
       </c>
-      <c r="I6" s="48">
+      <c r="I6" s="41">
         <v>41563</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="46" t="s">
+      <c r="A7" s="39" t="s">
         <v>89</v>
       </c>
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="C7" s="46" t="s">
+      <c r="C7" s="39" t="s">
         <v>127</v>
       </c>
-      <c r="D7" s="46" t="s">
+      <c r="D7" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E7" s="46">
+      <c r="E7" s="39">
         <v>50</v>
       </c>
-      <c r="F7" s="46">
+      <c r="F7" s="39">
         <v>60</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="39">
         <v>50</v>
       </c>
-      <c r="H7" s="46">
+      <c r="H7" s="39">
         <v>80</v>
       </c>
-      <c r="I7" s="48">
+      <c r="I7" s="41">
         <v>41563</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="46" t="s">
+      <c r="A8" s="39" t="s">
         <v>90</v>
       </c>
-      <c r="B8" s="47" t="s">
+      <c r="B8" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="C8" s="46" t="s">
+      <c r="C8" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D8" s="46" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="46">
+      <c r="D8" s="39" t="s">
+        <v>154</v>
+      </c>
+      <c r="E8" s="39">
         <v>50</v>
       </c>
-      <c r="F8" s="46">
+      <c r="F8" s="39">
         <v>90</v>
       </c>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46">
+      <c r="G8" s="39">
+        <v>13</v>
+      </c>
+      <c r="H8" s="39">
         <v>60</v>
       </c>
-      <c r="I8" s="48">
+      <c r="I8" s="41">
         <v>41563</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="46" customFormat="1">
-      <c r="A9" s="46" t="s">
+    <row r="9" spans="1:9" s="39" customFormat="1">
+      <c r="A9" s="39" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="47" t="s">
+      <c r="B9" s="40" t="s">
         <v>63</v>
       </c>
-      <c r="C9" s="46" t="s">
+      <c r="C9" s="39" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="46" t="s">
+      <c r="D9" s="39" t="s">
         <v>154</v>
       </c>
-      <c r="E9" s="46">
+      <c r="E9" s="39">
         <v>50</v>
       </c>
-      <c r="F9" s="46">
+      <c r="F9" s="39">
         <v>60</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="39">
         <v>35</v>
       </c>
-      <c r="H9" s="46">
+      <c r="H9" s="39">
         <v>50</v>
       </c>
-      <c r="I9" s="48">
+      <c r="I9" s="41">
         <v>41563</v>
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="E10" s="45">
+      <c r="E10" s="38">
         <f>SUM(E2:E9)</f>
         <v>488</v>
       </c>
-      <c r="F10" s="45">
+      <c r="F10" s="38">
         <f>SUM(F2:F9)</f>
         <v>600</v>
       </c>
-      <c r="G10" s="45">
+      <c r="G10" s="38">
         <f>SUM(G1:G9)</f>
-        <v>169</v>
-      </c>
-      <c r="H10" s="45">
+        <v>271</v>
+      </c>
+      <c r="H10" s="38">
         <f>SUM(H2:H9)</f>
         <v>670</v>
       </c>
     </row>
     <row r="13" spans="1:9">
-      <c r="B13" s="50" t="s">
+      <c r="B13" s="43" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:9">
-      <c r="B14" s="50" t="s">
+      <c r="B14" s="43" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:9">
-      <c r="B15" s="49" t="s">
+      <c r="B15" s="42" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:9">
-      <c r="B16" s="49" t="s">
+      <c r="B16" s="42" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="49" t="s">
+      <c r="B17" s="42" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="2:2">
-      <c r="B18" s="49" t="s">
+      <c r="B18" s="42" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="19" spans="2:2">
-      <c r="B19" s="49" t="s">
+      <c r="B19" s="42" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="20" spans="2:2">
-      <c r="B20" s="51" t="s">
+      <c r="B20" s="44" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="21" spans="2:2">
-      <c r="B21" s="50" t="s">
+      <c r="B21" s="43" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="22" spans="2:2">
-      <c r="B22" s="49" t="s">
+      <c r="B22" s="42" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="23" spans="2:2">
-      <c r="B23" s="49" t="s">
+      <c r="B23" s="42" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="24" spans="2:2">
-      <c r="B24" s="49" t="s">
+      <c r="B24" s="42" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="1048576" spans="6:6">
-      <c r="F1048576" s="45">
+      <c r="F1048576" s="38">
         <f>SUM(F2:F1048575)</f>
         <v>1200</v>
       </c>
@@ -3798,7 +3835,7 @@
       <c r="C27" s="30"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="13" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="166">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -551,6 +551,9 @@
   </si>
   <si>
     <t>Start implementation early</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    MM</t>
   </si>
 </sst>
 </file>
@@ -561,7 +564,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="24">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -669,6 +672,35 @@
       <sz val="10"/>
       <name val="Verdana"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Sylfaen"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -760,7 +792,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -867,6 +899,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2364,7 +2418,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
@@ -3192,232 +3246,215 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="13"/>
-    <col min="2" max="2" width="26.4609375" style="11" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="13"/>
+    <col min="1" max="1" width="10.84375" style="57"/>
+    <col min="2" max="2" width="26.4609375" style="57" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="53"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="52" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="52" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>57</v>
-      </c>
-      <c r="C2" s="13" t="s">
+      <c r="A2" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B2" s="57" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="53" t="s">
         <v>125</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="13">
-        <v>120</v>
-      </c>
-      <c r="F2" s="13">
+      <c r="E2" s="53">
+        <v>30</v>
+      </c>
+      <c r="F2" s="53">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="B3" s="57" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D3" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="53">
+        <v>90</v>
+      </c>
+      <c r="F3" s="53">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="54" customFormat="1">
+      <c r="A4" s="57" t="s">
+        <v>87</v>
+      </c>
+      <c r="B4" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="53" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E4" s="53">
+        <v>44</v>
+      </c>
+      <c r="F4" s="53">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="C5" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D5" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E5" s="53">
+        <v>30</v>
+      </c>
+      <c r="F5" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="C6" s="53" t="s">
+        <v>128</v>
+      </c>
+      <c r="D6" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E6" s="53">
+        <v>30</v>
+      </c>
+      <c r="F6" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="54" customFormat="1" ht="16">
+      <c r="A7" s="58" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7" s="58" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7" s="55" t="s">
         <v>125</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D7" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E7" s="53">
         <v>30</v>
       </c>
-      <c r="F3" s="13">
+      <c r="F7" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="54" customFormat="1" ht="16">
+      <c r="A8" s="58" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8" s="55" t="s">
+        <v>126</v>
+      </c>
+      <c r="D8" s="53" t="s">
+        <v>145</v>
+      </c>
+      <c r="E8" s="53">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
-        <v>93</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="13" t="s">
+      <c r="F8" s="53">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A9" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="B9" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>165</v>
+      </c>
+      <c r="D9" s="53" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="13">
+      <c r="E9" s="53">
+        <v>30</v>
+      </c>
+      <c r="F9" s="53">
         <v>60</v>
-      </c>
-      <c r="F4" s="13">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E5" s="13">
-        <v>80</v>
-      </c>
-      <c r="F5" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E6" s="13">
-        <v>90</v>
-      </c>
-      <c r="F6" s="13">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" customFormat="1">
-      <c r="A7" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E7" s="13">
-        <v>44</v>
-      </c>
-      <c r="F7" s="13">
-        <v>60</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E8" s="13">
-        <v>30</v>
-      </c>
-      <c r="F8" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>145</v>
-      </c>
-      <c r="E9" s="13">
-        <v>30</v>
-      </c>
-      <c r="F9" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="19">
-        <f>SUM(E2:E9)</f>
-        <v>484</v>
-      </c>
-      <c r="F10" s="19">
-        <f>SUM(F2:F9)</f>
-        <v>440</v>
-      </c>
-      <c r="G10" s="19">
-        <f>SUM(G2:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <f>SUM(H2:H9)</f>
-        <v>0</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -3605,8 +3642,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="164">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -151,33 +151,18 @@
     <t>Parents should not marry any of their descendants</t>
   </si>
   <si>
-    <t>Siblings should not marry one another</t>
-  </si>
-  <si>
     <t>First cousins should not marry one another</t>
   </si>
   <si>
     <t>Aunts and uncles should not marry their nieces or nephews</t>
   </si>
   <si>
-    <t>No more than one individual with the same name and birth date should appear in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>No more than one family with the same spouses by name and the same marriage date should appear in a GEDCOM file</t>
-  </si>
-  <si>
     <t>No more than one child with the same name and birth date should appear in a family</t>
   </si>
   <si>
     <t>Include person's current age when listing individuals</t>
   </si>
   <si>
-    <t>List all deceased individuals in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all living married people in a GEDCOM file</t>
-  </si>
-  <si>
     <t>List all living people over 30 who have never been married in a GEDCOM file</t>
   </si>
   <si>
@@ -244,9 +229,6 @@
     <t>Correct gender for role</t>
   </si>
   <si>
-    <t>Husband in family should be male and wife in family should be female</t>
-  </si>
-  <si>
     <t>Unique IDs</t>
   </si>
   <si>
@@ -424,15 +406,9 @@
     <t>Multiple births &lt;= 5</t>
   </si>
   <si>
-    <t>Birth dates of siblings should be more than 8 months apart or less than 2 days apart (twins may be born one day apart, e.g. 11:59 PM and 12:02 AM the following calendar day)</t>
-  </si>
-  <si>
     <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
   </si>
   <si>
-    <t>List siblings in families by decreasing age, i.e. oldest siblings first</t>
-  </si>
-  <si>
     <t>JT</t>
   </si>
   <si>
@@ -493,9 +469,6 @@
     <t>MaryamAlMansour</t>
   </si>
   <si>
-    <t>Yet to Start</t>
-  </si>
-  <si>
     <t>not integrating your code</t>
   </si>
   <si>
@@ -554,6 +527,27 @@
   </si>
   <si>
     <t xml:space="preserve">    MM</t>
+  </si>
+  <si>
+    <t>Yet to start</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Review Results: </t>
+  </si>
+  <si>
+    <t>Keep Doing:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Make sure all pieces for the output ready before deadline. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Avoid: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Communicating late with other team memebers about how the sprint is going. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not fully understand what your teammates working on. </t>
   </si>
 </sst>
 </file>
@@ -792,7 +786,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -919,6 +913,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2116,70 +2129,70 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="22" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B3" s="23" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C3" s="23" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="C4" s="23" t="s">
         <v>125</v>
       </c>
-      <c r="B4" s="23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C4" s="23" t="s">
+      <c r="D4" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="E4" s="23" t="s">
         <v>133</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="E4" s="23" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="B5" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>135</v>
-      </c>
       <c r="C5" s="23" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="22" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B6" s="23" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E6" s="23" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="16.5">
@@ -2239,37 +2252,37 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="4" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="4" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="4" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="4" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="4" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="4" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -2292,7 +2305,7 @@
     </row>
     <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B15" s="7">
         <v>41065</v>
@@ -2308,7 +2321,7 @@
     </row>
     <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B16" s="7">
         <v>41078</v>
@@ -2333,7 +2346,7 @@
     </row>
     <row r="17" spans="1:7">
       <c r="A17" s="4" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B17" s="7">
         <v>41092</v>
@@ -2358,7 +2371,7 @@
     </row>
     <row r="18" spans="1:7">
       <c r="A18" s="4" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B18" s="7">
         <v>41106</v>
@@ -2383,7 +2396,7 @@
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="4" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B19" s="7">
         <v>41120</v>
@@ -2566,16 +2579,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="13" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E2" s="13">
         <v>75</v>
@@ -2595,16 +2608,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="13" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D3" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E3" s="32">
         <v>75</v>
@@ -2624,16 +2637,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="13" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C4" s="13" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D4" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E4" s="32">
         <v>75</v>
@@ -2653,16 +2666,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="13" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C5" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D5" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E5" s="13">
         <v>75</v>
@@ -2682,16 +2695,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="13" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C6" s="13" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D6" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E6" s="13">
         <v>75</v>
@@ -2711,16 +2724,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="13" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C7" s="13" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D7" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E7" s="13">
         <v>75</v>
@@ -2740,16 +2753,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="13" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C8" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D8" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E8" s="13">
         <v>75</v>
@@ -2769,16 +2782,16 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="13" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D9" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E9" s="13">
         <v>75</v>
@@ -2826,23 +2839,23 @@
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="33" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="I16" s="4"/>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="33" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="34" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="33" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="20" spans="2:2">
@@ -2852,22 +2865,22 @@
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="33" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="33" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="18" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="27">
       <c r="B24" s="18" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -2881,8 +2894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
@@ -2923,16 +2936,16 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="39" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C2" s="39" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E2" s="39">
         <v>60</v>
@@ -2952,16 +2965,16 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="39" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C3" s="39" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D3" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E3" s="39">
         <v>50</v>
@@ -2981,16 +2994,16 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="39" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C4" s="39" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D4" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E4" s="39">
         <v>90</v>
@@ -3010,16 +3023,16 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="39" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B5" s="40" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C5" s="39" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D5" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E5" s="39">
         <v>88</v>
@@ -3039,16 +3052,16 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="39" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B6" s="40" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="C6" s="39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D6" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E6" s="39">
         <v>50</v>
@@ -3068,16 +3081,16 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="39" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B7" s="40" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C7" s="39" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D7" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E7" s="39">
         <v>50</v>
@@ -3097,16 +3110,16 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="39" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B8" s="40" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="39" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D8" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E8" s="39">
         <v>50</v>
@@ -3126,16 +3139,16 @@
     </row>
     <row r="9" spans="1:9" s="39" customFormat="1">
       <c r="A9" s="39" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B9" s="40" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C9" s="39" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D9" s="39" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="E9" s="39">
         <v>50</v>
@@ -3178,37 +3191,37 @@
     </row>
     <row r="14" spans="1:9">
       <c r="B14" s="43" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="B15" s="42" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="B16" s="42" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="42" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="42" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="42" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="44" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="2:2">
@@ -3218,17 +3231,17 @@
     </row>
     <row r="22" spans="2:2">
       <c r="B22" s="42" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="23" spans="2:2">
       <c r="B23" s="42" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="24" spans="2:2">
       <c r="B24" s="42" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="1048576" spans="6:6">
@@ -3246,20 +3259,22 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="10.84375" style="57"/>
     <col min="2" max="2" width="26.4609375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="53"/>
+    <col min="3" max="6" width="10.84375" style="53"/>
+    <col min="7" max="8" width="10.84375" style="57"/>
+    <col min="9" max="16384" width="10.84375" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:8">
       <c r="A1" s="56" t="s">
         <v>3</v>
       </c>
@@ -3278,25 +3293,22 @@
       <c r="F1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="52" t="s">
+      <c r="G1" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="52" t="s">
+      <c r="H1" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="52" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="57" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B2" s="57" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="53" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D2" s="53" t="s">
         <v>145</v>
@@ -3307,16 +3319,22 @@
       <c r="F2" s="53">
         <v>90</v>
       </c>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" s="57">
+        <v>16</v>
+      </c>
+      <c r="H2" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="57" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B3" s="57" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C3" s="53" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D3" s="53" t="s">
         <v>145</v>
@@ -3327,16 +3345,22 @@
       <c r="F3" s="53">
         <v>30</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" s="54" customFormat="1">
+      <c r="G3" s="57">
+        <v>8</v>
+      </c>
+      <c r="H3" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="54" customFormat="1">
       <c r="A4" s="57" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B4" s="57" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C4" s="53" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D4" s="53" t="s">
         <v>145</v>
@@ -3345,21 +3369,24 @@
         <v>44</v>
       </c>
       <c r="F4" s="53">
+        <v>30</v>
+      </c>
+      <c r="G4" s="57">
+        <v>19</v>
+      </c>
+      <c r="H4" s="58">
         <v>60</v>
       </c>
-      <c r="G4" s="53"/>
-      <c r="H4" s="53"/>
-      <c r="I4" s="53"/>
-    </row>
-    <row r="5" spans="1:9">
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="57" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B5" s="57" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="C5" s="53" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D5" s="53" t="s">
         <v>145</v>
@@ -3370,16 +3397,22 @@
       <c r="F5" s="53">
         <v>60</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" s="57">
+        <v>19</v>
+      </c>
+      <c r="H5" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="57" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B6" s="57" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C6" s="53" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D6" s="53" t="s">
         <v>145</v>
@@ -3390,16 +3423,22 @@
       <c r="F6" s="53">
         <v>60</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" s="54" customFormat="1" ht="16">
+      <c r="G6" s="57">
+        <v>22</v>
+      </c>
+      <c r="H6" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="54" customFormat="1" ht="16">
       <c r="A7" s="58" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B7" s="58" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C7" s="55" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D7" s="53" t="s">
         <v>145</v>
@@ -3410,16 +3449,22 @@
       <c r="F7" s="53">
         <v>60</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="54" customFormat="1" ht="16">
+      <c r="G7" s="58">
+        <v>33</v>
+      </c>
+      <c r="H7" s="58">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="54" customFormat="1" ht="16">
       <c r="A8" s="58" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B8" s="58" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D8" s="53" t="s">
         <v>145</v>
@@ -3430,16 +3475,22 @@
       <c r="F8" s="53">
         <v>60</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="G8" s="58">
+        <v>27</v>
+      </c>
+      <c r="H8" s="58">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="29" customFormat="1" ht="15">
       <c r="A9" s="58" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B9" s="58" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>145</v>
@@ -3450,6 +3501,85 @@
       <c r="F9" s="53">
         <v>60</v>
       </c>
+      <c r="G9" s="58">
+        <v>21</v>
+      </c>
+      <c r="H9" s="57">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="61" customFormat="1">
+      <c r="A13" s="60"/>
+      <c r="B13" s="60" t="s">
+        <v>158</v>
+      </c>
+      <c r="G13" s="60"/>
+      <c r="H13" s="60"/>
+    </row>
+    <row r="14" spans="1:8" s="65" customFormat="1">
+      <c r="A14" s="64"/>
+      <c r="B14" s="64" t="s">
+        <v>159</v>
+      </c>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+    </row>
+    <row r="15" spans="1:8" s="62" customFormat="1" ht="12.5">
+      <c r="B15" s="63" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="62" customFormat="1" ht="12.5">
+      <c r="B16" s="63" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="62" customFormat="1" ht="12.5">
+      <c r="B17" s="63" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="62" customFormat="1" ht="12.5">
+      <c r="B18" s="63" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="62" customFormat="1" ht="12.5">
+      <c r="B19" s="63" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="61" customFormat="1">
+      <c r="A20" s="60"/>
+      <c r="B20" s="60" t="s">
+        <v>160</v>
+      </c>
+      <c r="G20" s="60"/>
+      <c r="H20" s="60"/>
+    </row>
+    <row r="21" spans="1:8" s="65" customFormat="1">
+      <c r="A21" s="64"/>
+      <c r="B21" s="64" t="s">
+        <v>161</v>
+      </c>
+      <c r="G21" s="64"/>
+      <c r="H21" s="64"/>
+    </row>
+    <row r="22" spans="1:8" s="61" customFormat="1">
+      <c r="A22" s="60"/>
+      <c r="B22" s="60" t="s">
+        <v>162</v>
+      </c>
+      <c r="G22" s="60"/>
+      <c r="H22" s="60"/>
+    </row>
+    <row r="23" spans="1:8" s="61" customFormat="1">
+      <c r="A23" s="60"/>
+      <c r="B23" s="60" t="s">
+        <v>163</v>
+      </c>
+      <c r="G23" s="60"/>
+      <c r="H23" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3460,10 +3590,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I10"/>
+  <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10:H10"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
@@ -3502,134 +3632,116 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A2" s="29" t="s">
+        <v>85</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="C2" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D2" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A3" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B3" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="66" t="s">
+        <v>119</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A4" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A5" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C5" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A6" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>61</v>
+      </c>
+      <c r="C6" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A7" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="66" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A8" s="29" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="13" t="s">
+      <c r="C8" s="66" t="s">
+        <v>118</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="29" customFormat="1" ht="15">
+      <c r="A9" s="29" t="s">
         <v>100</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D3" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="D5" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="13" t="s">
-        <v>103</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="C6" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="13" t="s">
-        <v>104</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="B8" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="13" t="s">
-        <v>106</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>128</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="19">
-        <f>SUM(E2:E9)</f>
-        <v>0</v>
-      </c>
-      <c r="F10" s="19">
-        <f>SUM(F2:F9)</f>
-        <v>0</v>
-      </c>
-      <c r="G10" s="19">
-        <f>SUM(G2:G9)</f>
-        <v>0</v>
-      </c>
-      <c r="H10" s="19">
-        <f>SUM(H2:H9)</f>
-        <v>0</v>
+      <c r="C9" s="66" t="s">
+        <v>117</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>157</v>
       </c>
     </row>
   </sheetData>
@@ -3640,10 +3752,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
@@ -3656,220 +3768,132 @@
   <sheetData>
     <row r="1" spans="1:3" s="27" customFormat="1">
       <c r="A1" s="27" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C1" s="28" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15">
       <c r="A2" s="29" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B2" s="29" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15">
       <c r="A3" s="29" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C3" s="30" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="30">
       <c r="A4" s="29" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C4" s="30" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="15">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="30">
       <c r="A5" s="29" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C5" s="30" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="30">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="105">
       <c r="A6" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="30">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15">
       <c r="A7" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="30">
       <c r="A8" s="29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15">
       <c r="A9" s="29" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30">
-      <c r="A10" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B10" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C10" s="30" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="105">
-      <c r="A11" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B11" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>123</v>
-      </c>
+    <row r="10" spans="1:3" ht="15">
+      <c r="C10" s="30"/>
+    </row>
+    <row r="11" spans="1:3" ht="15">
+      <c r="C11" s="30"/>
     </row>
     <row r="12" spans="1:3" ht="15">
-      <c r="A12" s="29" t="s">
-        <v>101</v>
-      </c>
-      <c r="B12" s="29" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="30">
-      <c r="A13" s="29" t="s">
-        <v>102</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>69</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>124</v>
-      </c>
+      <c r="C12" s="30"/>
+    </row>
+    <row r="13" spans="1:3" ht="15">
+      <c r="C13" s="30"/>
     </row>
     <row r="14" spans="1:3" ht="15">
-      <c r="A14" s="29" t="s">
-        <v>103</v>
-      </c>
-      <c r="B14" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="C14" s="30" t="s">
-        <v>38</v>
-      </c>
+      <c r="C14" s="30"/>
     </row>
     <row r="15" spans="1:3" ht="15">
-      <c r="A15" s="29" t="s">
-        <v>104</v>
-      </c>
-      <c r="B15" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30">
-      <c r="A16" s="29" t="s">
-        <v>105</v>
-      </c>
-      <c r="B16" s="29" t="s">
-        <v>72</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="15">
-      <c r="A17" s="29" t="s">
-        <v>106</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="15">
+      <c r="C15" s="30"/>
+    </row>
+    <row r="16" spans="1:3" ht="15">
+      <c r="C16" s="30"/>
+    </row>
+    <row r="17" spans="3:3" ht="15">
+      <c r="C17" s="30"/>
+    </row>
+    <row r="18" spans="3:3" ht="15">
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="1:3" ht="15">
+    <row r="19" spans="3:3" ht="15">
       <c r="C19" s="30"/>
-    </row>
-    <row r="20" spans="1:3" ht="15">
-      <c r="C20" s="30"/>
-    </row>
-    <row r="21" spans="1:3" ht="15">
-      <c r="C21" s="30"/>
-    </row>
-    <row r="22" spans="1:3" ht="15">
-      <c r="C22" s="30"/>
-    </row>
-    <row r="23" spans="1:3" ht="15">
-      <c r="C23" s="30"/>
-    </row>
-    <row r="24" spans="1:3" ht="15">
-      <c r="C24" s="30"/>
-    </row>
-    <row r="25" spans="1:3" ht="15">
-      <c r="C25" s="30"/>
-    </row>
-    <row r="26" spans="1:3" ht="15">
-      <c r="C26" s="30"/>
-    </row>
-    <row r="27" spans="1:3" ht="15">
-      <c r="C27" s="30"/>
     </row>
   </sheetData>
   <phoneticPr fontId="13" type="noConversion"/>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -1190,6 +1190,9 @@
                 <c:pt idx="2">
                   <c:v>41563</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>41577</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1207,6 +1210,9 @@
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2429,10 +2435,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
@@ -2517,6 +2523,27 @@
       <c r="F4" s="50">
         <f>(D4-D3)/E4*60</f>
         <v>9.670588235294117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="48">
+        <v>41577</v>
+      </c>
+      <c r="B5" s="23">
+        <v>8</v>
+      </c>
+      <c r="C5" s="49">
+        <v>8</v>
+      </c>
+      <c r="D5" s="23">
+        <v>165</v>
+      </c>
+      <c r="E5" s="51">
+        <v>850</v>
+      </c>
+      <c r="F5" s="50">
+        <f>(D5-D4)/E5*60</f>
+        <v>-7.4823529411764707</v>
       </c>
     </row>
   </sheetData>
@@ -3261,7 +3288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H23"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="150" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
       <selection activeCell="A23" sqref="A23:XFD23"/>
     </sheetView>
   </sheetViews>
@@ -3592,7 +3619,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Documents\GitHub\555\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celestesakhile/Desktop/555/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="19200" windowHeight="6940" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,8 +21,11 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -526,9 +529,6 @@
     <t>Start implementation early</t>
   </si>
   <si>
-    <t xml:space="preserve">    MM</t>
-  </si>
-  <si>
     <t>Yet to start</t>
   </si>
   <si>
@@ -548,17 +548,20 @@
   </si>
   <si>
     <t xml:space="preserve">Not fully understand what your teammates working on. </t>
+  </si>
+  <si>
+    <t>Create individual test output files for ease of integration</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="23" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -665,6 +668,7 @@
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -674,11 +678,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <name val="Sylfaen"/>
       <family val="1"/>
     </font>
@@ -900,38 +899,38 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1016,7 +1015,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1042,22 +1041,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065</c:v>
+                  <c:v>41065.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078</c:v>
+                  <c:v>41078.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092</c:v>
+                  <c:v>41092.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106</c:v>
+                  <c:v>41106.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120</c:v>
+                  <c:v>41120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1069,25 +1068,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC8B-423E-BCE0-97BCA44D3CBF}"/>
             </c:ext>
@@ -1103,28 +1102,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430483256"/>
-        <c:axId val="430483648"/>
+        <c:axId val="95978464"/>
+        <c:axId val="16432592"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="430483256"/>
+        <c:axId val="95978464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430483648"/>
+        <c:crossAx val="16432592"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="430483648"/>
+        <c:axId val="16432592"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1135,7 +1134,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430483256"/>
+        <c:crossAx val="95978464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1146,14 +1145,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1182,16 +1181,16 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41535</c:v>
+                  <c:v>41535.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41549</c:v>
+                  <c:v>41549.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41563</c:v>
+                  <c:v>41563.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41577</c:v>
+                  <c:v>41577.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1203,22 +1202,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>36</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>30</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>17</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DC9-401C-B8F7-DDA8A66F6D29}"/>
             </c:ext>
@@ -1234,11 +1233,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="430477376"/>
-        <c:axId val="430476592"/>
+        <c:axId val="95346320"/>
+        <c:axId val="12597664"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="430477376"/>
+        <c:axId val="95346320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1248,14 +1247,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430476592"/>
+        <c:crossAx val="12597664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="430476592"/>
+        <c:axId val="12597664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1266,7 +1265,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="430477376"/>
+        <c:crossAx val="95346320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1277,7 +1276,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1303,7 +1302,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1341,7 +1340,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1416,7 +1415,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1481,7 +1480,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1550,7 +1549,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1620,7 +1619,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1689,7 +1688,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1759,7 +1758,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2099,24 +2098,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.84375" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4609375" style="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.4609375" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="11.15234375" style="23"/>
+    <col min="5" max="5" width="20.5" style="23" customWidth="1"/>
+    <col min="6" max="16384" width="11.1640625" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1">
+    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="20" t="s">
         <v>18</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="22" t="s">
         <v>118</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="22" t="s">
         <v>117</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="22" t="s">
         <v>119</v>
       </c>
@@ -2184,7 +2183,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="22" t="s">
         <v>120</v>
       </c>
@@ -2201,7 +2200,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D9" s="21" t="s">
         <v>29</v>
       </c>
@@ -2210,15 +2209,15 @@
       </c>
       <c r="G9" s="24"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G10" s="25"/>
       <c r="H10" s="26"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G11" s="25"/>
       <c r="H11" s="26"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G12" s="25"/>
       <c r="H12" s="26"/>
     </row>
@@ -2228,10 +2227,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2239,54 +2238,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="150" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="4"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.23046875" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="4"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -2309,7 +2308,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -2325,7 +2324,7 @@
       <c r="F15" s="8"/>
       <c r="G15" s="6"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -2350,7 +2349,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="4" t="s">
         <v>109</v>
       </c>
@@ -2375,7 +2374,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="4" t="s">
         <v>110</v>
       </c>
@@ -2400,7 +2399,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="4" t="s">
         <v>111</v>
       </c>
@@ -2434,25 +2433,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="48"/>
-    <col min="2" max="2" width="16.69140625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" style="49" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" style="49" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="50" customWidth="1"/>
-    <col min="7" max="16384" width="11.15234375" style="49"/>
+    <col min="1" max="1" width="11.1640625" style="48"/>
+    <col min="2" max="2" width="16.6640625" style="49" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="49" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="49" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="49" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="50" customWidth="1"/>
+    <col min="7" max="16384" width="11.1640625" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="46" customFormat="1">
+    <row r="1" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
@@ -2472,23 +2471,23 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="48">
         <v>41535</v>
       </c>
       <c r="B2" s="49">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="D2" s="49">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="48">
         <v>41549</v>
       </c>
       <c r="B3" s="49">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C3" s="49">
         <v>8</v>
@@ -2504,28 +2503,28 @@
         <v>9.4588235294117649</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="48">
         <v>41563</v>
       </c>
       <c r="B4" s="49">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="49">
         <v>8</v>
       </c>
       <c r="D4" s="49">
-        <v>271</v>
+        <v>405</v>
       </c>
       <c r="E4" s="51">
-        <v>850</v>
+        <v>670</v>
       </c>
       <c r="F4" s="50">
         <f>(D4-D3)/E4*60</f>
-        <v>9.670588235294117</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>24.268656716417912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="48">
         <v>41577</v>
       </c>
@@ -2536,14 +2535,14 @@
         <v>8</v>
       </c>
       <c r="D5" s="23">
-        <v>165</v>
+        <v>570</v>
       </c>
       <c r="E5" s="51">
-        <v>850</v>
+        <v>390</v>
       </c>
       <c r="F5" s="50">
         <f>(D5-D4)/E5*60</f>
-        <v>-7.4823529411764707</v>
+        <v>25.384615384615383</v>
       </c>
     </row>
   </sheetData>
@@ -2555,27 +2554,27 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.15234375" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69140625" customWidth="1"/>
-    <col min="4" max="4" width="8.69140625" customWidth="1"/>
-    <col min="5" max="5" width="8.23046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.23046875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.15234375" style="3"/>
+    <col min="2" max="2" width="32.1640625" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>9</v>
       </c>
@@ -2604,7 +2603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="13" t="s">
         <v>69</v>
       </c>
@@ -2633,7 +2632,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="13" t="s">
         <v>70</v>
       </c>
@@ -2662,7 +2661,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="13" t="s">
         <v>71</v>
       </c>
@@ -2691,7 +2690,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="13" t="s">
         <v>72</v>
       </c>
@@ -2720,7 +2719,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="13" t="s">
         <v>73</v>
       </c>
@@ -2749,7 +2748,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="13" t="s">
         <v>74</v>
       </c>
@@ -2778,7 +2777,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="13" t="s">
         <v>75</v>
       </c>
@@ -2807,7 +2806,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A9" s="13" t="s">
         <v>76</v>
       </c>
@@ -2836,7 +2835,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E10" s="19">
         <f>SUM(E2:E9)</f>
         <v>600</v>
@@ -2854,58 +2853,58 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="17" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="17" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="33" t="s">
         <v>142</v>
       </c>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="18" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="27">
+    <row r="24" spans="2:2" ht="26" x14ac:dyDescent="0.15">
       <c r="B24" s="18" t="s">
         <v>144</v>
       </c>
@@ -2918,21 +2917,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10:H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="38"/>
-    <col min="2" max="2" width="25.4609375" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.15234375" style="38"/>
+    <col min="1" max="1" width="11.1640625" style="38"/>
+    <col min="2" max="2" width="25.5" style="42" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.1640625" style="38"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="36" t="s">
         <v>9</v>
       </c>
@@ -2961,7 +2960,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A2" s="39" t="s">
         <v>77</v>
       </c>
@@ -2990,7 +2989,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="39" t="s">
         <v>78</v>
       </c>
@@ -3019,7 +3018,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A4" s="39" t="s">
         <v>79</v>
       </c>
@@ -3048,7 +3047,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A5" s="39" t="s">
         <v>80</v>
       </c>
@@ -3077,7 +3076,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A6" s="39" t="s">
         <v>82</v>
       </c>
@@ -3106,7 +3105,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A7" s="39" t="s">
         <v>83</v>
       </c>
@@ -3135,7 +3134,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A8" s="39" t="s">
         <v>84</v>
       </c>
@@ -3164,7 +3163,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="39" customFormat="1">
+    <row r="9" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="39" t="s">
         <v>90</v>
       </c>
@@ -3193,7 +3192,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E10" s="38">
         <f>SUM(E2:E9)</f>
         <v>488</v>
@@ -3211,67 +3210,67 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="43" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="43" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="42" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="42" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B17" s="42" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B18" s="42" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B19" s="42" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B20" s="44" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B21" s="43" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" s="42" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B23" s="42" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" s="42" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="1048576" spans="6:6">
+    <row r="1048576" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F1048576" s="38">
         <f>SUM(F2:F1048575)</f>
         <v>1200</v>
@@ -3285,27 +3284,27 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:H23"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23:XFD23"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="57"/>
-    <col min="2" max="2" width="26.4609375" style="57" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.84375" style="53"/>
-    <col min="7" max="8" width="10.84375" style="57"/>
-    <col min="9" max="16384" width="10.84375" style="53"/>
+    <col min="1" max="1" width="10.83203125" style="56"/>
+    <col min="2" max="2" width="26.5" style="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="6" width="10.83203125" style="53"/>
+    <col min="7" max="8" width="10.83203125" style="56"/>
+    <col min="9" max="16384" width="10.83203125" style="53"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="56" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="58" t="s">
         <v>4</v>
       </c>
       <c r="C1" s="52" t="s">
@@ -3320,21 +3319,21 @@
       <c r="F1" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="56" t="s">
+      <c r="G1" s="55" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="56" t="s">
+      <c r="H1" s="55" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="56" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="57" t="s">
+      <c r="B2" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="53" t="s">
+      <c r="C2" s="56" t="s">
         <v>117</v>
       </c>
       <c r="D2" s="53" t="s">
@@ -3346,21 +3345,21 @@
       <c r="F2" s="53">
         <v>90</v>
       </c>
-      <c r="G2" s="57">
+      <c r="G2" s="56">
         <v>16</v>
       </c>
-      <c r="H2" s="58">
+      <c r="H2" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="57" t="s">
+      <c r="B3" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="53" t="s">
+      <c r="C3" s="56" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="53" t="s">
@@ -3372,21 +3371,21 @@
       <c r="F3" s="53">
         <v>30</v>
       </c>
-      <c r="G3" s="57">
+      <c r="G3" s="56">
         <v>8</v>
       </c>
-      <c r="H3" s="58">
+      <c r="H3" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="54" customFormat="1">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="56" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="57" t="s">
+      <c r="B4" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="53" t="s">
+      <c r="C4" s="56" t="s">
         <v>119</v>
       </c>
       <c r="D4" s="53" t="s">
@@ -3398,21 +3397,21 @@
       <c r="F4" s="53">
         <v>30</v>
       </c>
-      <c r="G4" s="57">
+      <c r="G4" s="56">
         <v>19</v>
       </c>
-      <c r="H4" s="58">
+      <c r="H4" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="56" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="53" t="s">
+      <c r="C5" s="56" t="s">
         <v>120</v>
       </c>
       <c r="D5" s="53" t="s">
@@ -3424,21 +3423,21 @@
       <c r="F5" s="53">
         <v>60</v>
       </c>
-      <c r="G5" s="57">
+      <c r="G5" s="56">
         <v>19</v>
       </c>
-      <c r="H5" s="58">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="57" t="s">
+      <c r="H5" s="57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="56" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="56" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="53" t="s">
+      <c r="C6" s="56" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="53" t="s">
@@ -3450,21 +3449,21 @@
       <c r="F6" s="53">
         <v>60</v>
       </c>
-      <c r="G6" s="57">
+      <c r="G6" s="56">
         <v>22</v>
       </c>
-      <c r="H6" s="58">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" s="54" customFormat="1" ht="16">
-      <c r="A7" s="58" t="s">
+      <c r="H6" s="57">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="57" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="58" t="s">
+      <c r="B7" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="55" t="s">
+      <c r="C7" s="66" t="s">
         <v>117</v>
       </c>
       <c r="D7" s="53" t="s">
@@ -3476,21 +3475,21 @@
       <c r="F7" s="53">
         <v>60</v>
       </c>
-      <c r="G7" s="58">
+      <c r="G7" s="57">
         <v>33</v>
       </c>
-      <c r="H7" s="58">
+      <c r="H7" s="57">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="54" customFormat="1" ht="16">
-      <c r="A8" s="58" t="s">
+    <row r="8" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="58" t="s">
+      <c r="B8" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="55" t="s">
+      <c r="C8" s="66" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="53" t="s">
@@ -3502,22 +3501,22 @@
       <c r="F8" s="53">
         <v>60</v>
       </c>
-      <c r="G8" s="58">
+      <c r="G8" s="57">
         <v>27</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="57">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" ht="15">
-      <c r="A9" s="58" t="s">
+    <row r="9" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="57" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="30" t="s">
-        <v>156</v>
+      <c r="C9" s="66" t="s">
+        <v>118</v>
       </c>
       <c r="D9" s="53" t="s">
         <v>145</v>
@@ -3528,85 +3527,116 @@
       <c r="F9" s="53">
         <v>60</v>
       </c>
-      <c r="G9" s="58">
+      <c r="G9" s="57">
         <v>21</v>
       </c>
-      <c r="H9" s="57">
+      <c r="H9" s="56">
         <v>30</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="61" customFormat="1">
-      <c r="A13" s="60"/>
-      <c r="B13" s="60" t="s">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="E10" s="38">
+        <f>SUM(E2:E9)</f>
+        <v>314</v>
+      </c>
+      <c r="F10" s="38">
+        <f>SUM(F2:F9)</f>
+        <v>450</v>
+      </c>
+      <c r="G10" s="38">
+        <f>SUM(G1:G9)</f>
+        <v>165</v>
+      </c>
+      <c r="H10" s="38">
+        <f>SUM(H2:H9)</f>
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="59"/>
+      <c r="B13" s="59" t="s">
+        <v>157</v>
+      </c>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+    </row>
+    <row r="14" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="63"/>
+      <c r="B14" s="63" t="s">
         <v>158</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-    </row>
-    <row r="14" spans="1:8" s="65" customFormat="1">
-      <c r="A14" s="64"/>
-      <c r="B14" s="64" t="s">
+      <c r="G14" s="63"/>
+      <c r="H14" s="63"/>
+    </row>
+    <row r="15" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="62" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="62" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="62" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="62" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="59" t="s">
         <v>159</v>
       </c>
-      <c r="G14" s="64"/>
-      <c r="H14" s="64"/>
-    </row>
-    <row r="15" spans="1:8" s="62" customFormat="1" ht="12.5">
-      <c r="B15" s="63" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="62" customFormat="1" ht="12.5">
-      <c r="B16" s="63" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" s="62" customFormat="1" ht="12.5">
-      <c r="B17" s="63" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" s="62" customFormat="1" ht="12.5">
-      <c r="B18" s="63" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="62" customFormat="1" ht="12.5">
-      <c r="B19" s="63" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" s="61" customFormat="1">
-      <c r="A20" s="60"/>
-      <c r="B20" s="60" t="s">
+    </row>
+    <row r="21" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="59"/>
+      <c r="B21" s="59" t="s">
+        <v>159</v>
+      </c>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+    </row>
+    <row r="22" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="59"/>
+      <c r="B22" s="59" t="s">
+        <v>163</v>
+      </c>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+    </row>
+    <row r="23" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="63"/>
+      <c r="B23" s="63" t="s">
         <v>160</v>
       </c>
-      <c r="G20" s="60"/>
-      <c r="H20" s="60"/>
-    </row>
-    <row r="21" spans="1:8" s="65" customFormat="1">
-      <c r="A21" s="64"/>
-      <c r="B21" s="64" t="s">
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+    </row>
+    <row r="24" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="59"/>
+      <c r="B24" s="59" t="s">
         <v>161</v>
       </c>
-      <c r="G21" s="64"/>
-      <c r="H21" s="64"/>
-    </row>
-    <row r="22" spans="1:8" s="61" customFormat="1">
-      <c r="A22" s="60"/>
-      <c r="B22" s="60" t="s">
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+    </row>
+    <row r="25" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="59"/>
+      <c r="B25" s="59" t="s">
         <v>162</v>
       </c>
-      <c r="G22" s="60"/>
-      <c r="H22" s="60"/>
-    </row>
-    <row r="23" spans="1:8" s="61" customFormat="1">
-      <c r="A23" s="60"/>
-      <c r="B23" s="60" t="s">
-        <v>163</v>
-      </c>
-      <c r="G23" s="60"/>
-      <c r="H23" s="60"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3616,21 +3646,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="13"/>
+    <col min="1" max="1" width="10.83203125" style="13"/>
     <col min="2" max="2" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="13"/>
+    <col min="3" max="16384" width="10.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A1" s="12" t="s">
         <v>3</v>
       </c>
@@ -3659,116 +3689,116 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="29" customFormat="1" ht="15">
+    <row r="2" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="65" t="s">
         <v>119</v>
       </c>
       <c r="D2" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" s="29" customFormat="1" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="66" t="s">
+      <c r="C3" s="65" t="s">
         <v>119</v>
       </c>
       <c r="D3" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="66" t="s">
+      <c r="C4" s="65" t="s">
         <v>117</v>
       </c>
       <c r="D4" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="29" customFormat="1" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="66" t="s">
+      <c r="C5" s="65" t="s">
         <v>118</v>
       </c>
       <c r="D5" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="66" t="s">
+      <c r="C6" s="65" t="s">
         <v>120</v>
       </c>
       <c r="D6" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="65" t="s">
         <v>120</v>
       </c>
       <c r="D7" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="65" t="s">
         <v>118</v>
       </c>
       <c r="D8" s="23" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" ht="15">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="65" t="s">
         <v>117</v>
       </c>
       <c r="D9" s="23" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
   </sheetData>
@@ -3778,22 +3808,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="29"/>
-    <col min="2" max="2" width="28.15234375" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="11.15234375" style="29"/>
+    <col min="1" max="1" width="11.1640625" style="29"/>
+    <col min="2" max="2" width="28.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
+    <col min="4" max="16384" width="11.1640625" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1">
+    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="27" t="s">
         <v>68</v>
       </c>
@@ -3804,7 +3834,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="29" t="s">
         <v>85</v>
       </c>
@@ -3815,7 +3845,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
         <v>87</v>
       </c>
@@ -3826,7 +3856,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="30">
+    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
         <v>88</v>
       </c>
@@ -3837,7 +3867,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="30">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>93</v>
       </c>
@@ -3848,7 +3878,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="105">
+    <row r="6" spans="1:3" ht="128" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
         <v>94</v>
       </c>
@@ -3859,7 +3889,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
         <v>95</v>
       </c>
@@ -3870,7 +3900,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="30">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
         <v>99</v>
       </c>
@@ -3881,7 +3911,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
         <v>100</v>
       </c>
@@ -3892,34 +3922,34 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15">
+    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C10" s="30"/>
     </row>
-    <row r="11" spans="1:3" ht="15">
+    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C11" s="30"/>
     </row>
-    <row r="12" spans="1:3" ht="15">
+    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C12" s="30"/>
     </row>
-    <row r="13" spans="1:3" ht="15">
+    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C13" s="30"/>
     </row>
-    <row r="14" spans="1:3" ht="15">
+    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C14" s="30"/>
     </row>
-    <row r="15" spans="1:3" ht="15">
+    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C15" s="30"/>
     </row>
-    <row r="16" spans="1:3" ht="15">
+    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C16" s="30"/>
     </row>
-    <row r="17" spans="3:3" ht="15">
+    <row r="17" spans="3:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C17" s="30"/>
     </row>
-    <row r="18" spans="3:3" ht="15">
+    <row r="18" spans="3:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C18" s="30"/>
     </row>
-    <row r="19" spans="3:3" ht="15">
+    <row r="19" spans="3:3" ht="16" x14ac:dyDescent="0.15">
       <c r="C19" s="30"/>
     </row>
   </sheetData>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -2558,7 +2558,7 @@
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E2" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3287,7 +3287,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="150" workbookViewId="0">
+    <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
@@ -3649,8 +3649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I9"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3702,6 +3702,12 @@
       <c r="D2" s="23" t="s">
         <v>156</v>
       </c>
+      <c r="E2" s="13">
+        <v>75</v>
+      </c>
+      <c r="F2" s="13">
+        <v>60</v>
+      </c>
     </row>
     <row r="3" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="29" t="s">
@@ -3716,6 +3722,12 @@
       <c r="D3" s="23" t="s">
         <v>156</v>
       </c>
+      <c r="E3" s="32">
+        <v>75</v>
+      </c>
+      <c r="F3" s="32">
+        <v>60</v>
+      </c>
     </row>
     <row r="4" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="29" t="s">
@@ -3730,6 +3742,12 @@
       <c r="D4" s="23" t="s">
         <v>156</v>
       </c>
+      <c r="E4" s="32">
+        <v>75</v>
+      </c>
+      <c r="F4" s="32">
+        <v>60</v>
+      </c>
     </row>
     <row r="5" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
@@ -3744,6 +3762,12 @@
       <c r="D5" s="23" t="s">
         <v>156</v>
       </c>
+      <c r="E5" s="13">
+        <v>75</v>
+      </c>
+      <c r="F5" s="13">
+        <v>60</v>
+      </c>
     </row>
     <row r="6" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A6" s="29" t="s">
@@ -3758,6 +3782,12 @@
       <c r="D6" s="23" t="s">
         <v>156</v>
       </c>
+      <c r="E6" s="13">
+        <v>75</v>
+      </c>
+      <c r="F6" s="13">
+        <v>60</v>
+      </c>
     </row>
     <row r="7" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="29" t="s">
@@ -3772,6 +3802,12 @@
       <c r="D7" s="23" t="s">
         <v>156</v>
       </c>
+      <c r="E7" s="13">
+        <v>75</v>
+      </c>
+      <c r="F7" s="13">
+        <v>60</v>
+      </c>
     </row>
     <row r="8" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A8" s="29" t="s">
@@ -3786,6 +3822,12 @@
       <c r="D8" s="23" t="s">
         <v>156</v>
       </c>
+      <c r="E8" s="13">
+        <v>75</v>
+      </c>
+      <c r="F8" s="13">
+        <v>60</v>
+      </c>
     </row>
     <row r="9" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="29" t="s">
@@ -3799,6 +3841,12 @@
       </c>
       <c r="D9" s="23" t="s">
         <v>156</v>
+      </c>
+      <c r="E9" s="13">
+        <v>75</v>
+      </c>
+      <c r="F9" s="13">
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celestesakhile/Desktop/555/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Documents\GitHub\555\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,20 +21,17 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -551,17 +548,23 @@
   </si>
   <si>
     <t>Create individual test output files for ease of integration</t>
+  </si>
+  <si>
+    <t>US41</t>
+  </si>
+  <si>
+    <t>Include partial dates</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="23" x14ac:knownFonts="1">
+  <fonts count="14">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -622,22 +625,6 @@
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -646,53 +633,18 @@
     <font>
       <b/>
       <sz val="10"/>
-      <name val="Verdana"/>
+      <name val="Abadi Extra Light"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Verdana"/>
+      <name val="Abadi Extra Light"/>
       <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Verdana"/>
+      <sz val="12"/>
+      <name val="Abadi Extra Light"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Verdana"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Sylfaen"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="3">
@@ -785,47 +737,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -837,102 +758,75 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="17" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1015,7 +909,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1041,22 +935,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065.0</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078.0</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092.0</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106.0</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120.0</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,25 +962,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC8B-423E-BCE0-97BCA44D3CBF}"/>
             </c:ext>
@@ -1112,7 +1006,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1145,14 +1039,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1181,16 +1075,16 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41535.0</c:v>
+                  <c:v>41535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41549.0</c:v>
+                  <c:v>41549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41563.0</c:v>
+                  <c:v>41563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41577.0</c:v>
+                  <c:v>41577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1202,22 +1096,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DC9-401C-B8F7-DDA8A66F6D29}"/>
             </c:ext>
@@ -1276,7 +1170,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1302,7 +1196,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1340,7 +1234,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1415,7 +1309,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1480,7 +1374,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1549,7 +1443,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1619,7 +1513,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1688,7 +1582,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1758,7 +1652,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2098,128 +1992,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="23" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="23" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32" style="23" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="23" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="23"/>
+    <col min="1" max="1" width="7.84375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.84375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32" style="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.4609375" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11.15234375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="21" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="20" t="s">
+    <row r="1" spans="1:8" s="10" customFormat="1">
+      <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="20" t="s">
+      <c r="D1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E1" s="20" t="s">
+      <c r="E1" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="22" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="C3" s="23" t="s">
+      <c r="C3" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="D3" s="23" t="s">
+      <c r="D3" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="E3" s="23" t="s">
+      <c r="E3" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A4" s="22" t="s">
+    <row r="4" spans="1:8">
+      <c r="A4" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C4" s="23" t="s">
+      <c r="C4" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="D4" s="23" t="s">
+      <c r="D4" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="E4" s="23" t="s">
+      <c r="E4" s="12" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C5" s="23" t="s">
+      <c r="C5" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="D5" s="23" t="s">
+      <c r="D5" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="23" t="s">
+      <c r="E5" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="22" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="12" t="s">
         <v>132</v>
       </c>
-      <c r="E6" s="23" t="s">
+      <c r="E6" s="12" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="D9" s="21" t="s">
+    <row r="9" spans="1:8" ht="16.5">
+      <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="23">
+      <c r="E9" s="12">
         <v>555</v>
       </c>
-      <c r="G9" s="24"/>
-    </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="G10" s="25"/>
-      <c r="H10" s="26"/>
-    </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="G11" s="25"/>
-      <c r="H11" s="26"/>
-    </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
+      <c r="G9" s="13"/>
+    </row>
+    <row r="10" spans="1:8" ht="16.5">
+      <c r="G10" s="14"/>
+      <c r="H10" s="15"/>
+    </row>
+    <row r="11" spans="1:8" ht="16.5">
+      <c r="G11" s="14"/>
+      <c r="H11" s="15"/>
+    </row>
+    <row r="12" spans="1:8" ht="16.5">
+      <c r="G12" s="14"/>
+      <c r="H12" s="15"/>
     </row>
   </sheetData>
   <sortState ref="A3:D5">
@@ -2227,10 +2121,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2238,54 +2132,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="4"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="6" customWidth="1"/>
+    <col min="1" max="1" width="11.15234375" style="3"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:7">
+      <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:7">
+      <c r="A3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:7">
+      <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+    <row r="6" spans="1:7">
+      <c r="A6" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A8" s="4" t="s">
+    <row r="8" spans="1:7">
+      <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -2304,128 +2198,128 @@
       <c r="F14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="5" t="s">
+      <c r="G14" s="4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
         <v>107</v>
       </c>
-      <c r="B15" s="7">
+      <c r="B15" s="6">
         <v>41065</v>
       </c>
-      <c r="C15" s="8">
+      <c r="C15" s="7">
         <v>24</v>
       </c>
-      <c r="E15" s="8">
+      <c r="E15" s="7">
         <v>0</v>
       </c>
-      <c r="F15" s="8"/>
-      <c r="G15" s="6"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+      <c r="F15" s="7"/>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
         <v>108</v>
       </c>
-      <c r="B16" s="7">
+      <c r="B16" s="6">
         <v>41078</v>
       </c>
-      <c r="C16" s="8">
+      <c r="C16" s="7">
         <v>18</v>
       </c>
       <c r="D16">
         <f>C15-C16</f>
         <v>6</v>
       </c>
-      <c r="E16" s="8">
+      <c r="E16" s="7">
         <v>250</v>
       </c>
-      <c r="F16" s="8">
+      <c r="F16" s="7">
         <v>120</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16" s="5">
         <f>(E16-E15)/F16*60</f>
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:7">
+      <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
-      <c r="B17" s="7">
+      <c r="B17" s="6">
         <v>41092</v>
       </c>
-      <c r="C17" s="8">
+      <c r="C17" s="7">
         <v>12</v>
       </c>
       <c r="D17">
         <f t="shared" ref="D17:D19" si="0">C16-C17</f>
         <v>6</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="7">
         <v>480</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="8">
         <v>135</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17" s="5">
         <f t="shared" ref="G17:G19" si="1">(E17-E16)/F17*60</f>
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A18" s="4" t="s">
+    <row r="18" spans="1:7">
+      <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="B18" s="7">
+      <c r="B18" s="6">
         <v>41106</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <v>6</v>
       </c>
       <c r="D18">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <v>740</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="8">
         <v>160</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18" s="5">
         <f t="shared" si="1"/>
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
-      <c r="A19" s="4" t="s">
+    <row r="19" spans="1:7">
+      <c r="A19" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="B19" s="7">
+      <c r="B19" s="6">
         <v>41120</v>
       </c>
-      <c r="C19" s="8">
+      <c r="C19" s="7">
         <v>0</v>
       </c>
       <c r="D19">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="7">
         <v>1100</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="8">
         <v>145</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19" s="5">
         <f t="shared" si="1"/>
         <v>148.9655172413793</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <drawing r:id="rId1"/>
@@ -2433,114 +2327,114 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="48"/>
-    <col min="2" max="2" width="16.6640625" style="49" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="49" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="49" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="49" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="50" customWidth="1"/>
-    <col min="7" max="16384" width="11.1640625" style="49"/>
+    <col min="1" max="1" width="11.15234375" style="32"/>
+    <col min="2" max="2" width="16.69140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="42" customWidth="1"/>
+    <col min="7" max="16384" width="11.15234375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="46" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+    <row r="1" spans="1:6" s="36" customFormat="1">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E1" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="41" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A2" s="48">
+    <row r="2" spans="1:6">
+      <c r="A2" s="32">
         <v>41535</v>
       </c>
-      <c r="B2" s="49">
+      <c r="B2" s="16">
         <v>32</v>
       </c>
-      <c r="D2" s="49">
+      <c r="D2" s="16">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A3" s="48">
+    <row r="3" spans="1:6">
+      <c r="A3" s="32">
         <v>41549</v>
       </c>
-      <c r="B3" s="49">
+      <c r="B3" s="16">
         <v>24</v>
       </c>
-      <c r="C3" s="49">
+      <c r="C3" s="16">
         <v>8</v>
       </c>
-      <c r="D3" s="49">
+      <c r="D3" s="16">
         <v>134</v>
       </c>
-      <c r="E3" s="51">
+      <c r="E3" s="16">
         <v>850</v>
       </c>
-      <c r="F3" s="50">
+      <c r="F3" s="42">
         <f>(D3-D2)/E3*60</f>
         <v>9.4588235294117649</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A4" s="48">
+    <row r="4" spans="1:6">
+      <c r="A4" s="32">
         <v>41563</v>
       </c>
-      <c r="B4" s="49">
+      <c r="B4" s="16">
         <v>16</v>
       </c>
-      <c r="C4" s="49">
+      <c r="C4" s="16">
         <v>8</v>
       </c>
-      <c r="D4" s="49">
+      <c r="D4" s="16">
         <v>405</v>
       </c>
-      <c r="E4" s="51">
+      <c r="E4" s="16">
         <v>670</v>
       </c>
-      <c r="F4" s="50">
+      <c r="F4" s="42">
         <f>(D4-D3)/E4*60</f>
         <v>24.268656716417912</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A5" s="48">
+    <row r="5" spans="1:6">
+      <c r="A5" s="32">
         <v>41577</v>
       </c>
-      <c r="B5" s="23">
+      <c r="B5" s="16">
         <v>8</v>
       </c>
-      <c r="C5" s="49">
+      <c r="C5" s="16">
         <v>8</v>
       </c>
-      <c r="D5" s="23">
+      <c r="D5" s="16">
         <v>570</v>
       </c>
-      <c r="E5" s="51">
+      <c r="E5" s="16">
         <v>390</v>
       </c>
-      <c r="F5" s="50">
+      <c r="F5" s="42">
         <f>(D5-D4)/E5*60</f>
         <v>25.384615384615383</v>
       </c>
@@ -2554,358 +2448,358 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="3"/>
+    <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.15234375" style="30" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.69140625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.69140625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.15234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.15234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15234375" style="32"/>
+    <col min="10" max="16384" width="11.15234375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="28" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="13" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="19">
         <v>75</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="19">
         <v>60</v>
       </c>
-      <c r="G2" s="13">
+      <c r="G2" s="19">
         <v>13</v>
       </c>
-      <c r="H2" s="13">
+      <c r="H2" s="19">
         <v>90</v>
       </c>
-      <c r="I2" s="16">
+      <c r="I2" s="29">
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="19">
         <v>75</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="19">
         <v>60</v>
       </c>
-      <c r="G3" s="13">
+      <c r="G3" s="19">
         <v>20</v>
       </c>
-      <c r="H3" s="32">
+      <c r="H3" s="19">
         <v>30</v>
       </c>
-      <c r="I3" s="16">
+      <c r="I3" s="29">
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="13" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="23" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C4" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="19">
         <v>75</v>
       </c>
-      <c r="F4" s="32">
+      <c r="F4" s="19">
         <v>60</v>
       </c>
-      <c r="G4" s="13">
+      <c r="G4" s="19">
         <v>21</v>
       </c>
-      <c r="H4" s="32">
+      <c r="H4" s="19">
         <v>500</v>
       </c>
-      <c r="I4" s="16">
+      <c r="I4" s="29">
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="13" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="13">
+      <c r="E5" s="19">
         <v>75</v>
       </c>
-      <c r="F5" s="13">
+      <c r="F5" s="19">
         <v>60</v>
       </c>
-      <c r="G5" s="13">
+      <c r="G5" s="19">
         <v>18</v>
       </c>
-      <c r="H5" s="13">
+      <c r="H5" s="19">
         <v>30</v>
       </c>
-      <c r="I5" s="16">
+      <c r="I5" s="29">
         <v>41541</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="13" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="32" t="s">
+      <c r="D6" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="13">
+      <c r="E6" s="19">
         <v>75</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="19">
         <v>60</v>
       </c>
-      <c r="G6" s="13">
+      <c r="G6" s="19">
         <v>21</v>
       </c>
-      <c r="H6" s="13">
+      <c r="H6" s="19">
         <v>35</v>
       </c>
-      <c r="I6" s="16">
+      <c r="I6" s="29">
         <v>41541</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="13" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="32" t="s">
+      <c r="D7" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="19">
         <v>75</v>
       </c>
-      <c r="F7" s="13">
+      <c r="F7" s="19">
         <v>60</v>
       </c>
-      <c r="G7" s="13">
+      <c r="G7" s="19">
         <v>20</v>
       </c>
-      <c r="H7" s="13">
+      <c r="H7" s="19">
         <v>60</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="29">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="13" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="13" t="s">
+      <c r="C8" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="32" t="s">
+      <c r="D8" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="19">
         <v>75</v>
       </c>
-      <c r="F8" s="13">
+      <c r="F8" s="19">
         <v>60</v>
       </c>
-      <c r="G8" s="13">
+      <c r="G8" s="19">
         <v>8</v>
       </c>
-      <c r="H8" s="13">
+      <c r="H8" s="19">
         <v>30</v>
       </c>
-      <c r="I8" s="16">
+      <c r="I8" s="29">
         <v>41541</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A9" s="13" t="s">
+    <row r="9" spans="1:9">
+      <c r="A9" s="19" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="23" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="13" t="s">
+      <c r="C9" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="19">
         <v>75</v>
       </c>
-      <c r="F9" s="13">
+      <c r="F9" s="19">
         <v>60</v>
       </c>
-      <c r="G9" s="13">
+      <c r="G9" s="19">
         <v>13</v>
       </c>
-      <c r="H9" s="13">
+      <c r="H9" s="19">
         <v>75</v>
       </c>
-      <c r="I9" s="16">
+      <c r="I9" s="29">
         <v>41542</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E10" s="19">
+    <row r="10" spans="1:9">
+      <c r="E10" s="31">
         <f>SUM(E2:E9)</f>
         <v>600</v>
       </c>
-      <c r="F10" s="19">
+      <c r="F10" s="31">
         <f>SUM(F2:F9)</f>
         <v>480</v>
       </c>
-      <c r="G10" s="19">
+      <c r="G10" s="31">
         <f>SUM(G2:G9)</f>
         <v>134</v>
       </c>
-      <c r="H10" s="19">
+      <c r="H10" s="31">
         <f>SUM(H2:H9)</f>
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="17" t="s">
+    <row r="14" spans="1:9">
+      <c r="B14" s="33" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="17" t="s">
+    <row r="15" spans="1:9">
+      <c r="B15" s="33" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="33" t="s">
+    <row r="16" spans="1:9">
+      <c r="B16" s="34" t="s">
         <v>142</v>
       </c>
-      <c r="I16" s="4"/>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="33" t="s">
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="34" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2">
       <c r="B18" s="34" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="33" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="34" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2">
       <c r="B20" s="35" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="33" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="34" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="33" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="34" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="18" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="30" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="26" x14ac:dyDescent="0.15">
-      <c r="B24" s="18" t="s">
+    <row r="24" spans="2:2" ht="26">
+      <c r="B24" s="30" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2917,361 +2811,361 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:H10"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="38"/>
-    <col min="2" max="2" width="25.5" style="42" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.1640625" style="38"/>
+    <col min="1" max="1" width="11.15234375" style="16"/>
+    <col min="2" max="2" width="25.4609375" style="25" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.15234375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="36" t="s">
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="G1" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="H1" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="I1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A2" s="39" t="s">
+    <row r="2" spans="1:9">
+      <c r="A2" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="39" t="s">
+      <c r="C2" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="19">
         <v>60</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="19">
         <v>60</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="19">
         <v>59</v>
       </c>
-      <c r="H2" s="39">
+      <c r="H2" s="19">
         <v>60</v>
       </c>
-      <c r="I2" s="41">
+      <c r="I2" s="26">
         <v>41563</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A3" s="39" t="s">
+    <row r="3" spans="1:9">
+      <c r="A3" s="19" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="40" t="s">
+      <c r="B3" s="23" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="39" t="s">
+      <c r="C3" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="39" t="s">
+      <c r="D3" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="39">
+      <c r="E3" s="19">
         <v>50</v>
       </c>
-      <c r="F3" s="39">
+      <c r="F3" s="19">
         <v>60</v>
       </c>
-      <c r="G3" s="39">
+      <c r="G3" s="19">
         <v>10</v>
       </c>
-      <c r="H3" s="39">
+      <c r="H3" s="19">
         <v>60</v>
       </c>
-      <c r="I3" s="41">
+      <c r="I3" s="26">
         <v>41563</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A4" s="39" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="40" t="s">
+      <c r="B4" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="39" t="s">
+      <c r="C4" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="39" t="s">
+      <c r="D4" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="39">
+      <c r="E4" s="19">
         <v>90</v>
       </c>
-      <c r="F4" s="39">
+      <c r="F4" s="19">
         <v>60</v>
       </c>
-      <c r="G4" s="39">
+      <c r="G4" s="19">
         <v>34</v>
       </c>
-      <c r="H4" s="39">
+      <c r="H4" s="19">
         <v>240</v>
       </c>
-      <c r="I4" s="41">
+      <c r="I4" s="26">
         <v>41563</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A5" s="39" t="s">
+    <row r="5" spans="1:9">
+      <c r="A5" s="19" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="39" t="s">
+      <c r="C5" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="39" t="s">
+      <c r="D5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="39">
+      <c r="E5" s="19">
         <v>88</v>
       </c>
-      <c r="F5" s="39">
+      <c r="F5" s="19">
         <v>90</v>
       </c>
-      <c r="G5" s="39">
+      <c r="G5" s="19">
         <v>30</v>
       </c>
-      <c r="H5" s="39">
+      <c r="H5" s="19">
         <v>60</v>
       </c>
-      <c r="I5" s="41">
+      <c r="I5" s="26">
         <v>41563</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A6" s="39" t="s">
+    <row r="6" spans="1:9">
+      <c r="A6" s="19" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="40" t="s">
+      <c r="B6" s="23" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="39" t="s">
+      <c r="C6" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="39" t="s">
+      <c r="D6" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="19">
         <v>50</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="19">
         <v>120</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="19">
         <v>40</v>
       </c>
-      <c r="H6" s="39">
+      <c r="H6" s="19">
         <v>60</v>
       </c>
-      <c r="I6" s="41">
+      <c r="I6" s="26">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A7" s="39" t="s">
+    <row r="7" spans="1:9">
+      <c r="A7" s="19" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="40" t="s">
+      <c r="B7" s="23" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="39" t="s">
+      <c r="C7" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="39" t="s">
+      <c r="D7" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="39">
+      <c r="E7" s="19">
         <v>50</v>
       </c>
-      <c r="F7" s="39">
+      <c r="F7" s="19">
         <v>60</v>
       </c>
-      <c r="G7" s="39">
+      <c r="G7" s="19">
         <v>50</v>
       </c>
-      <c r="H7" s="39">
+      <c r="H7" s="19">
         <v>80</v>
       </c>
-      <c r="I7" s="41">
+      <c r="I7" s="26">
         <v>41563</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A8" s="39" t="s">
+    <row r="8" spans="1:9">
+      <c r="A8" s="19" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="40" t="s">
+      <c r="B8" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="39" t="s">
+      <c r="D8" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="39">
+      <c r="E8" s="19">
         <v>50</v>
       </c>
-      <c r="F8" s="39">
+      <c r="F8" s="19">
         <v>90</v>
       </c>
-      <c r="G8" s="39">
+      <c r="G8" s="19">
         <v>13</v>
       </c>
-      <c r="H8" s="39">
+      <c r="H8" s="19">
         <v>60</v>
       </c>
-      <c r="I8" s="41">
+      <c r="I8" s="26">
         <v>41563</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="39" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="39" t="s">
+    <row r="9" spans="1:9" s="19" customFormat="1">
+      <c r="A9" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="40" t="s">
+      <c r="B9" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="39" t="s">
+      <c r="C9" s="19" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="39" t="s">
+      <c r="D9" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="39">
+      <c r="E9" s="19">
         <v>50</v>
       </c>
-      <c r="F9" s="39">
+      <c r="F9" s="19">
         <v>60</v>
       </c>
-      <c r="G9" s="39">
+      <c r="G9" s="19">
         <v>35</v>
       </c>
-      <c r="H9" s="39">
+      <c r="H9" s="19">
         <v>50</v>
       </c>
-      <c r="I9" s="41">
+      <c r="I9" s="26">
         <v>41563</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="E10" s="38">
+    <row r="10" spans="1:9">
+      <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>488</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="16">
         <f>SUM(F2:F9)</f>
         <v>600</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="16">
         <f>SUM(G1:G9)</f>
         <v>271</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="16">
         <f>SUM(H2:H9)</f>
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B13" s="43" t="s">
+    <row r="13" spans="1:9">
+      <c r="B13" s="27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B14" s="43" t="s">
+    <row r="14" spans="1:9">
+      <c r="B14" s="27" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B15" s="42" t="s">
+    <row r="15" spans="1:9">
+      <c r="B15" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="B16" s="42" t="s">
+    <row r="16" spans="1:9">
+      <c r="B16" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B17" s="42" t="s">
+    <row r="17" spans="2:2">
+      <c r="B17" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B18" s="42" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" s="25" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B19" s="42" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B20" s="44" t="s">
+    <row r="20" spans="2:2">
+      <c r="B20" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B21" s="43" t="s">
+    <row r="21" spans="2:2">
+      <c r="B21" s="27" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B22" s="42" t="s">
+    <row r="22" spans="2:2">
+      <c r="B22" s="25" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B23" s="42" t="s">
+    <row r="23" spans="2:2">
+      <c r="B23" s="25" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B24" s="42" t="s">
+    <row r="24" spans="2:2">
+      <c r="B24" s="25" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="1048576" spans="6:6" x14ac:dyDescent="0.15">
-      <c r="F1048576" s="38">
+    <row r="1048576" spans="6:6">
+      <c r="F1048576" s="16">
         <f>SUM(F2:F1048575)</f>
         <v>1200</v>
       </c>
@@ -3284,359 +3178,336 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="56"/>
-    <col min="2" max="2" width="26.5" style="56" bestFit="1" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="53"/>
-    <col min="7" max="8" width="10.83203125" style="56"/>
-    <col min="9" max="16384" width="10.83203125" style="53"/>
+    <col min="1" max="1" width="10.84375" style="19"/>
+    <col min="2" max="2" width="26.4609375" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="58" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="52" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="52" t="s">
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="55" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="21" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A2" s="56" t="s">
+    <row r="2" spans="1:8">
+      <c r="A2" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="56" t="s">
+      <c r="B2" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="19" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="53" t="s">
+      <c r="D2" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="53">
+      <c r="E2" s="19">
         <v>30</v>
       </c>
-      <c r="F2" s="53">
+      <c r="F2" s="19">
         <v>90</v>
       </c>
-      <c r="G2" s="56">
+      <c r="G2" s="19">
         <v>16</v>
       </c>
-      <c r="H2" s="57">
+      <c r="H2" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A3" s="56" t="s">
+    <row r="3" spans="1:8">
+      <c r="A3" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="56" t="s">
+      <c r="B3" s="19" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="53" t="s">
+      <c r="D3" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="53">
+      <c r="E3" s="19">
         <v>90</v>
       </c>
-      <c r="F3" s="53">
+      <c r="F3" s="19">
         <v>30</v>
       </c>
-      <c r="G3" s="56">
+      <c r="G3" s="19">
         <v>8</v>
       </c>
-      <c r="H3" s="57">
+      <c r="H3" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="56" t="s">
+    <row r="4" spans="1:8" s="16" customFormat="1">
+      <c r="A4" s="19" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="56" t="s">
+      <c r="B4" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="56" t="s">
+      <c r="C4" s="19" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="53" t="s">
+      <c r="D4" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="53">
+      <c r="E4" s="19">
         <v>44</v>
       </c>
-      <c r="F4" s="53">
+      <c r="F4" s="19">
         <v>30</v>
       </c>
-      <c r="G4" s="56">
+      <c r="G4" s="19">
         <v>19</v>
       </c>
-      <c r="H4" s="57">
+      <c r="H4" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A5" s="56" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="56" t="s">
+      <c r="B5" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="C5" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="53" t="s">
+      <c r="D5" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="53">
+      <c r="E5" s="19">
         <v>30</v>
       </c>
-      <c r="F5" s="53">
+      <c r="F5" s="19">
         <v>60</v>
       </c>
-      <c r="G5" s="56">
+      <c r="G5" s="19">
         <v>19</v>
       </c>
-      <c r="H5" s="57">
+      <c r="H5" s="18">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="A6" s="56" t="s">
+    <row r="6" spans="1:8">
+      <c r="A6" s="19" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="56" t="s">
+      <c r="B6" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="56" t="s">
+      <c r="C6" s="19" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="53" t="s">
+      <c r="D6" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="53">
+      <c r="E6" s="19">
         <v>30</v>
       </c>
-      <c r="F6" s="53">
+      <c r="F6" s="19">
         <v>60</v>
       </c>
-      <c r="G6" s="56">
+      <c r="G6" s="19">
         <v>22</v>
       </c>
-      <c r="H6" s="57">
+      <c r="H6" s="18">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:8" s="16" customFormat="1">
+      <c r="A7" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="66" t="s">
+      <c r="C7" s="22" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="53" t="s">
+      <c r="D7" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="53">
+      <c r="E7" s="19">
         <v>30</v>
       </c>
-      <c r="F7" s="53">
+      <c r="F7" s="19">
         <v>60</v>
       </c>
-      <c r="G7" s="57">
+      <c r="G7" s="18">
         <v>33</v>
       </c>
-      <c r="H7" s="57">
+      <c r="H7" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="54" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:8" s="16" customFormat="1">
+      <c r="A8" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="66" t="s">
+      <c r="C8" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="53" t="s">
+      <c r="D8" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="53">
+      <c r="E8" s="19">
         <v>30</v>
       </c>
-      <c r="F8" s="53">
+      <c r="F8" s="19">
         <v>60</v>
       </c>
-      <c r="G8" s="57">
+      <c r="G8" s="18">
         <v>27</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="18">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:8" s="16" customFormat="1">
+      <c r="A9" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="57" t="s">
+      <c r="B9" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="66" t="s">
+      <c r="C9" s="22" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="53" t="s">
+      <c r="D9" s="19" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="53">
+      <c r="E9" s="19">
         <v>30</v>
       </c>
-      <c r="F9" s="53">
+      <c r="F9" s="19">
         <v>60</v>
       </c>
-      <c r="G9" s="57">
+      <c r="G9" s="18">
         <v>21</v>
       </c>
-      <c r="H9" s="56">
+      <c r="H9" s="19">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
-      <c r="E10" s="38">
+    <row r="10" spans="1:8">
+      <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>314</v>
       </c>
-      <c r="F10" s="38">
+      <c r="F10" s="16">
         <f>SUM(F2:F9)</f>
         <v>450</v>
       </c>
-      <c r="G10" s="38">
+      <c r="G10" s="16">
         <f>SUM(G1:G9)</f>
         <v>165</v>
       </c>
-      <c r="H10" s="38">
+      <c r="H10" s="16">
         <f>SUM(H2:H9)</f>
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="59"/>
-      <c r="B13" s="59" t="s">
+    <row r="13" spans="1:8" s="23" customFormat="1">
+      <c r="B13" s="23" t="s">
         <v>157</v>
       </c>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="63"/>
-      <c r="B14" s="63" t="s">
+    </row>
+    <row r="14" spans="1:8" s="24" customFormat="1">
+      <c r="B14" s="24" t="s">
         <v>158</v>
       </c>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-    </row>
-    <row r="15" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="62" t="s">
+    </row>
+    <row r="15" spans="1:8" s="16" customFormat="1">
+      <c r="B15" s="25" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="62" t="s">
+    <row r="16" spans="1:8" s="16" customFormat="1">
+      <c r="B16" s="25" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="62" t="s">
+    <row r="17" spans="2:2" s="16" customFormat="1">
+      <c r="B17" s="25" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B18" s="62" t="s">
+    <row r="18" spans="2:2" s="16" customFormat="1">
+      <c r="B18" s="25" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B19" s="62" t="s">
+    <row r="19" spans="2:2" s="16" customFormat="1">
+      <c r="B19" s="25" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="61" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="59" t="s">
+    <row r="20" spans="2:2" s="16" customFormat="1">
+      <c r="B20" s="23" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="59"/>
-      <c r="B21" s="59" t="s">
+    <row r="21" spans="2:2" s="23" customFormat="1">
+      <c r="B21" s="23" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-    </row>
-    <row r="22" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="59"/>
-      <c r="B22" s="59" t="s">
+    </row>
+    <row r="22" spans="2:2" s="23" customFormat="1">
+      <c r="B22" s="23" t="s">
         <v>163</v>
       </c>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-    </row>
-    <row r="23" spans="1:8" s="64" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="63"/>
-      <c r="B23" s="63" t="s">
+    </row>
+    <row r="23" spans="2:2" s="24" customFormat="1">
+      <c r="B23" s="24" t="s">
         <v>160</v>
       </c>
-      <c r="G23" s="63"/>
-      <c r="H23" s="63"/>
-    </row>
-    <row r="24" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="59"/>
-      <c r="B24" s="59" t="s">
+    </row>
+    <row r="24" spans="2:2" s="23" customFormat="1">
+      <c r="B24" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-    </row>
-    <row r="25" spans="1:8" s="60" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="59"/>
-      <c r="B25" s="59" t="s">
+    </row>
+    <row r="25" spans="2:2" s="23" customFormat="1">
+      <c r="B25" s="23" t="s">
         <v>162</v>
       </c>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -3646,362 +3517,263 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I9"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:F9"/>
+    <sheetView zoomScale="150" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="13"/>
-    <col min="2" max="2" width="26" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="13"/>
+    <col min="1" max="1" width="10.84375" style="19"/>
+    <col min="2" max="2" width="26" style="19" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
-      <c r="A1" s="12" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="21" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="21" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="21" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="21" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="H1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="21" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="29" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="D2" s="23" t="s">
+    <row r="2" spans="1:9" s="16" customFormat="1" ht="15.5">
+      <c r="A2" s="18" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="13">
+      <c r="E2" s="19">
         <v>75</v>
       </c>
-      <c r="F2" s="13">
+      <c r="F2" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="65" t="s">
-        <v>119</v>
-      </c>
-      <c r="D3" s="23" t="s">
+    <row r="3" spans="1:9" s="16" customFormat="1" ht="15.5">
+      <c r="A3" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="32">
+      <c r="E3" s="19">
         <v>75</v>
       </c>
-      <c r="F3" s="32">
+      <c r="F3" s="19">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D4" s="23" t="s">
+    <row r="4" spans="1:9">
+      <c r="A4" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="B4" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>118</v>
+      </c>
+      <c r="D4" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="32">
+      <c r="E4" s="19">
         <v>75</v>
       </c>
-      <c r="F4" s="32">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="29" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="13">
-        <v>75</v>
-      </c>
-      <c r="F5" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="29" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="13">
-        <v>75</v>
-      </c>
-      <c r="F6" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="29" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>120</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="13">
-        <v>75</v>
-      </c>
-      <c r="F7" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="65" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="13">
-        <v>75</v>
-      </c>
-      <c r="F8" s="13">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="29" customFormat="1" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="65" t="s">
-        <v>117</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="13">
-        <v>75</v>
-      </c>
-      <c r="F9" s="13">
+      <c r="F4" s="19">
         <v>60</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="29"/>
-    <col min="2" max="2" width="28.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="31" customWidth="1"/>
-    <col min="4" max="16384" width="11.1640625" style="29"/>
+    <col min="1" max="1" width="11.15234375" style="16"/>
+    <col min="2" max="2" width="28.15234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.4609375" style="39" customWidth="1"/>
+    <col min="4" max="16384" width="11.15234375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="27" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:3" s="36" customFormat="1">
+      <c r="A1" s="36" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B1" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="37" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A2" s="29" t="s">
+    <row r="2" spans="1:3" ht="15.5">
+      <c r="A2" s="16" t="s">
         <v>85</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="38" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A3" s="29" t="s">
+    <row r="3" spans="1:3" ht="15.5">
+      <c r="A3" s="16" t="s">
         <v>87</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="38" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A4" s="29" t="s">
+    <row r="4" spans="1:3" ht="15.5">
+      <c r="A4" s="16" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="B4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="30" t="s">
+      <c r="C4" s="38" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A5" s="29" t="s">
+    <row r="5" spans="1:3" ht="31">
+      <c r="A5" s="16" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="29" t="s">
+      <c r="B5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="38" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="128" x14ac:dyDescent="0.15">
-      <c r="A6" s="29" t="s">
+    <row r="6" spans="1:3" ht="93">
+      <c r="A6" s="16" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="30" t="s">
+      <c r="C6" s="38" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A7" s="29" t="s">
+    <row r="7" spans="1:3" ht="15.5">
+      <c r="A7" s="16" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="29" t="s">
+      <c r="B7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="30" t="s">
+      <c r="C7" s="38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.15">
-      <c r="A8" s="29" t="s">
+    <row r="8" spans="1:3" ht="31">
+      <c r="A8" s="16" t="s">
         <v>99</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="A9" s="29" t="s">
+    <row r="9" spans="1:3" ht="15.5">
+      <c r="A9" s="16" t="s">
         <v>100</v>
       </c>
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="38" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C10" s="30"/>
-    </row>
-    <row r="11" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C11" s="30"/>
-    </row>
-    <row r="12" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C12" s="30"/>
-    </row>
-    <row r="13" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C13" s="30"/>
-    </row>
-    <row r="14" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C14" s="30"/>
-    </row>
-    <row r="15" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C15" s="30"/>
-    </row>
-    <row r="16" spans="1:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C16" s="30"/>
-    </row>
-    <row r="17" spans="3:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C17" s="30"/>
-    </row>
-    <row r="18" spans="3:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C18" s="30"/>
-    </row>
-    <row r="19" spans="3:3" ht="16" x14ac:dyDescent="0.15">
-      <c r="C19" s="30"/>
+    <row r="10" spans="1:3" ht="15.5">
+      <c r="C10" s="38"/>
+    </row>
+    <row r="11" spans="1:3" ht="15.5">
+      <c r="C11" s="38"/>
+    </row>
+    <row r="12" spans="1:3" ht="15.5">
+      <c r="C12" s="38"/>
+    </row>
+    <row r="13" spans="1:3" ht="15.5">
+      <c r="C13" s="38"/>
+    </row>
+    <row r="14" spans="1:3" ht="15.5">
+      <c r="C14" s="38"/>
+    </row>
+    <row r="15" spans="1:3" ht="15.5">
+      <c r="C15" s="38"/>
+    </row>
+    <row r="16" spans="1:3" ht="15.5">
+      <c r="C16" s="38"/>
+    </row>
+    <row r="17" spans="3:3" ht="15.5">
+      <c r="C17" s="38"/>
+    </row>
+    <row r="18" spans="3:3" ht="15.5">
+      <c r="C18" s="38"/>
+    </row>
+    <row r="19" spans="3:3" ht="15.5">
+      <c r="C19" s="38"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="13" type="noConversion"/>
+  <phoneticPr fontId="10" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
 </worksheet>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Documents\GitHub\555\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celestesakhile/Desktop/555/Documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="2" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,17 +21,20 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="194">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -554,17 +557,101 @@
   </si>
   <si>
     <t>Include partial dates</t>
+  </si>
+  <si>
+    <t>US33</t>
+  </si>
+  <si>
+    <t>List orphans</t>
+  </si>
+  <si>
+    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
+  </si>
+  <si>
+    <t>US34</t>
+  </si>
+  <si>
+    <t>List large age differences</t>
+  </si>
+  <si>
+    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
+  </si>
+  <si>
+    <t>US35</t>
+  </si>
+  <si>
+    <t>List recent births</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
+  </si>
+  <si>
+    <t>US36</t>
+  </si>
+  <si>
+    <t>List recent deaths</t>
+  </si>
+  <si>
+    <t>List all people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>US37</t>
+  </si>
+  <si>
+    <t>List recent survivors</t>
+  </si>
+  <si>
+    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
+  </si>
+  <si>
+    <t>US38</t>
+  </si>
+  <si>
+    <t>List upcoming birthdays</t>
+  </si>
+  <si>
+    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US39</t>
+  </si>
+  <si>
+    <t>List upcoming anniversaries</t>
+  </si>
+  <si>
+    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
+  </si>
+  <si>
+    <t>US40</t>
+  </si>
+  <si>
+    <t>Include input line numbers</t>
+  </si>
+  <si>
+    <t>List line numbers from GEDCOM source file when reporting errors</t>
+  </si>
+  <si>
+    <t>Accept and use dates without days or without days and months</t>
+  </si>
+  <si>
+    <t>US42</t>
+  </si>
+  <si>
+    <t>Reject illegitimate dates</t>
+  </si>
+  <si>
+    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14">
+  <fonts count="15" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -645,6 +732,10 @@
       <sz val="12"/>
       <name val="Abadi Extra Light"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Cambria"/>
     </font>
   </fonts>
   <fills count="3">
@@ -759,9 +850,6 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -827,6 +915,9 @@
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="65">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -909,7 +1000,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -935,22 +1026,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yyyy</c:formatCode>
+                <c:formatCode>m/d/yy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065</c:v>
+                  <c:v>41065.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078</c:v>
+                  <c:v>41078.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092</c:v>
+                  <c:v>41092.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106</c:v>
+                  <c:v>41106.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120</c:v>
+                  <c:v>41120.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -962,25 +1053,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18</c:v>
+                  <c:v>18.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12</c:v>
+                  <c:v>12.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>6.0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC8B-423E-BCE0-97BCA44D3CBF}"/>
             </c:ext>
@@ -996,28 +1087,28 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95978464"/>
-        <c:axId val="16432592"/>
+        <c:axId val="330406320"/>
+        <c:axId val="330408368"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95978464"/>
+        <c:axId val="330406320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="16432592"/>
+        <c:crossAx val="330408368"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="16432592"/>
+        <c:axId val="330408368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1028,7 +1119,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95978464"/>
+        <c:crossAx val="330406320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1039,14 +1130,14 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="1"/>
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1075,16 +1166,16 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41535</c:v>
+                  <c:v>41535.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41549</c:v>
+                  <c:v>41549.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41563</c:v>
+                  <c:v>41563.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41577</c:v>
+                  <c:v>41577.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1096,22 +1187,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32</c:v>
+                  <c:v>32.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24</c:v>
+                  <c:v>24.0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>16.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>8.0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst>
+          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DC9-401C-B8F7-DDA8A66F6D29}"/>
             </c:ext>
@@ -1127,11 +1218,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="95346320"/>
-        <c:axId val="12597664"/>
+        <c:axId val="330423776"/>
+        <c:axId val="330426096"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="95346320"/>
+        <c:axId val="330423776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1141,14 +1232,14 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="12597664"/>
+        <c:crossAx val="330426096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="12597664"/>
+        <c:axId val="330426096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1159,7 +1250,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="95346320"/>
+        <c:crossAx val="330423776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1170,7 +1261,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1196,7 +1287,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1234,7 +1325,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1309,7 +1400,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1374,7 +1465,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1443,7 +1534,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1604,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1582,7 +1673,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1652,7 +1743,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1992,24 +2083,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="7.84375" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.84375" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.4609375" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.83203125" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.83203125" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.5" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.4609375" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="11.15234375" style="12"/>
+    <col min="5" max="5" width="20.5" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11.1640625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1">
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -2026,7 +2117,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
@@ -2043,7 +2134,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A4" s="11" t="s">
         <v>117</v>
       </c>
@@ -2060,7 +2151,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A5" s="11" t="s">
         <v>119</v>
       </c>
@@ -2077,7 +2168,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
       <c r="A6" s="11" t="s">
         <v>120</v>
       </c>
@@ -2094,7 +2185,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.5">
+    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
@@ -2103,15 +2194,15 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="16.5">
+    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="16.5">
+    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="16.5">
+    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
@@ -2121,10 +2212,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="E4" r:id="rId1"/>
+    <hyperlink ref="E5" r:id="rId2"/>
+    <hyperlink ref="E6" r:id="rId3"/>
+    <hyperlink ref="E3" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2132,54 +2223,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="3"/>
-    <col min="2" max="2" width="9.4609375" customWidth="1"/>
-    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.15234375" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1640625" style="3"/>
+    <col min="2" max="2" width="9.5" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1640625" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -2202,7 +2293,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -2218,7 +2309,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -2243,7 +2334,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
@@ -2268,7 +2359,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
@@ -2293,7 +2384,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A19" s="3" t="s">
         <v>111</v>
       </c>
@@ -2327,46 +2418,46 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="32"/>
-    <col min="2" max="2" width="16.69140625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.4609375" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.15234375" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.84375" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.4609375" style="42" customWidth="1"/>
-    <col min="7" max="16384" width="11.15234375" style="16"/>
+    <col min="1" max="1" width="11.1640625" style="31"/>
+    <col min="2" max="2" width="16.6640625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.5" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.1640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.83203125" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="11.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="36" customFormat="1">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="36" t="s">
+      <c r="C1" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="36" t="s">
+      <c r="D1" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="41" t="s">
+      <c r="F1" s="40" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="32">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A2" s="31">
         <v>41535</v>
       </c>
       <c r="B2" s="16">
@@ -2376,8 +2467,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="32">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A3" s="31">
         <v>41549</v>
       </c>
       <c r="B3" s="16">
@@ -2392,13 +2483,13 @@
       <c r="E3" s="16">
         <v>850</v>
       </c>
-      <c r="F3" s="42">
+      <c r="F3" s="41">
         <f>(D3-D2)/E3*60</f>
         <v>9.4588235294117649</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="32">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="31">
         <v>41563</v>
       </c>
       <c r="B4" s="16">
@@ -2413,13 +2504,13 @@
       <c r="E4" s="16">
         <v>670</v>
       </c>
-      <c r="F4" s="42">
+      <c r="F4" s="41">
         <f>(D4-D3)/E4*60</f>
         <v>24.268656716417912</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="32">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="31">
         <v>41577</v>
       </c>
       <c r="B5" s="16">
@@ -2434,7 +2525,7 @@
       <c r="E5" s="16">
         <v>390</v>
       </c>
-      <c r="F5" s="42">
+      <c r="F5" s="41">
         <f>(D5-D4)/E5*60</f>
         <v>25.384615384615383</v>
       </c>
@@ -2448,358 +2539,358 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.15234375" style="30" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.69140625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.69140625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.15234375" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.15234375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.4609375" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.15234375" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.15234375" style="32"/>
-    <col min="10" max="16384" width="11.15234375" style="16"/>
+    <col min="2" max="2" width="32.1640625" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6640625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="31"/>
+    <col min="10" max="16384" width="11.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="28" t="s">
+      <c r="I1" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>101</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>75</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>60</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>13</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>90</v>
       </c>
-      <c r="I2" s="29">
+      <c r="I2" s="28">
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>70</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>75</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>60</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>20</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>30</v>
       </c>
-      <c r="I3" s="29">
+      <c r="I3" s="28">
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>75</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>60</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>21</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>500</v>
       </c>
-      <c r="I4" s="29">
+      <c r="I4" s="28">
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>75</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>60</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>18</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>30</v>
       </c>
-      <c r="I5" s="29">
+      <c r="I5" s="28">
         <v>41541</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>75</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>60</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>21</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>35</v>
       </c>
-      <c r="I6" s="29">
+      <c r="I6" s="28">
         <v>41541</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
         <v>74</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>75</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>60</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>20</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>60</v>
       </c>
-      <c r="I7" s="29">
+      <c r="I7" s="28">
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>75</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>60</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>8</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>30</v>
       </c>
-      <c r="I8" s="29">
+      <c r="I8" s="28">
         <v>41541</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>102</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>75</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>60</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>13</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>75</v>
       </c>
-      <c r="I9" s="29">
+      <c r="I9" s="28">
         <v>41542</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="E10" s="31">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="E10" s="30">
         <f>SUM(E2:E9)</f>
         <v>600</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="30">
         <f>SUM(F2:F9)</f>
         <v>480</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="30">
         <f>SUM(G2:G9)</f>
         <v>134</v>
       </c>
-      <c r="H10" s="31">
+      <c r="H10" s="30">
         <f>SUM(H2:H9)</f>
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="33" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="33" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="34" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="34" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="34" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="34" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="35" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="34" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="34" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="30" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="26">
-      <c r="B24" s="30" t="s">
+    <row r="24" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+      <c r="B24" s="29" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2811,282 +2902,282 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="16"/>
-    <col min="2" max="2" width="25.4609375" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.15234375" style="16"/>
+    <col min="1" max="1" width="11.1640625" style="16"/>
+    <col min="2" max="2" width="25.5" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>60</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>60</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>59</v>
       </c>
-      <c r="H2" s="19">
+      <c r="H2" s="18">
         <v>60</v>
       </c>
-      <c r="I2" s="26">
+      <c r="I2" s="25">
         <v>41563</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="22" t="s">
         <v>46</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>50</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>60</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>10</v>
       </c>
-      <c r="H3" s="19">
+      <c r="H3" s="18">
         <v>60</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>41563</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>90</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>60</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>34</v>
       </c>
-      <c r="H4" s="19">
+      <c r="H4" s="18">
         <v>240</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>41563</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="22" t="s">
         <v>48</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>88</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>90</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>30</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="18">
         <v>60</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>41563</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="22" t="s">
         <v>115</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>50</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>120</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>40</v>
       </c>
-      <c r="H6" s="19">
+      <c r="H6" s="18">
         <v>60</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="19" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="22" t="s">
         <v>50</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>50</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>60</v>
       </c>
-      <c r="G7" s="19">
+      <c r="G7" s="18">
         <v>50</v>
       </c>
-      <c r="H7" s="19">
+      <c r="H7" s="18">
         <v>80</v>
       </c>
-      <c r="I7" s="26">
+      <c r="I7" s="25">
         <v>41563</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="19" t="s">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A8" s="18" t="s">
         <v>84</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="C8" s="19" t="s">
+      <c r="C8" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>50</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>90</v>
       </c>
-      <c r="G8" s="19">
+      <c r="G8" s="18">
         <v>13</v>
       </c>
-      <c r="H8" s="19">
+      <c r="H8" s="18">
         <v>60</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="25">
         <v>41563</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="19" customFormat="1">
-      <c r="A9" s="19" t="s">
+    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="18" t="s">
         <v>90</v>
       </c>
-      <c r="B9" s="23" t="s">
+      <c r="B9" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="19" t="s">
+      <c r="C9" s="18" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>50</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>60</v>
       </c>
-      <c r="G9" s="19">
+      <c r="G9" s="18">
         <v>35</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>50</v>
       </c>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>41563</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>488</v>
@@ -3104,67 +3195,67 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
-      <c r="B13" s="27" t="s">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
-      <c r="B14" s="27" t="s">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B14" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="25" t="s">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B17" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B18" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B19" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="25" t="s">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B20" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="27" t="s">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B21" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
-      <c r="B22" s="25" t="s">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
-      <c r="B23" s="25" t="s">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
-      <c r="B24" s="25" t="s">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="1048576" spans="6:6">
+    <row r="1048576" spans="6:6" x14ac:dyDescent="0.15">
       <c r="F1048576" s="16">
         <f>SUM(F2:F1048575)</f>
         <v>1200</v>
@@ -3178,255 +3269,255 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="19"/>
-    <col min="2" max="2" width="26.4609375" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="19"/>
+    <col min="1" max="1" width="10.83203125" style="18"/>
+    <col min="2" max="2" width="26.5" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="19" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A2" s="18" t="s">
         <v>86</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="18" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>117</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>30</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>90</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <v>16</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="19" t="s">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>90</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>30</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <v>8</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="17">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="16" customFormat="1">
-      <c r="A4" s="19" t="s">
+    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="18" t="s">
         <v>49</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>119</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E4" s="18">
         <v>44</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F4" s="18">
         <v>30</v>
       </c>
-      <c r="G4" s="19">
+      <c r="G4" s="18">
         <v>19</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="17">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="19" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
         <v>91</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C5" s="19" t="s">
+      <c r="C5" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D5" s="19" t="s">
+      <c r="D5" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E5" s="19">
+      <c r="E5" s="18">
         <v>30</v>
       </c>
-      <c r="F5" s="19">
+      <c r="F5" s="18">
         <v>60</v>
       </c>
-      <c r="G5" s="19">
+      <c r="G5" s="18">
         <v>19</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="17">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="A6" s="18" t="s">
         <v>92</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="18" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="18" t="s">
         <v>120</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E6" s="19">
+      <c r="E6" s="18">
         <v>30</v>
       </c>
-      <c r="F6" s="19">
+      <c r="F6" s="18">
         <v>60</v>
       </c>
-      <c r="G6" s="19">
+      <c r="G6" s="18">
         <v>22</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="17">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="16" customFormat="1">
-      <c r="A7" s="18" t="s">
+    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="17" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="17" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="21" t="s">
         <v>117</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E7" s="19">
+      <c r="E7" s="18">
         <v>30</v>
       </c>
-      <c r="F7" s="19">
+      <c r="F7" s="18">
         <v>60</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="17">
         <v>33</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="17">
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1">
-      <c r="A8" s="18" t="s">
+    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="17" t="s">
         <v>98</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="17" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="22" t="s">
+      <c r="C8" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D8" s="19" t="s">
+      <c r="D8" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E8" s="19">
+      <c r="E8" s="18">
         <v>30</v>
       </c>
-      <c r="F8" s="19">
+      <c r="F8" s="18">
         <v>60</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="17">
         <v>27</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="17">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="16" customFormat="1">
-      <c r="A9" s="18" t="s">
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="17" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>64</v>
       </c>
-      <c r="C9" s="22" t="s">
+      <c r="C9" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="18" t="s">
         <v>145</v>
       </c>
-      <c r="E9" s="19">
+      <c r="E9" s="18">
         <v>30</v>
       </c>
-      <c r="F9" s="19">
+      <c r="F9" s="18">
         <v>60</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="17">
         <v>21</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="18">
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>314</v>
@@ -3444,68 +3535,68 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="23" customFormat="1">
-      <c r="B13" s="23" t="s">
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="24" customFormat="1">
-      <c r="B14" s="24" t="s">
+    <row r="14" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="16" customFormat="1">
-      <c r="B15" s="25" t="s">
+    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="16" customFormat="1">
-      <c r="B16" s="25" t="s">
+    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="16" customFormat="1">
-      <c r="B17" s="25" t="s">
+    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="16" customFormat="1">
-      <c r="B18" s="25" t="s">
+    <row r="18" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="2:2" s="16" customFormat="1">
-      <c r="B19" s="25" t="s">
+    <row r="19" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="16" customFormat="1">
-      <c r="B20" s="23" t="s">
+    <row r="20" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:2" s="23" customFormat="1">
-      <c r="B21" s="23" t="s">
+    <row r="21" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="23" customFormat="1">
-      <c r="B22" s="23" t="s">
+    <row r="22" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="24" customFormat="1">
-      <c r="B23" s="24" t="s">
+    <row r="23" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="23" customFormat="1">
-      <c r="B24" s="23" t="s">
+    <row r="24" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:2" s="23" customFormat="1">
-      <c r="B25" s="23" t="s">
+    <row r="25" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="22" t="s">
         <v>162</v>
       </c>
     </row>
@@ -3517,106 +3608,166 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I4"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="10.84375" style="19"/>
-    <col min="2" max="2" width="26" style="19" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.84375" style="19"/>
+    <col min="1" max="1" width="10.83203125" style="18"/>
+    <col min="2" max="2" width="26" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.83203125" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="21" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="20" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" ht="15.5">
-      <c r="A2" s="18" t="s">
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="17" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C2" s="17" t="s">
+      <c r="C2" s="21" t="s">
         <v>118</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>75</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="16" customFormat="1" ht="15.5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C3" s="17" t="s">
+        <v>165</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E3" s="18">
+        <v>75</v>
+      </c>
+      <c r="F3" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A4" s="17" t="s">
+        <v>181</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>182</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E4" s="17">
+        <v>75</v>
+      </c>
+      <c r="F4" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A5" s="18" t="s">
+        <v>184</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>185</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E5" s="18">
+        <v>75</v>
+      </c>
+      <c r="F5" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A6" s="17" t="s">
+        <v>172</v>
+      </c>
+      <c r="B6" s="17" t="s">
+        <v>173</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E6" s="17">
         <v>75</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F6" s="17">
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="19" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="19" t="s">
-        <v>165</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="18" t="s">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A7" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>176</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>117</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>156</v>
       </c>
-      <c r="E4" s="19">
+      <c r="E7" s="18">
         <v>75</v>
       </c>
-      <c r="F4" s="19">
+      <c r="F7" s="18">
         <v>60</v>
       </c>
     </row>
@@ -3628,149 +3779,229 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="11.15234375" style="16"/>
-    <col min="2" max="2" width="28.15234375" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.4609375" style="39" customWidth="1"/>
-    <col min="4" max="16384" width="11.15234375" style="16"/>
+    <col min="1" max="1" width="11.1640625" style="16"/>
+    <col min="2" max="2" width="28.1640625" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.5" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="11.1640625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="36" customFormat="1">
-      <c r="A1" s="36" t="s">
+    <row r="1" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="36" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="15.5">
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A2" s="16" t="s">
         <v>85</v>
       </c>
       <c r="B2" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="C2" s="38" t="s">
+      <c r="C2" s="37" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15.5">
+    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A3" s="16" t="s">
         <v>87</v>
       </c>
       <c r="B3" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="38" t="s">
+      <c r="C3" s="37" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="15.5">
+    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A4" s="16" t="s">
         <v>88</v>
       </c>
       <c r="B4" s="16" t="s">
         <v>55</v>
       </c>
-      <c r="C4" s="38" t="s">
+      <c r="C4" s="37" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="31">
+    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A5" s="16" t="s">
         <v>93</v>
       </c>
       <c r="B5" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="37" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="93">
+    <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.15">
       <c r="A6" s="16" t="s">
         <v>94</v>
       </c>
       <c r="B6" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="38" t="s">
+      <c r="C6" s="37" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="15.5">
+    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A7" s="16" t="s">
         <v>95</v>
       </c>
       <c r="B7" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="38" t="s">
+      <c r="C7" s="37" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="31">
+    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.15">
       <c r="A8" s="16" t="s">
         <v>99</v>
       </c>
       <c r="B8" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="37" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="15.5">
+    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.15">
       <c r="A9" s="16" t="s">
         <v>100</v>
       </c>
       <c r="B9" s="16" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="37" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="15.5">
-      <c r="C10" s="38"/>
-    </row>
-    <row r="11" spans="1:3" ht="15.5">
-      <c r="C11" s="38"/>
-    </row>
-    <row r="12" spans="1:3" ht="15.5">
-      <c r="C12" s="38"/>
-    </row>
-    <row r="13" spans="1:3" ht="15.5">
-      <c r="C13" s="38"/>
-    </row>
-    <row r="14" spans="1:3" ht="15.5">
-      <c r="C14" s="38"/>
-    </row>
-    <row r="15" spans="1:3" ht="15.5">
-      <c r="C15" s="38"/>
-    </row>
-    <row r="16" spans="1:3" ht="15.5">
-      <c r="C16" s="38"/>
-    </row>
-    <row r="17" spans="3:3" ht="15.5">
-      <c r="C17" s="38"/>
-    </row>
-    <row r="18" spans="3:3" ht="15.5">
-      <c r="C18" s="38"/>
-    </row>
-    <row r="19" spans="3:3" ht="15.5">
-      <c r="C19" s="38"/>
+    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A10" t="s">
+        <v>166</v>
+      </c>
+      <c r="B10" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+      <c r="A11" t="s">
+        <v>169</v>
+      </c>
+      <c r="B11" t="s">
+        <v>170</v>
+      </c>
+      <c r="C11" s="42" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>172</v>
+      </c>
+      <c r="B12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C12" s="42" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A13" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" t="s">
+        <v>176</v>
+      </c>
+      <c r="C13" s="42" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A14" t="s">
+        <v>178</v>
+      </c>
+      <c r="B14" t="s">
+        <v>179</v>
+      </c>
+      <c r="C14" s="42" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A15" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" t="s">
+        <v>182</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A16" t="s">
+        <v>184</v>
+      </c>
+      <c r="B16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A17" t="s">
+        <v>187</v>
+      </c>
+      <c r="B17" t="s">
+        <v>188</v>
+      </c>
+      <c r="C17" s="42" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A18" t="s">
+        <v>164</v>
+      </c>
+      <c r="B18" t="s">
+        <v>165</v>
+      </c>
+      <c r="C18" s="42" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C19" s="42" t="s">
+        <v>193</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="10" type="noConversion"/>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="28810"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celestesakhile/Desktop/555/Documentation/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文档\OneDrive\课程相关\17Fall\CS 555\Project\555\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="9" documentId="BA772E39C2E9D5A780E92C4A0229FD35530D79D6" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{2ECF60C0-705F-42AF-B290-AC0707B675C9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="2" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="12504" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
     <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="194">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -646,7 +647,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -736,6 +737,7 @@
     <font>
       <sz val="12"/>
       <name val="Cambria"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -920,71 +922,71 @@
     </xf>
   </cellXfs>
   <cellStyles count="65">
-    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1000,9 +1002,9 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1026,22 +1028,22 @@
             <c:numRef>
               <c:f>'Burndown README'!$B$15:$B$20</c:f>
               <c:numCache>
-                <c:formatCode>m/d/yy</c:formatCode>
+                <c:formatCode>m/d/yyyy</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41065.0</c:v>
+                  <c:v>41065</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41078.0</c:v>
+                  <c:v>41078</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41092.0</c:v>
+                  <c:v>41092</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41106.0</c:v>
+                  <c:v>41106</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>41120.0</c:v>
+                  <c:v>41120</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1053,25 +1055,25 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>18.0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>12.0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.0</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-FC8B-423E-BCE0-97BCA44D3CBF}"/>
             </c:ext>
@@ -1097,7 +1099,7 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="m/d/yy" sourceLinked="1"/>
+        <c:numFmt formatCode="m/d/yyyy" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1130,16 +1132,16 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="en-US"/>
+  <c:lang val="zh-CN"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1166,16 +1168,16 @@
                 <c:formatCode>m/d</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>41535.0</c:v>
+                  <c:v>41535</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>41549.0</c:v>
+                  <c:v>41549</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>41563.0</c:v>
+                  <c:v>41563</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41577.0</c:v>
+                  <c:v>41577</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1187,22 +1189,22 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>32.0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>24.0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16.0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
-          <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+          <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-8DC9-401C-B8F7-DDA8A66F6D29}"/>
             </c:ext>
@@ -1261,7 +1263,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="1.0" l="0.75" r="0.75" t="1.0" header="0.5" footer="0.5"/>
+    <c:pageMargins b="1" l="0.75" r="0.75" t="1" header="0.5" footer="0.5"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1287,7 +1289,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1325,7 +1327,7 @@
         <xdr:cNvPr id="3" name="Rectangular Callout 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000003000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000003000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1400,7 +1402,7 @@
         <xdr:cNvPr id="4" name="Rectangular Callout 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000004000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000004000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1465,7 +1467,7 @@
         <xdr:cNvPr id="5" name="Rectangular Callout 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000005000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000005000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1536,7 @@
         <xdr:cNvPr id="6" name="Rectangular Callout 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000006000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000006000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1604,7 +1606,7 @@
         <xdr:cNvPr id="7" name="Rectangular Callout 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000007000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000007000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1673,7 +1675,7 @@
         <xdr:cNvPr id="8" name="Rectangular Callout 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0200-000008000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0200-000008000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1743,7 +1745,7 @@
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{00000000-0008-0000-0300-000002000000}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000002000000}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2083,24 +2085,24 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.83203125" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.83203125" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.81640625" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="11.1640625" style="12"/>
+    <col min="5" max="5" width="20.453125" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11.1796875" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -2117,7 +2119,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="11" t="s">
         <v>118</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="11" t="s">
         <v>117</v>
       </c>
@@ -2151,7 +2153,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="11" t="s">
         <v>119</v>
       </c>
@@ -2168,7 +2170,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
         <v>120</v>
       </c>
@@ -2185,7 +2187,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
@@ -2194,15 +2196,15 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
@@ -2212,10 +2214,10 @@
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E4" r:id="rId1"/>
-    <hyperlink ref="E5" r:id="rId2"/>
-    <hyperlink ref="E6" r:id="rId3"/>
-    <hyperlink ref="E3" r:id="rId4"/>
+    <hyperlink ref="E4" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E5" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="E6" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="E3" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
@@ -2223,54 +2225,54 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G19"/>
   <sheetViews>
     <sheetView topLeftCell="A9" zoomScale="150" workbookViewId="0">
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="3"/>
-    <col min="2" max="2" width="9.5" customWidth="1"/>
-    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1640625" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.1796875" style="3"/>
+    <col min="2" max="2" width="9.453125" customWidth="1"/>
+    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.1796875" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>106</v>
       </c>
@@ -2293,7 +2295,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>107</v>
       </c>
@@ -2309,7 +2311,7 @@
       <c r="F15" s="7"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>108</v>
       </c>
@@ -2334,7 +2336,7 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>109</v>
       </c>
@@ -2359,7 +2361,7 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>110</v>
       </c>
@@ -2384,7 +2386,7 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>111</v>
       </c>
@@ -2418,25 +2420,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
       <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="31"/>
-    <col min="2" max="2" width="16.6640625" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.5" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.1640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.83203125" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="11.1640625" style="16"/>
+    <col min="1" max="1" width="11.1796875" style="31"/>
+    <col min="2" max="2" width="16.6328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.453125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.1796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.81640625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.453125" style="41" customWidth="1"/>
+    <col min="7" max="16384" width="11.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
@@ -2456,7 +2458,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="31">
         <v>41535</v>
       </c>
@@ -2467,7 +2469,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>41549</v>
       </c>
@@ -2488,7 +2490,7 @@
         <v>9.4588235294117649</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="31">
         <v>41563</v>
       </c>
@@ -2509,7 +2511,7 @@
         <v>24.268656716417912</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>41577</v>
       </c>
@@ -2539,28 +2541,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
     <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1640625" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6640625" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.6640625" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1640625" style="31"/>
-    <col min="10" max="16384" width="11.1640625" style="16"/>
+    <col min="2" max="2" width="32.1796875" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.6328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.453125" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.1796875" style="31"/>
+    <col min="10" max="16384" width="11.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -2589,7 +2591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>69</v>
       </c>
@@ -2618,7 +2620,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>70</v>
       </c>
@@ -2647,7 +2649,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>71</v>
       </c>
@@ -2676,7 +2678,7 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>72</v>
       </c>
@@ -2705,7 +2707,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>73</v>
       </c>
@@ -2734,7 +2736,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>74</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>75</v>
       </c>
@@ -2792,7 +2794,7 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
         <v>76</v>
       </c>
@@ -2821,7 +2823,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" s="30">
         <f>SUM(E2:E9)</f>
         <v>600</v>
@@ -2839,57 +2841,57 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="33" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="33" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="33" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="33" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="33" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="33" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="29" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="2:2" ht="26" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" ht="26.4" x14ac:dyDescent="0.25">
       <c r="B24" s="29" t="s">
         <v>144</v>
       </c>
@@ -2902,21 +2904,21 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:I1048576"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="16"/>
-    <col min="2" max="2" width="25.5" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.1640625" style="16"/>
+    <col min="1" max="1" width="11.1796875" style="16"/>
+    <col min="2" max="2" width="25.453125" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -2945,7 +2947,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>77</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>78</v>
       </c>
@@ -3003,7 +3005,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>79</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>80</v>
       </c>
@@ -3061,7 +3063,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>82</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="18" t="s">
         <v>83</v>
       </c>
@@ -3119,7 +3121,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
         <v>84</v>
       </c>
@@ -3148,7 +3150,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="18" t="s">
         <v>90</v>
       </c>
@@ -3177,7 +3179,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>488</v>
@@ -3195,67 +3197,67 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B14" s="26" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B21" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B22" s="24" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B23" s="24" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B24" s="24" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="1048576" spans="6:6" x14ac:dyDescent="0.15">
+    <row r="1048576" spans="6:6" x14ac:dyDescent="0.25">
       <c r="F1048576" s="16">
         <f>SUM(F2:F1048575)</f>
         <v>1200</v>
@@ -3269,21 +3271,21 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView zoomScale="150" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="18"/>
-    <col min="2" max="2" width="26.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="10.81640625" style="18"/>
+    <col min="2" max="2" width="26.453125" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3309,7 +3311,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
         <v>86</v>
       </c>
@@ -3335,7 +3337,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>89</v>
       </c>
@@ -3361,7 +3363,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>81</v>
       </c>
@@ -3387,7 +3389,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>91</v>
       </c>
@@ -3413,7 +3415,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="18" t="s">
         <v>92</v>
       </c>
@@ -3439,7 +3441,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
         <v>96</v>
       </c>
@@ -3465,7 +3467,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
         <v>98</v>
       </c>
@@ -3491,7 +3493,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="17" t="s">
         <v>97</v>
       </c>
@@ -3517,7 +3519,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>314</v>
@@ -3535,67 +3537,67 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="22" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="23" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B15" s="24" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B16" s="24" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B17" s="24" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B18" s="24" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="19" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B19" s="24" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="20" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="21" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="22" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="22" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="22" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="23" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="23" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="24" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="22" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="25" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B25" s="22" t="s">
         <v>162</v>
       </c>
@@ -3608,21 +3610,21 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
+  <dimension ref="A1:I9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="18"/>
+    <col min="1" max="1" width="10.81640625" style="18"/>
     <col min="2" max="2" width="26" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="18"/>
+    <col min="3" max="16384" width="10.81640625" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3651,7 +3653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
         <v>99</v>
       </c>
@@ -3671,7 +3673,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>164</v>
       </c>
@@ -3691,7 +3693,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="17" t="s">
         <v>181</v>
       </c>
@@ -3711,7 +3713,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
         <v>184</v>
       </c>
@@ -3731,7 +3733,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
         <v>172</v>
       </c>
@@ -3751,7 +3753,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="18" t="s">
         <v>175</v>
       </c>
@@ -3768,6 +3770,46 @@
         <v>75</v>
       </c>
       <c r="F7" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>119</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E8" s="17">
+        <v>75</v>
+      </c>
+      <c r="F8" s="17">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>156</v>
+      </c>
+      <c r="E9" s="18">
+        <v>75</v>
+      </c>
+      <c r="F9" s="18">
         <v>60</v>
       </c>
     </row>
@@ -3779,22 +3821,22 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:B13"/>
+    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.1640625" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.1640625" style="16"/>
-    <col min="2" max="2" width="28.1640625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.5" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="11.1640625" style="16"/>
+    <col min="1" max="1" width="11.1796875" style="16"/>
+    <col min="2" max="2" width="28.1796875" style="16" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="49.453125" style="38" customWidth="1"/>
+    <col min="4" max="16384" width="11.1796875" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>68</v>
       </c>
@@ -3805,7 +3847,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>85</v>
       </c>
@@ -3816,7 +3858,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
         <v>87</v>
       </c>
@@ -3827,7 +3869,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>88</v>
       </c>
@@ -3838,7 +3880,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A5" s="16" t="s">
         <v>93</v>
       </c>
@@ -3849,7 +3891,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="112" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:3" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A6" s="16" t="s">
         <v>94</v>
       </c>
@@ -3860,7 +3902,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A7" s="16" t="s">
         <v>95</v>
       </c>
@@ -3871,7 +3913,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A8" s="16" t="s">
         <v>99</v>
       </c>
@@ -3882,7 +3924,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="16" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A9" s="16" t="s">
         <v>100</v>
       </c>
@@ -3893,7 +3935,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>166</v>
       </c>
@@ -3904,7 +3946,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="48" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>169</v>
       </c>
@@ -3915,7 +3957,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>172</v>
       </c>
@@ -3926,7 +3968,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>175</v>
       </c>
@@ -3937,7 +3979,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>178</v>
       </c>
@@ -3948,7 +3990,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>181</v>
       </c>
@@ -3959,7 +4001,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>184</v>
       </c>
@@ -3970,7 +4012,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>187</v>
       </c>
@@ -3981,7 +4023,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>164</v>
       </c>
@@ -3992,7 +4034,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="32" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>191</v>
       </c>

--- a/Documentation/Team_M2JC_Report.xlsx
+++ b/Documentation/Team_M2JC_Report.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18625"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\我的文档\OneDrive\课程相关\17Fall\CS 555\Project\555\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Maryam\Documents\GitHub\555\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="BA772E39C2E9D5A780E92C4A0229FD35530D79D6" xr6:coauthVersionLast="24" xr6:coauthVersionMax="24" xr10:uidLastSave="{2ECF60C0-705F-42AF-B290-AC0707B675C9}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="28800" windowHeight="12504" tabRatio="500" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12500" tabRatio="500" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Team" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,6 @@
     <sheet name="Sprint2" sheetId="4" r:id="rId5"/>
     <sheet name="Sprint3" sheetId="5" r:id="rId6"/>
     <sheet name="Sprint4" sheetId="6" r:id="rId7"/>
-    <sheet name="Project Backlog" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
@@ -35,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="157">
   <si>
     <t>Date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -152,33 +150,6 @@
     <t>GitHub Repository:</t>
   </si>
   <si>
-    <t>Parents should not marry any of their descendants</t>
-  </si>
-  <si>
-    <t>First cousins should not marry one another</t>
-  </si>
-  <si>
-    <t>Aunts and uncles should not marry their nieces or nephews</t>
-  </si>
-  <si>
-    <t>No more than one child with the same name and birth date should appear in a family</t>
-  </si>
-  <si>
-    <t>Include person's current age when listing individuals</t>
-  </si>
-  <si>
-    <t>List all living people over 30 who have never been married in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>List all multiple births in a GEDCOM file</t>
-  </si>
-  <si>
-    <t>Story Name</t>
-  </si>
-  <si>
-    <t>Story Description</t>
-  </si>
-  <si>
     <t>Birth before death</t>
   </si>
   <si>
@@ -218,18 +189,9 @@
     <t>Male last names</t>
   </si>
   <si>
-    <t>No marriages to descendants</t>
-  </si>
-  <si>
     <t>Siblings should not marry</t>
   </si>
   <si>
-    <t>First cousins should not marry</t>
-  </si>
-  <si>
-    <t>Aunts and uncles</t>
-  </si>
-  <si>
     <t>Correct gender for role</t>
   </si>
   <si>
@@ -242,15 +204,6 @@
     <t>Unique families by spouses</t>
   </si>
   <si>
-    <t>Unique first names in families</t>
-  </si>
-  <si>
-    <t>Corresponding entries</t>
-  </si>
-  <si>
-    <t>Include individual ages</t>
-  </si>
-  <si>
     <t>Order siblings by age</t>
   </si>
   <si>
@@ -263,12 +216,6 @@
     <t>List living single</t>
   </si>
   <si>
-    <t>List multiple births</t>
-  </si>
-  <si>
-    <t>Story ID</t>
-  </si>
-  <si>
     <t>US01</t>
   </si>
   <si>
@@ -317,18 +264,9 @@
     <t>US16</t>
   </si>
   <si>
-    <t>US17</t>
-  </si>
-  <si>
     <t>US18</t>
   </si>
   <si>
-    <t>US19</t>
-  </si>
-  <si>
-    <t>US20</t>
-  </si>
-  <si>
     <t>US21</t>
   </si>
   <si>
@@ -341,15 +279,6 @@
     <t>US24</t>
   </si>
   <si>
-    <t>US25</t>
-  </si>
-  <si>
-    <t>US26</t>
-  </si>
-  <si>
-    <t>US27</t>
-  </si>
-  <si>
     <t>US28</t>
   </si>
   <si>
@@ -362,9 +291,6 @@
     <t>US31</t>
   </si>
   <si>
-    <t>US32</t>
-  </si>
-  <si>
     <t>Dates before current date</t>
   </si>
   <si>
@@ -410,9 +336,6 @@
     <t>Multiple births &lt;= 5</t>
   </si>
   <si>
-    <t>All family roles (spouse, child) specified in an individual record should have corresponding entries in the corresponding family records. Likewise, all individual roles (spouse, child) specified in family records should have corresponding entries in the corresponding  individual's records.  I.e. the information in the individual and family records should be consistent.</t>
-  </si>
-  <si>
     <t>JT</t>
   </si>
   <si>
@@ -530,9 +453,6 @@
     <t>Start implementation early</t>
   </si>
   <si>
-    <t>Yet to start</t>
-  </si>
-  <si>
     <t xml:space="preserve">Review Results: </t>
   </si>
   <si>
@@ -554,94 +474,78 @@
     <t>Create individual test output files for ease of integration</t>
   </si>
   <si>
-    <t>US41</t>
-  </si>
-  <si>
-    <t>Include partial dates</t>
-  </si>
-  <si>
-    <t>US33</t>
-  </si>
-  <si>
-    <t>List orphans</t>
-  </si>
-  <si>
-    <t>List all orphaned children (both parents dead and child &lt; 18 years old) in a GEDCOM file</t>
-  </si>
-  <si>
     <t>US34</t>
   </si>
   <si>
     <t>List large age differences</t>
   </si>
   <si>
-    <t>List all couples who were married when the older spouse was more than twice as old as the younger spouse</t>
-  </si>
-  <si>
     <t>US35</t>
   </si>
   <si>
     <t>List recent births</t>
   </si>
   <si>
-    <t>List all people in a GEDCOM file who were born in the last 30 days</t>
-  </si>
-  <si>
     <t>US36</t>
   </si>
   <si>
     <t>List recent deaths</t>
   </si>
   <si>
-    <t>List all people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
-    <t>US37</t>
-  </si>
-  <si>
-    <t>List recent survivors</t>
-  </si>
-  <si>
-    <t>List all living spouses and descendants of people in a GEDCOM file who died in the last 30 days</t>
-  </si>
-  <si>
     <t>US38</t>
   </si>
   <si>
     <t>List upcoming birthdays</t>
   </si>
   <si>
-    <t>List all living people in a GEDCOM file whose birthdays occur in the next 30 days</t>
-  </si>
-  <si>
     <t>US39</t>
   </si>
   <si>
     <t>List upcoming anniversaries</t>
   </si>
   <si>
-    <t>List all living couples in a GEDCOM file whose marriage anniversaries occur in the next 30 days</t>
-  </si>
-  <si>
-    <t>US40</t>
-  </si>
-  <si>
-    <t>Include input line numbers</t>
-  </si>
-  <si>
-    <t>List line numbers from GEDCOM source file when reporting errors</t>
-  </si>
-  <si>
-    <t>Accept and use dates without days or without days and months</t>
-  </si>
-  <si>
     <t>US42</t>
   </si>
   <si>
     <t>Reject illegitimate dates</t>
   </si>
   <si>
-    <t>All dates should be legitimate dates for the months specified (e.g., 2/30/2015 is not legitimate)</t>
+    <t xml:space="preserve">Result Review: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Continious Integration </t>
+  </si>
+  <si>
+    <t>Coomunication in case of unknown conflicts</t>
+  </si>
+  <si>
+    <t>Understanding how unittest works</t>
+  </si>
+  <si>
+    <t>Updating the burndown charts</t>
+  </si>
+  <si>
+    <t>Brute Force implemntation</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Abadi Extra Light"/>
+        <family val="2"/>
+      </rPr>
+      <t>Avoid:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Abadi Extra Light"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -652,7 +556,7 @@
     <numFmt numFmtId="164" formatCode="m/d"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <name val="Verdana"/>
@@ -730,14 +634,17 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
+      <b/>
+      <sz val="11"/>
       <name val="Abadi Extra Light"/>
       <family val="2"/>
     </font>
     <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
-      <family val="1"/>
+      <i/>
+      <u/>
+      <sz val="10"/>
+      <name val="Abadi Extra Light"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -830,7 +737,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -905,88 +812,82 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="65">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="13" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="15" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="17" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="19" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="21" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="23" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="25" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="27" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="29" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="31" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="33" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="35" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="37" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="39" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="43" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="45" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="47" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="49" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="51" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="53" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="55" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="57" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="59" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="61" builtinId="8" hidden="1"/>
-    <cellStyle name="超链接" xfId="63" builtinId="8" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="4" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="6" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="8" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="10" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="14" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="16" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="18" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="20" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="22" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="24" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="26" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="28" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="30" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="34" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="36" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="38" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="40" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="42" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="44" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="46" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="48" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="50" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="52" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="54" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="56" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="58" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="60" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="62" builtinId="9" hidden="1"/>
-    <cellStyle name="已访问的超链接" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
@@ -1004,7 +905,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1141,7 +1042,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="1"/>
-  <c:lang val="zh-CN"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1179,6 +1080,9 @@
                 <c:pt idx="3">
                   <c:v>41577</c:v>
                 </c:pt>
+                <c:pt idx="4">
+                  <c:v>41591</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1199,6 +1103,9 @@
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2092,17 +1999,17 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="7.81640625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.81640625" style="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.453125" style="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.84375" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.84375" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.4609375" style="12" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32" style="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.453125" style="12" customWidth="1"/>
-    <col min="6" max="16384" width="11.1796875" style="12"/>
+    <col min="5" max="5" width="20.4609375" style="12" customWidth="1"/>
+    <col min="6" max="16384" width="11.15234375" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" s="10" customFormat="1">
       <c r="A1" s="9" t="s">
         <v>18</v>
       </c>
@@ -2119,75 +2026,75 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8">
       <c r="A3" s="11" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>121</v>
+        <v>96</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D3" s="12" t="s">
-        <v>123</v>
+        <v>98</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="11" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="B4" s="12" t="s">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="C4" s="12" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="D4" s="12" t="s">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="E4" s="12" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="11" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="B5" s="12" t="s">
-        <v>127</v>
+        <v>102</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>128</v>
+        <v>103</v>
       </c>
       <c r="D5" s="12" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="E5" s="12" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="11" t="s">
-        <v>120</v>
+        <v>95</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>131</v>
+        <v>106</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>132</v>
+        <v>107</v>
       </c>
       <c r="E6" s="12" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="16.5">
       <c r="D9" s="10" t="s">
         <v>29</v>
       </c>
@@ -2196,15 +2103,15 @@
       </c>
       <c r="G9" s="13"/>
     </row>
-    <row r="10" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.5">
       <c r="G10" s="14"/>
       <c r="H10" s="15"/>
     </row>
-    <row r="11" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="16.5">
       <c r="G11" s="14"/>
       <c r="H11" s="15"/>
     </row>
-    <row r="12" spans="1:8" ht="16.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="16.5">
       <c r="G12" s="14"/>
       <c r="H12" s="15"/>
     </row>
@@ -2232,49 +2139,49 @@
       <selection activeCell="J19" sqref="J19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="12.6" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="3"/>
-    <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="15.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.1796875" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="5" customWidth="1"/>
+    <col min="1" max="1" width="11.15234375" style="3"/>
+    <col min="2" max="2" width="9.4609375" customWidth="1"/>
+    <col min="3" max="3" width="15.84375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.15234375" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7">
       <c r="A1" s="3" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="3" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="3" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="3" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="3" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="2" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>106</v>
+        <v>82</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>0</v>
@@ -2295,9 +2202,9 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7">
       <c r="A15" t="s">
-        <v>107</v>
+        <v>83</v>
       </c>
       <c r="B15" s="6">
         <v>41065</v>
@@ -2311,9 +2218,9 @@
       <c r="F15" s="7"/>
       <c r="G15" s="5"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7">
       <c r="A16" t="s">
-        <v>108</v>
+        <v>84</v>
       </c>
       <c r="B16" s="6">
         <v>41078</v>
@@ -2336,9 +2243,9 @@
         <v>125.00000000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7">
       <c r="A17" s="3" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="B17" s="6">
         <v>41092</v>
@@ -2361,9 +2268,9 @@
         <v>102.22222222222223</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7">
       <c r="A18" s="3" t="s">
-        <v>110</v>
+        <v>86</v>
       </c>
       <c r="B18" s="6">
         <v>41106</v>
@@ -2386,9 +2293,9 @@
         <v>97.5</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7">
       <c r="A19" s="3" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
       <c r="B19" s="6">
         <v>41120</v>
@@ -2421,25 +2328,25 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView zoomScale="84" zoomScaleNormal="84" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="31"/>
-    <col min="2" max="2" width="16.6328125" style="16" customWidth="1"/>
-    <col min="3" max="3" width="12.453125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="7.1796875" style="16" customWidth="1"/>
-    <col min="5" max="5" width="6.81640625" style="16" customWidth="1"/>
-    <col min="6" max="6" width="12.453125" style="41" customWidth="1"/>
-    <col min="7" max="16384" width="11.1796875" style="16"/>
+    <col min="1" max="1" width="11.15234375" style="31"/>
+    <col min="2" max="2" width="16.61328125" style="16" customWidth="1"/>
+    <col min="3" max="3" width="12.4609375" style="16" customWidth="1"/>
+    <col min="4" max="4" width="7.15234375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="6.84375" style="16" customWidth="1"/>
+    <col min="6" max="6" width="12.4609375" style="38" customWidth="1"/>
+    <col min="7" max="16384" width="11.15234375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+    <row r="1" spans="1:6" s="35" customFormat="1">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="35" t="s">
@@ -2454,11 +2361,11 @@
       <c r="E1" s="35" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="40" t="s">
+      <c r="F1" s="37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="31">
         <v>41535</v>
       </c>
@@ -2469,7 +2376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="31">
         <v>41549</v>
       </c>
@@ -2485,12 +2392,12 @@
       <c r="E3" s="16">
         <v>850</v>
       </c>
-      <c r="F3" s="41">
+      <c r="F3" s="38">
         <f>(D3-D2)/E3*60</f>
         <v>9.4588235294117649</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="31">
         <v>41563</v>
       </c>
@@ -2506,12 +2413,12 @@
       <c r="E4" s="16">
         <v>670</v>
       </c>
-      <c r="F4" s="41">
+      <c r="F4" s="38">
         <f>(D4-D3)/E4*60</f>
         <v>24.268656716417912</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6">
       <c r="A5" s="31">
         <v>41577</v>
       </c>
@@ -2527,9 +2434,30 @@
       <c r="E5" s="16">
         <v>390</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="38">
         <f>(D5-D4)/E5*60</f>
         <v>25.384615384615383</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="31">
+        <v>41591</v>
+      </c>
+      <c r="B6" s="16">
+        <v>0</v>
+      </c>
+      <c r="C6" s="16">
+        <v>9</v>
+      </c>
+      <c r="D6" s="16">
+        <v>571</v>
+      </c>
+      <c r="E6" s="16">
+        <v>391</v>
+      </c>
+      <c r="F6" s="38">
+        <f>(D6-D5)/E6*60</f>
+        <v>0.15345268542199489</v>
       </c>
     </row>
   </sheetData>
@@ -2544,25 +2472,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:I24"/>
   <sheetViews>
-    <sheetView zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="94" zoomScaleNormal="94" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
   <cols>
     <col min="1" max="1" width="9" style="16" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.1796875" style="29" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.6328125" style="16" customWidth="1"/>
-    <col min="4" max="4" width="8.6328125" style="16" customWidth="1"/>
-    <col min="5" max="5" width="8.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.453125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" style="31"/>
-    <col min="10" max="16384" width="11.1796875" style="16"/>
+    <col min="2" max="2" width="32.15234375" style="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.61328125" style="16" customWidth="1"/>
+    <col min="4" max="4" width="8.61328125" style="16" customWidth="1"/>
+    <col min="5" max="5" width="8.15234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.15234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.4609375" style="16" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.15234375" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.15234375" style="31"/>
+    <col min="10" max="16384" width="11.15234375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -2591,18 +2519,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="18" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E2" s="18">
         <v>75</v>
@@ -2620,18 +2548,18 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="18" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>40</v>
+        <v>31</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E3" s="18">
         <v>75</v>
@@ -2649,18 +2577,18 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="18" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E4" s="18">
         <v>75</v>
@@ -2678,18 +2606,18 @@
         <v>41549</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>41</v>
+        <v>32</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D5" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E5" s="18">
         <v>75</v>
@@ -2707,18 +2635,18 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E6" s="18">
         <v>75</v>
@@ -2736,18 +2664,18 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>43</v>
+        <v>34</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E7" s="18">
         <v>75</v>
@@ -2765,18 +2693,18 @@
         <v>41547</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>44</v>
+        <v>35</v>
       </c>
       <c r="C8" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="E8" s="18">
         <v>75</v>
@@ -2794,18 +2722,18 @@
         <v>41541</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="18" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="E9" s="18">
         <v>75</v>
@@ -2823,7 +2751,7 @@
         <v>41542</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="E10" s="30">
         <f>SUM(E2:E9)</f>
         <v>600</v>
@@ -2841,59 +2769,59 @@
         <v>850</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="32" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="B15" s="32" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="B16" s="33" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="33" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" s="33" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="33" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" s="34" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:2">
       <c r="B21" s="33" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2">
       <c r="B22" s="33" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="29" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="26.4" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="26">
       <c r="B24" s="29" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2911,14 +2839,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.15234375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="11.1796875" style="16"/>
-    <col min="2" max="2" width="25.453125" style="24" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="11.1796875" style="16"/>
+    <col min="1" max="1" width="11.15234375" style="16"/>
+    <col min="2" max="2" width="25.4609375" style="24" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.15234375" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="20" t="s">
         <v>9</v>
       </c>
@@ -2947,18 +2875,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="18" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
       <c r="B2" s="22" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C2" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D2" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D2" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="E2" s="18">
         <v>60</v>
@@ -2976,18 +2904,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="18" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="B3" s="22" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E3" s="18">
         <v>50</v>
@@ -3005,18 +2933,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="18" t="s">
-        <v>79</v>
+        <v>62</v>
       </c>
       <c r="B4" s="22" t="s">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E4" s="18">
         <v>90</v>
@@ -3034,18 +2962,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="18" t="s">
-        <v>80</v>
+        <v>63</v>
       </c>
       <c r="B5" s="22" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="E5" s="18">
         <v>88</v>
@@ -3063,18 +2991,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="18" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
       <c r="B6" s="22" t="s">
-        <v>115</v>
+        <v>91</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E6" s="18">
         <v>50</v>
@@ -3092,18 +3020,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E7" s="18">
         <v>50</v>
@@ -3121,18 +3049,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="18" t="s">
-        <v>84</v>
+        <v>67</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>51</v>
+        <v>42</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E8" s="18">
         <v>50</v>
@@ -3150,18 +3078,18 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="9" spans="1:9" s="18" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" s="18" customFormat="1">
       <c r="A9" s="18" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E9" s="18">
         <v>50</v>
@@ -3179,7 +3107,7 @@
         <v>41563</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>488</v>
@@ -3197,67 +3125,67 @@
         <v>670</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="B13" s="26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="B14" s="26" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="B15" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="B16" s="24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
       <c r="B17" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
       <c r="B18" s="24" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
       <c r="B19" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
       <c r="B20" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
       <c r="B21" s="26" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:2">
       <c r="B22" s="24" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2">
       <c r="B23" s="24" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2">
       <c r="B24" s="24" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="1048576" spans="6:6" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="1048576" spans="6:6">
       <c r="F1048576" s="16">
         <f>SUM(F2:F1048575)</f>
         <v>1200</v>
@@ -3274,18 +3202,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H25"/>
   <sheetViews>
-    <sheetView zoomScale="150" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView topLeftCell="B1" zoomScale="150" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="18"/>
-    <col min="2" max="2" width="26.453125" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="18"/>
+    <col min="1" max="1" width="10.84375" style="18"/>
+    <col min="2" max="2" width="26.4609375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="10.84375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3311,18 +3239,18 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="18" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D2" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E2" s="18">
         <v>30</v>
@@ -3337,18 +3265,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="18" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E3" s="18">
         <v>90</v>
@@ -3363,18 +3291,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" s="16" customFormat="1">
       <c r="A4" s="18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>119</v>
+        <v>94</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E4" s="18">
         <v>44</v>
@@ -3389,18 +3317,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="18" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B5" s="18" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C5" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D5" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="E5" s="18">
         <v>30</v>
@@ -3415,18 +3343,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8">
       <c r="A6" s="18" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C6" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>120</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>145</v>
       </c>
       <c r="E6" s="18">
         <v>30</v>
@@ -3441,18 +3369,18 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" s="16" customFormat="1">
       <c r="A7" s="17" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B7" s="17" t="s">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>117</v>
+        <v>92</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E7" s="18">
         <v>30</v>
@@ -3467,18 +3395,18 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" s="16" customFormat="1">
       <c r="A8" s="17" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B8" s="17" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E8" s="18">
         <v>30</v>
@@ -3493,18 +3421,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" s="16" customFormat="1">
       <c r="A9" s="17" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="B9" s="17" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>145</v>
+        <v>120</v>
       </c>
       <c r="E9" s="18">
         <v>30</v>
@@ -3519,7 +3447,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8">
       <c r="E10" s="16">
         <f>SUM(E2:E9)</f>
         <v>314</v>
@@ -3537,69 +3465,69 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="22" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" s="22" customFormat="1">
       <c r="B13" s="22" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="23" customFormat="1">
       <c r="B14" s="23" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="16" customFormat="1">
       <c r="B15" s="24" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="16" customFormat="1">
       <c r="B16" s="24" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="16" customFormat="1">
       <c r="B17" s="24" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="18" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="16" customFormat="1">
       <c r="B18" s="24" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="19" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2" s="16" customFormat="1">
       <c r="B19" s="24" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" s="16" customFormat="1" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="16" customFormat="1">
       <c r="B20" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" s="22" customFormat="1">
       <c r="B21" s="22" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" s="22" customFormat="1">
       <c r="B22" s="22" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" s="23" customFormat="1" x14ac:dyDescent="0.2">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" s="23" customFormat="1">
       <c r="B23" s="23" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" s="22" customFormat="1">
       <c r="B24" s="22" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="25" spans="2:2" s="22" customFormat="1" x14ac:dyDescent="0.2">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" s="22" customFormat="1">
       <c r="B25" s="22" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
   </sheetData>
@@ -3611,20 +3539,20 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="93" zoomScaleNormal="93" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.81640625" defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.84375" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="10.81640625" style="18"/>
+    <col min="1" max="1" width="10.84375" style="18"/>
     <col min="2" max="2" width="26" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="10.81640625" style="18"/>
+    <col min="3" max="16384" width="10.84375" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8">
       <c r="A1" s="20" t="s">
         <v>3</v>
       </c>
@@ -3649,22 +3577,19 @@
       <c r="H1" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="I1" s="20" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" s="16" customFormat="1">
       <c r="A2" s="17" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>156</v>
+        <v>120</v>
       </c>
       <c r="E2" s="18">
         <v>75</v>
@@ -3672,145 +3597,219 @@
       <c r="F2" s="18">
         <v>60</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>118</v>
+      <c r="G2" s="17">
+        <v>23</v>
+      </c>
+      <c r="H2" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>145</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>93</v>
       </c>
       <c r="D3" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" s="17">
+        <v>75</v>
+      </c>
+      <c r="F3" s="17">
+        <v>60</v>
+      </c>
+      <c r="G3" s="18">
+        <v>24</v>
+      </c>
+      <c r="H3" s="18">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>147</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>95</v>
+      </c>
+      <c r="D4" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="18">
+        <v>75</v>
+      </c>
+      <c r="F4" s="18">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="17" t="s">
+        <v>140</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E5" s="17">
+        <v>75</v>
+      </c>
+      <c r="F5" s="17">
+        <v>60</v>
+      </c>
+      <c r="G5" s="18">
+        <v>14</v>
+      </c>
+      <c r="H5" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D6" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E6" s="18">
+        <v>75</v>
+      </c>
+      <c r="F6" s="18">
+        <v>60</v>
+      </c>
+      <c r="G6" s="18">
+        <v>18</v>
+      </c>
+      <c r="H6" s="18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="C7" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E7" s="17">
+        <v>75</v>
+      </c>
+      <c r="F7" s="17">
+        <v>60</v>
+      </c>
+      <c r="G7" s="18">
+        <v>18</v>
+      </c>
+      <c r="H7" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="E8" s="18">
+        <v>75</v>
+      </c>
+      <c r="F8" s="18">
+        <v>60</v>
+      </c>
+      <c r="G8" s="18">
+        <v>3</v>
+      </c>
+      <c r="H8" s="18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="E9" s="18">
+        <f>SUM(E1:E8)</f>
+        <v>525</v>
+      </c>
+      <c r="F9" s="18">
+        <f>SUM(F2:F8)</f>
+        <v>420</v>
+      </c>
+      <c r="G9" s="18">
+        <f>SUM(G1:G8)</f>
+        <v>100</v>
+      </c>
+      <c r="H9" s="18">
+        <f>SUM(H1:H8)</f>
+        <v>85</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="39" customFormat="1" ht="14">
+      <c r="B13" s="39" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="22" customFormat="1">
+      <c r="B14" s="40" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" s="22" customFormat="1">
+      <c r="B15" s="22" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" s="22" customFormat="1">
+      <c r="B16" s="22" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" s="22" customFormat="1">
+      <c r="B17" s="22" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2" s="22" customFormat="1">
+      <c r="B18" s="22" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2" s="22" customFormat="1">
+      <c r="B20" s="22" t="s">
         <v>156</v>
       </c>
-      <c r="E3" s="18">
-        <v>75</v>
-      </c>
-      <c r="F3" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="17" t="s">
-        <v>181</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>182</v>
-      </c>
-      <c r="C4" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E4" s="17">
-        <v>75</v>
-      </c>
-      <c r="F4" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>120</v>
-      </c>
-      <c r="D5" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E5" s="18">
-        <v>75</v>
-      </c>
-      <c r="F5" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="17" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="17" t="s">
-        <v>173</v>
-      </c>
-      <c r="C6" s="17" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="17">
-        <v>75</v>
-      </c>
-      <c r="F6" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>117</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E7" s="18">
-        <v>75</v>
-      </c>
-      <c r="F7" s="18">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>119</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>156</v>
-      </c>
-      <c r="E8" s="17">
-        <v>75</v>
-      </c>
-      <c r="F8" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>119</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="E9" s="18">
-        <v>75</v>
-      </c>
-      <c r="F9" s="18">
-        <v>60</v>
+    </row>
+    <row r="21" spans="2:2" s="22" customFormat="1">
+      <c r="B21" s="22" t="s">
+        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -3818,236 +3817,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:C19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="150" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="11.1796875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="11.1796875" style="16"/>
-    <col min="2" max="2" width="28.1796875" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="49.453125" style="38" customWidth="1"/>
-    <col min="4" max="16384" width="11.1796875" style="16"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" s="35" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B1" s="35" t="s">
-        <v>37</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
-        <v>85</v>
-      </c>
-      <c r="B2" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A3" s="16" t="s">
-        <v>87</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A4" s="16" t="s">
-        <v>88</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>55</v>
-      </c>
-      <c r="C4" s="37" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A5" s="16" t="s">
-        <v>93</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="93.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>61</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="16" t="s">
-        <v>95</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.2" x14ac:dyDescent="0.25">
-      <c r="A8" s="16" t="s">
-        <v>99</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>66</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="15.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" t="s">
-        <v>167</v>
-      </c>
-      <c r="C10" s="42" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>169</v>
-      </c>
-      <c r="B11" t="s">
-        <v>170</v>
-      </c>
-      <c r="C11" s="42" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>172</v>
-      </c>
-      <c r="B12" t="s">
-        <v>173</v>
-      </c>
-      <c r="C12" s="42" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>175</v>
-      </c>
-      <c r="B13" t="s">
-        <v>176</v>
-      </c>
-      <c r="C13" s="42" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" t="s">
-        <v>179</v>
-      </c>
-      <c r="C14" s="42" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>181</v>
-      </c>
-      <c r="B15" t="s">
-        <v>182</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>184</v>
-      </c>
-      <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" s="42" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>187</v>
-      </c>
-      <c r="B17" t="s">
-        <v>188</v>
-      </c>
-      <c r="C17" s="42" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B18" t="s">
-        <v>165</v>
-      </c>
-      <c r="C18" s="42" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>191</v>
-      </c>
-      <c r="B19" t="s">
-        <v>192</v>
-      </c>
-      <c r="C19" s="42" t="s">
-        <v>193</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="10" type="noConversion"/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
-</worksheet>
 </file>